--- a/Donna Bom.xlsx
+++ b/Donna Bom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="620">
   <si>
     <t>#</t>
   </si>
@@ -1868,6 +1868,21 @@
   </si>
   <si>
     <t>https://www.hoelleinshop.com/Zubehoer/Ruderanlenkung/Gewindestangen/Gewindestange-M2-5x200mm-durchgehendes-Gewinde-brueniert.htm?shop=hoellein&amp;a=article&amp;ProdNr=RM030772&amp;t=49303&amp;c=21184&amp;p=21184</t>
+  </si>
+  <si>
+    <t>https://zeller-modellbau.com/servohebel-1-armig-25-mm-alu-rot-kst-ds113mg-115-125-135-145-215-225-313-315-x10-x12.html</t>
+  </si>
+  <si>
+    <t>KST Servo Hebel 25mm (usable length 20mm)</t>
+  </si>
+  <si>
+    <t>https://www.meinspielzeug.ch/sigikid-beasts-sir-sandwich-40cm-158181.html</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/sigikid-Beasts-Kuscheltier-Erwachsene-37730/dp/B001FB5ABM/ref=pd_bxgy_21_2?_encoding=UTF8&amp;psc=1&amp;refRID=DMQCYRVPNN41168MFRSB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/sigikid-M%C3%A4dchen-Stofftier-Pl%C3%BCschmonster-38567/dp/B01D7IV5U0/ref=pd_sim_21_8?_encoding=UTF8&amp;refRID=Y1BD7ZWZJZC5DHRMFBFG&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -4274,6 +4289,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4868,7 +4884,6 @@
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5387,10 +5402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5509,77 +5524,104 @@
         <v>3.9</v>
       </c>
       <c r="J5" s="392">
-        <f t="shared" ref="J5:J6" si="1">I5*B5</f>
+        <f t="shared" ref="J5" si="1">I5*B5</f>
         <v>23.4</v>
       </c>
       <c r="K5" s="394"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="394">
-        <v>2</v>
-      </c>
       <c r="C6" s="394" t="s">
-        <v>609</v>
-      </c>
-      <c r="D6" s="394" t="s">
-        <v>611</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="D6" s="394"/>
       <c r="G6" s="391" t="s">
-        <v>606</v>
-      </c>
-      <c r="H6" s="394">
-        <v>10</v>
-      </c>
-      <c r="I6" s="593">
-        <v>10.9</v>
-      </c>
-      <c r="J6" s="392">
-        <f>I6*B6</f>
-        <v>21.8</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="I6" s="392"/>
+      <c r="J6" s="392"/>
+      <c r="K6" s="394"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="394">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7" s="394" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D7" s="394" t="s">
         <v>611</v>
       </c>
       <c r="G7" s="391" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H7" s="394">
-        <v>1</v>
-      </c>
-      <c r="I7" s="593">
-        <v>1.95</v>
+        <v>10</v>
+      </c>
+      <c r="I7" s="395">
+        <v>10.9</v>
       </c>
       <c r="J7" s="392">
         <f>I7*B7</f>
-        <v>23.4</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="394">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" s="394" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D8" s="394" t="s">
         <v>611</v>
       </c>
       <c r="G8" s="391" t="s">
+        <v>608</v>
+      </c>
+      <c r="H8" s="394">
+        <v>1</v>
+      </c>
+      <c r="I8" s="395">
+        <v>1.95</v>
+      </c>
+      <c r="J8" s="392">
+        <f>I8*B8</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="394">
+        <v>6</v>
+      </c>
+      <c r="C9" s="394" t="s">
+        <v>613</v>
+      </c>
+      <c r="D9" s="394" t="s">
+        <v>611</v>
+      </c>
+      <c r="G9" s="391" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J9" s="393">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J10" s="393">
         <f>SUM(J3:J4)</f>
         <v>88.95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="391" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="391" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="391" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -5765,4264 +5807,4264 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="395">
+      <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="396" t="s">
+      <c r="B1" s="397" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="397" t="s">
+      <c r="D1" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="395"/>
-      <c r="B2" s="396"/>
+      <c r="A2" s="396"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="397"/>
+      <c r="D2" s="398"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="395">
+      <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="398" t="s">
+      <c r="B4" s="399" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="397" t="s">
+      <c r="D4" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="395"/>
-      <c r="B5" s="398"/>
+      <c r="A5" s="396"/>
+      <c r="B5" s="399"/>
       <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="397"/>
+      <c r="D5" s="398"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="395">
+      <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="401" t="s">
+      <c r="B7" s="402" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="397" t="s">
+      <c r="D7" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="395"/>
-      <c r="B8" s="401"/>
+      <c r="A8" s="396"/>
+      <c r="B8" s="402"/>
       <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="397"/>
+      <c r="D8" s="398"/>
     </row>
     <row r="10" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="395">
+      <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="402" t="s">
+      <c r="B10" s="403" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="397" t="s">
+      <c r="D10" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="395"/>
-      <c r="B11" s="402"/>
+      <c r="A11" s="396"/>
+      <c r="B11" s="403"/>
       <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="397"/>
+      <c r="D11" s="398"/>
     </row>
     <row r="13" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="395">
+      <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="399" t="s">
+      <c r="B13" s="400" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="397" t="s">
+      <c r="D13" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="395"/>
-      <c r="B14" s="399"/>
+      <c r="A14" s="396"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="397"/>
+      <c r="D14" s="398"/>
     </row>
     <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="395">
+      <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="400" t="s">
+      <c r="B16" s="401" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="397" t="s">
+      <c r="D16" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="395"/>
-      <c r="B17" s="400"/>
+      <c r="A17" s="396"/>
+      <c r="B17" s="401"/>
       <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="397"/>
+      <c r="D17" s="398"/>
     </row>
     <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="395">
+      <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="405" t="s">
+      <c r="B19" s="406" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="397" t="s">
+      <c r="D19" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="395"/>
-      <c r="B20" s="405"/>
+      <c r="A20" s="396"/>
+      <c r="B20" s="406"/>
       <c r="C20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="397"/>
+      <c r="D20" s="398"/>
     </row>
     <row r="22" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="395">
+      <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="406" t="s">
+      <c r="B22" s="407" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="397" t="s">
+      <c r="D22" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="395"/>
-      <c r="B23" s="406"/>
+      <c r="A23" s="396"/>
+      <c r="B23" s="407"/>
       <c r="C23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="397"/>
+      <c r="D23" s="398"/>
     </row>
     <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="395">
+      <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="403" t="s">
+      <c r="B25" s="404" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="397" t="s">
+      <c r="D25" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="395"/>
-      <c r="B26" s="403"/>
+      <c r="A26" s="396"/>
+      <c r="B26" s="404"/>
       <c r="C26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="397"/>
+      <c r="D26" s="398"/>
     </row>
     <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="395">
+      <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="404" t="s">
+      <c r="B28" s="405" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="397" t="s">
+      <c r="D28" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="395"/>
-      <c r="B29" s="404"/>
+      <c r="A29" s="396"/>
+      <c r="B29" s="405"/>
       <c r="C29" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="397"/>
+      <c r="D29" s="398"/>
     </row>
     <row r="31" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="395">
+      <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="409" t="s">
+      <c r="B31" s="410" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="397" t="s">
+      <c r="D31" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="395"/>
-      <c r="B32" s="409"/>
+      <c r="A32" s="396"/>
+      <c r="B32" s="410"/>
       <c r="C32" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="397"/>
+      <c r="D32" s="398"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="395">
+      <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="410" t="s">
+      <c r="B34" s="411" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="397" t="s">
+      <c r="D34" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="395"/>
-      <c r="B35" s="410"/>
+      <c r="A35" s="396"/>
+      <c r="B35" s="411"/>
       <c r="C35" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="397"/>
+      <c r="D35" s="398"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="395">
+      <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="407" t="s">
+      <c r="B37" s="408" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="397" t="s">
+      <c r="D37" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="395"/>
-      <c r="B38" s="407"/>
+      <c r="A38" s="396"/>
+      <c r="B38" s="408"/>
       <c r="C38" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="397"/>
+      <c r="D38" s="398"/>
     </row>
     <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="395">
+      <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="408" t="s">
+      <c r="B40" s="409" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="397" t="s">
+      <c r="D40" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="395"/>
-      <c r="B41" s="408"/>
+      <c r="A41" s="396"/>
+      <c r="B41" s="409"/>
       <c r="C41" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="397"/>
+      <c r="D41" s="398"/>
     </row>
     <row r="43" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="395">
+      <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="413" t="s">
+      <c r="B43" s="414" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="397" t="s">
+      <c r="D43" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="395"/>
-      <c r="B44" s="413"/>
+      <c r="A44" s="396"/>
+      <c r="B44" s="414"/>
       <c r="C44" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="397"/>
+      <c r="D44" s="398"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="395">
+      <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="414" t="s">
+      <c r="B46" s="415" t="s">
         <v>67</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="397" t="s">
+      <c r="D46" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="395"/>
-      <c r="B47" s="414"/>
+      <c r="A47" s="396"/>
+      <c r="B47" s="415"/>
       <c r="C47" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="397"/>
+      <c r="D47" s="398"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="395">
+      <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="411" t="s">
+      <c r="B49" s="412" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="397" t="s">
+      <c r="D49" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="395"/>
-      <c r="B50" s="411"/>
+      <c r="A50" s="396"/>
+      <c r="B50" s="412"/>
       <c r="C50" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="397"/>
+      <c r="D50" s="398"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="395">
+      <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="412" t="s">
+      <c r="B52" s="413" t="s">
         <v>73</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="397" t="s">
+      <c r="D52" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="395"/>
-      <c r="B53" s="412"/>
+      <c r="A53" s="396"/>
+      <c r="B53" s="413"/>
       <c r="C53" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="397"/>
+      <c r="D53" s="398"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="395">
+      <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="417" t="s">
+      <c r="B55" s="418" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="397" t="s">
+      <c r="D55" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="395"/>
-      <c r="B56" s="417"/>
+      <c r="A56" s="396"/>
+      <c r="B56" s="418"/>
       <c r="C56" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="397"/>
+      <c r="D56" s="398"/>
     </row>
     <row r="58" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="395">
+      <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="417" t="s">
+      <c r="B58" s="418" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="397" t="s">
+      <c r="D58" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="395"/>
-      <c r="B59" s="417"/>
+      <c r="A59" s="396"/>
+      <c r="B59" s="418"/>
       <c r="C59" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="397"/>
+      <c r="D59" s="398"/>
     </row>
     <row r="61" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="395">
+      <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="415" t="s">
+      <c r="B61" s="416" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="397" t="s">
+      <c r="D61" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="395"/>
-      <c r="B62" s="415"/>
+      <c r="A62" s="396"/>
+      <c r="B62" s="416"/>
       <c r="C62" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="397"/>
+      <c r="D62" s="398"/>
     </row>
     <row r="64" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="395">
+      <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="416" t="s">
+      <c r="B64" s="417" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="397" t="s">
+      <c r="D64" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="395"/>
-      <c r="B65" s="416"/>
+      <c r="A65" s="396"/>
+      <c r="B65" s="417"/>
       <c r="C65" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="397"/>
+      <c r="D65" s="398"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="395">
+      <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="420" t="s">
+      <c r="B67" s="421" t="s">
         <v>86</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="397" t="s">
+      <c r="D67" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="395"/>
-      <c r="B68" s="420"/>
+      <c r="A68" s="396"/>
+      <c r="B68" s="421"/>
       <c r="C68" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="397"/>
+      <c r="D68" s="398"/>
     </row>
     <row r="70" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="395">
+      <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="421" t="s">
+      <c r="B70" s="422" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D70" s="397" t="s">
+      <c r="D70" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="395"/>
-      <c r="B71" s="421"/>
+      <c r="A71" s="396"/>
+      <c r="B71" s="422"/>
       <c r="C71" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="397"/>
+      <c r="D71" s="398"/>
     </row>
     <row r="73" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="395">
+      <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="418" t="s">
+      <c r="B73" s="419" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="397" t="s">
+      <c r="D73" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="395"/>
-      <c r="B74" s="418"/>
+      <c r="A74" s="396"/>
+      <c r="B74" s="419"/>
       <c r="C74" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D74" s="397"/>
+      <c r="D74" s="398"/>
     </row>
     <row r="76" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="395">
+      <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="419" t="s">
+      <c r="B76" s="420" t="s">
         <v>95</v>
       </c>
       <c r="C76" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="397" t="s">
+      <c r="D76" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="395"/>
-      <c r="B77" s="419"/>
+      <c r="A77" s="396"/>
+      <c r="B77" s="420"/>
       <c r="C77" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="397"/>
+      <c r="D77" s="398"/>
     </row>
     <row r="79" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="395">
+      <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="424" t="s">
+      <c r="B79" s="425" t="s">
         <v>98</v>
       </c>
       <c r="C79" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D79" s="397" t="s">
+      <c r="D79" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="395"/>
-      <c r="B80" s="424"/>
+      <c r="A80" s="396"/>
+      <c r="B80" s="425"/>
       <c r="C80" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="D80" s="397"/>
+      <c r="D80" s="398"/>
     </row>
     <row r="82" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="395">
+      <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="425" t="s">
+      <c r="B82" s="426" t="s">
         <v>101</v>
       </c>
       <c r="C82" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="397" t="s">
+      <c r="D82" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="395"/>
-      <c r="B83" s="425"/>
+      <c r="A83" s="396"/>
+      <c r="B83" s="426"/>
       <c r="C83" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="397"/>
+      <c r="D83" s="398"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="395">
+      <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="422" t="s">
+      <c r="B85" s="423" t="s">
         <v>104</v>
       </c>
       <c r="C85" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="397" t="s">
+      <c r="D85" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="395"/>
-      <c r="B86" s="422"/>
+      <c r="A86" s="396"/>
+      <c r="B86" s="423"/>
       <c r="C86" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="D86" s="397"/>
+      <c r="D86" s="398"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="395">
+      <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="423" t="s">
+      <c r="B88" s="424" t="s">
         <v>107</v>
       </c>
       <c r="C88" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="397" t="s">
+      <c r="D88" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="395"/>
-      <c r="B89" s="423"/>
+      <c r="A89" s="396"/>
+      <c r="B89" s="424"/>
       <c r="C89" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D89" s="397"/>
+      <c r="D89" s="398"/>
     </row>
     <row r="91" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="395">
+      <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="428" t="s">
+      <c r="B91" s="429" t="s">
         <v>110</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="D91" s="397" t="s">
+      <c r="D91" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="395"/>
-      <c r="B92" s="428"/>
+      <c r="A92" s="396"/>
+      <c r="B92" s="429"/>
       <c r="C92" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D92" s="397"/>
+      <c r="D92" s="398"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="395">
+      <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="429" t="s">
+      <c r="B94" s="430" t="s">
         <v>113</v>
       </c>
       <c r="C94" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="397" t="s">
+      <c r="D94" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="395"/>
-      <c r="B95" s="429"/>
+      <c r="A95" s="396"/>
+      <c r="B95" s="430"/>
       <c r="C95" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="397"/>
+      <c r="D95" s="398"/>
     </row>
     <row r="97" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="395">
+      <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="426" t="s">
+      <c r="B97" s="427" t="s">
         <v>116</v>
       </c>
       <c r="C97" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D97" s="397" t="s">
+      <c r="D97" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="395"/>
-      <c r="B98" s="426"/>
+      <c r="A98" s="396"/>
+      <c r="B98" s="427"/>
       <c r="C98" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="397"/>
+      <c r="D98" s="398"/>
     </row>
     <row r="100" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="395">
+      <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="427" t="s">
+      <c r="B100" s="428" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="397" t="s">
+      <c r="D100" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="395"/>
-      <c r="B101" s="427"/>
+      <c r="A101" s="396"/>
+      <c r="B101" s="428"/>
       <c r="C101" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="D101" s="397"/>
+      <c r="D101" s="398"/>
     </row>
     <row r="103" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="395">
+      <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="432" t="s">
+      <c r="B103" s="433" t="s">
         <v>122</v>
       </c>
       <c r="C103" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D103" s="397" t="s">
+      <c r="D103" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="395"/>
-      <c r="B104" s="432"/>
+      <c r="A104" s="396"/>
+      <c r="B104" s="433"/>
       <c r="C104" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="397"/>
+      <c r="D104" s="398"/>
     </row>
     <row r="106" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="395">
+      <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="433" t="s">
+      <c r="B106" s="434" t="s">
         <v>125</v>
       </c>
       <c r="C106" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D106" s="397" t="s">
+      <c r="D106" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="395"/>
-      <c r="B107" s="433"/>
+      <c r="A107" s="396"/>
+      <c r="B107" s="434"/>
       <c r="C107" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="D107" s="397"/>
+      <c r="D107" s="398"/>
     </row>
     <row r="109" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="395">
+      <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="430" t="s">
+      <c r="B109" s="431" t="s">
         <v>128</v>
       </c>
       <c r="C109" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D109" s="397" t="s">
+      <c r="D109" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="395"/>
-      <c r="B110" s="430"/>
+      <c r="A110" s="396"/>
+      <c r="B110" s="431"/>
       <c r="C110" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="D110" s="397"/>
+      <c r="D110" s="398"/>
     </row>
     <row r="112" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="395">
+      <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="431" t="s">
+      <c r="B112" s="432" t="s">
         <v>131</v>
       </c>
       <c r="C112" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="D112" s="397" t="s">
+      <c r="D112" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="395"/>
-      <c r="B113" s="431"/>
+      <c r="A113" s="396"/>
+      <c r="B113" s="432"/>
       <c r="C113" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="D113" s="397"/>
+      <c r="D113" s="398"/>
     </row>
     <row r="115" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="395">
+      <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="436" t="s">
+      <c r="B115" s="437" t="s">
         <v>134</v>
       </c>
       <c r="C115" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D115" s="397" t="s">
+      <c r="D115" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="395"/>
-      <c r="B116" s="436"/>
+      <c r="A116" s="396"/>
+      <c r="B116" s="437"/>
       <c r="C116" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="397"/>
+      <c r="D116" s="398"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="395">
+      <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="437" t="s">
+      <c r="B118" s="438" t="s">
         <v>137</v>
       </c>
       <c r="C118" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D118" s="397" t="s">
+      <c r="D118" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="395"/>
-      <c r="B119" s="437"/>
+      <c r="A119" s="396"/>
+      <c r="B119" s="438"/>
       <c r="C119" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="D119" s="397"/>
+      <c r="D119" s="398"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="395">
+      <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="434" t="s">
+      <c r="B121" s="435" t="s">
         <v>140</v>
       </c>
       <c r="C121" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="397" t="s">
+      <c r="D121" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="395"/>
-      <c r="B122" s="434"/>
+      <c r="A122" s="396"/>
+      <c r="B122" s="435"/>
       <c r="C122" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="D122" s="397"/>
+      <c r="D122" s="398"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="395">
+      <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="435" t="s">
+      <c r="B124" s="436" t="s">
         <v>143</v>
       </c>
       <c r="C124" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="D124" s="397" t="s">
+      <c r="D124" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="395"/>
-      <c r="B125" s="435"/>
+      <c r="A125" s="396"/>
+      <c r="B125" s="436"/>
       <c r="C125" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D125" s="397"/>
+      <c r="D125" s="398"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="395">
+      <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="440" t="s">
+      <c r="B127" s="441" t="s">
         <v>146</v>
       </c>
       <c r="C127" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="D127" s="397" t="s">
+      <c r="D127" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="395"/>
-      <c r="B128" s="440"/>
+      <c r="A128" s="396"/>
+      <c r="B128" s="441"/>
       <c r="C128" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="D128" s="397"/>
+      <c r="D128" s="398"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="395">
+      <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="441" t="s">
+      <c r="B130" s="442" t="s">
         <v>149</v>
       </c>
       <c r="C130" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="D130" s="397" t="s">
+      <c r="D130" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="395"/>
-      <c r="B131" s="441"/>
+      <c r="A131" s="396"/>
+      <c r="B131" s="442"/>
       <c r="C131" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="D131" s="397"/>
+      <c r="D131" s="398"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="395">
+      <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="438" t="s">
+      <c r="B133" s="439" t="s">
         <v>152</v>
       </c>
       <c r="C133" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="D133" s="397" t="s">
+      <c r="D133" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="395"/>
-      <c r="B134" s="438"/>
+      <c r="A134" s="396"/>
+      <c r="B134" s="439"/>
       <c r="C134" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="D134" s="397"/>
+      <c r="D134" s="398"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="395">
+      <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="439" t="s">
+      <c r="B136" s="440" t="s">
         <v>155</v>
       </c>
       <c r="C136" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="D136" s="397" t="s">
+      <c r="D136" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="395"/>
-      <c r="B137" s="439"/>
+      <c r="A137" s="396"/>
+      <c r="B137" s="440"/>
       <c r="C137" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="D137" s="397"/>
+      <c r="D137" s="398"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="395">
+      <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="444" t="s">
+      <c r="B139" s="445" t="s">
         <v>158</v>
       </c>
       <c r="C139" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="D139" s="397" t="s">
+      <c r="D139" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="395"/>
-      <c r="B140" s="444"/>
+      <c r="A140" s="396"/>
+      <c r="B140" s="445"/>
       <c r="C140" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D140" s="397"/>
+      <c r="D140" s="398"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="395">
+      <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="445" t="s">
+      <c r="B142" s="446" t="s">
         <v>161</v>
       </c>
       <c r="C142" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="D142" s="397" t="s">
+      <c r="D142" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="395"/>
-      <c r="B143" s="445"/>
+      <c r="A143" s="396"/>
+      <c r="B143" s="446"/>
       <c r="C143" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="D143" s="397"/>
+      <c r="D143" s="398"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="395">
+      <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="442" t="s">
+      <c r="B145" s="443" t="s">
         <v>164</v>
       </c>
       <c r="C145" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="D145" s="397" t="s">
+      <c r="D145" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="395"/>
-      <c r="B146" s="442"/>
+      <c r="A146" s="396"/>
+      <c r="B146" s="443"/>
       <c r="C146" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="D146" s="397"/>
+      <c r="D146" s="398"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="395">
+      <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="443" t="s">
+      <c r="B148" s="444" t="s">
         <v>167</v>
       </c>
       <c r="C148" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="D148" s="397" t="s">
+      <c r="D148" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="395"/>
-      <c r="B149" s="443"/>
+      <c r="A149" s="396"/>
+      <c r="B149" s="444"/>
       <c r="C149" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="D149" s="397"/>
+      <c r="D149" s="398"/>
     </row>
     <row r="151" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="395">
+      <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="448" t="s">
+      <c r="B151" s="449" t="s">
         <v>170</v>
       </c>
       <c r="C151" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="D151" s="397" t="s">
+      <c r="D151" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="395"/>
-      <c r="B152" s="448"/>
+      <c r="A152" s="396"/>
+      <c r="B152" s="449"/>
       <c r="C152" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="D152" s="397"/>
+      <c r="D152" s="398"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="395">
+      <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="449" t="s">
+      <c r="B154" s="450" t="s">
         <v>173</v>
       </c>
       <c r="C154" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="D154" s="397" t="s">
+      <c r="D154" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="395"/>
-      <c r="B155" s="449"/>
+      <c r="A155" s="396"/>
+      <c r="B155" s="450"/>
       <c r="C155" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="D155" s="397"/>
+      <c r="D155" s="398"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="395">
+      <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="446" t="s">
+      <c r="B157" s="447" t="s">
         <v>176</v>
       </c>
       <c r="C157" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D157" s="397" t="s">
+      <c r="D157" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="395"/>
-      <c r="B158" s="446"/>
+      <c r="A158" s="396"/>
+      <c r="B158" s="447"/>
       <c r="C158" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="D158" s="397"/>
+      <c r="D158" s="398"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="395">
+      <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="447" t="s">
+      <c r="B160" s="448" t="s">
         <v>179</v>
       </c>
       <c r="C160" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="D160" s="397" t="s">
+      <c r="D160" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="395"/>
-      <c r="B161" s="447"/>
+      <c r="A161" s="396"/>
+      <c r="B161" s="448"/>
       <c r="C161" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="D161" s="397"/>
+      <c r="D161" s="398"/>
     </row>
     <row r="163" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="395">
+      <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="452" t="s">
+      <c r="B163" s="453" t="s">
         <v>182</v>
       </c>
       <c r="C163" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D163" s="397" t="s">
+      <c r="D163" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="395"/>
-      <c r="B164" s="452"/>
+      <c r="A164" s="396"/>
+      <c r="B164" s="453"/>
       <c r="C164" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="D164" s="397"/>
+      <c r="D164" s="398"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="395">
+      <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="453" t="s">
+      <c r="B166" s="454" t="s">
         <v>185</v>
       </c>
       <c r="C166" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="D166" s="397" t="s">
+      <c r="D166" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="395"/>
-      <c r="B167" s="453"/>
+      <c r="A167" s="396"/>
+      <c r="B167" s="454"/>
       <c r="C167" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="D167" s="397"/>
+      <c r="D167" s="398"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="395">
+      <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="450" t="s">
+      <c r="B169" s="451" t="s">
         <v>188</v>
       </c>
       <c r="C169" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="D169" s="397" t="s">
+      <c r="D169" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="395"/>
-      <c r="B170" s="450"/>
+      <c r="A170" s="396"/>
+      <c r="B170" s="451"/>
       <c r="C170" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="D170" s="397"/>
+      <c r="D170" s="398"/>
     </row>
     <row r="172" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="395">
+      <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="451" t="s">
+      <c r="B172" s="452" t="s">
         <v>191</v>
       </c>
       <c r="C172" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="D172" s="397" t="s">
+      <c r="D172" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="395"/>
-      <c r="B173" s="451"/>
+      <c r="A173" s="396"/>
+      <c r="B173" s="452"/>
       <c r="C173" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="D173" s="397"/>
+      <c r="D173" s="398"/>
     </row>
     <row r="175" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="395">
+      <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="456" t="s">
+      <c r="B175" s="457" t="s">
         <v>194</v>
       </c>
       <c r="C175" s="119" t="s">
         <v>195</v>
       </c>
-      <c r="D175" s="397" t="s">
+      <c r="D175" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="395"/>
-      <c r="B176" s="456"/>
+      <c r="A176" s="396"/>
+      <c r="B176" s="457"/>
       <c r="C176" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="D176" s="397"/>
+      <c r="D176" s="398"/>
     </row>
     <row r="178" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="395">
+      <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="457" t="s">
+      <c r="B178" s="458" t="s">
         <v>197</v>
       </c>
       <c r="C178" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="D178" s="397" t="s">
+      <c r="D178" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="395"/>
-      <c r="B179" s="457"/>
+      <c r="A179" s="396"/>
+      <c r="B179" s="458"/>
       <c r="C179" s="122" t="s">
         <v>199</v>
       </c>
-      <c r="D179" s="397"/>
+      <c r="D179" s="398"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="395">
+      <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="454" t="s">
+      <c r="B181" s="455" t="s">
         <v>200</v>
       </c>
       <c r="C181" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="D181" s="397" t="s">
+      <c r="D181" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="395"/>
-      <c r="B182" s="454"/>
+      <c r="A182" s="396"/>
+      <c r="B182" s="455"/>
       <c r="C182" s="124" t="s">
         <v>202</v>
       </c>
-      <c r="D182" s="397"/>
+      <c r="D182" s="398"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="395">
+      <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="455" t="s">
+      <c r="B184" s="456" t="s">
         <v>203</v>
       </c>
       <c r="C184" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="D184" s="397" t="s">
+      <c r="D184" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="395"/>
-      <c r="B185" s="455"/>
+      <c r="A185" s="396"/>
+      <c r="B185" s="456"/>
       <c r="C185" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="D185" s="397"/>
+      <c r="D185" s="398"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="395">
+      <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="460" t="s">
+      <c r="B187" s="461" t="s">
         <v>206</v>
       </c>
       <c r="C187" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="D187" s="397" t="s">
+      <c r="D187" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="395"/>
-      <c r="B188" s="460"/>
+      <c r="A188" s="396"/>
+      <c r="B188" s="461"/>
       <c r="C188" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="D188" s="397"/>
+      <c r="D188" s="398"/>
     </row>
     <row r="190" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="395">
+      <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="461" t="s">
+      <c r="B190" s="462" t="s">
         <v>209</v>
       </c>
       <c r="C190" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="D190" s="397" t="s">
+      <c r="D190" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="395"/>
-      <c r="B191" s="461"/>
+      <c r="A191" s="396"/>
+      <c r="B191" s="462"/>
       <c r="C191" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="D191" s="397"/>
+      <c r="D191" s="398"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="395">
+      <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="458" t="s">
+      <c r="B193" s="459" t="s">
         <v>212</v>
       </c>
       <c r="C193" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="D193" s="397" t="s">
+      <c r="D193" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="395"/>
-      <c r="B194" s="458"/>
+      <c r="A194" s="396"/>
+      <c r="B194" s="459"/>
       <c r="C194" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="D194" s="397"/>
+      <c r="D194" s="398"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="395">
+      <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="459" t="s">
+      <c r="B196" s="460" t="s">
         <v>215</v>
       </c>
       <c r="C196" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="D196" s="397" t="s">
+      <c r="D196" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="395"/>
-      <c r="B197" s="459"/>
+      <c r="A197" s="396"/>
+      <c r="B197" s="460"/>
       <c r="C197" s="134" t="s">
         <v>217</v>
       </c>
-      <c r="D197" s="397"/>
+      <c r="D197" s="398"/>
     </row>
     <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="395">
+      <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="464" t="s">
+      <c r="B199" s="465" t="s">
         <v>218</v>
       </c>
       <c r="C199" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="D199" s="397" t="s">
+      <c r="D199" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="395"/>
-      <c r="B200" s="464"/>
+      <c r="A200" s="396"/>
+      <c r="B200" s="465"/>
       <c r="C200" s="136" t="s">
         <v>220</v>
       </c>
-      <c r="D200" s="397"/>
+      <c r="D200" s="398"/>
     </row>
     <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="395">
+      <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="465" t="s">
+      <c r="B202" s="466" t="s">
         <v>221</v>
       </c>
       <c r="C202" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="D202" s="397" t="s">
+      <c r="D202" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="395"/>
-      <c r="B203" s="465"/>
+      <c r="A203" s="396"/>
+      <c r="B203" s="466"/>
       <c r="C203" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="D203" s="397"/>
+      <c r="D203" s="398"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="395">
+      <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="462" t="s">
+      <c r="B205" s="463" t="s">
         <v>224</v>
       </c>
       <c r="C205" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="D205" s="397" t="s">
+      <c r="D205" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="395"/>
-      <c r="B206" s="462"/>
+      <c r="A206" s="396"/>
+      <c r="B206" s="463"/>
       <c r="C206" s="140" t="s">
         <v>226</v>
       </c>
-      <c r="D206" s="397"/>
+      <c r="D206" s="398"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="395">
+      <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="463" t="s">
+      <c r="B208" s="464" t="s">
         <v>227</v>
       </c>
       <c r="C208" s="141" t="s">
         <v>228</v>
       </c>
-      <c r="D208" s="397" t="s">
+      <c r="D208" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="395"/>
-      <c r="B209" s="463"/>
+      <c r="A209" s="396"/>
+      <c r="B209" s="464"/>
       <c r="C209" s="142" t="s">
         <v>229</v>
       </c>
-      <c r="D209" s="397"/>
+      <c r="D209" s="398"/>
     </row>
     <row r="211" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="395">
+      <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="468" t="s">
+      <c r="B211" s="469" t="s">
         <v>230</v>
       </c>
       <c r="C211" s="143" t="s">
         <v>231</v>
       </c>
-      <c r="D211" s="397" t="s">
+      <c r="D211" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="395"/>
-      <c r="B212" s="468"/>
+      <c r="A212" s="396"/>
+      <c r="B212" s="469"/>
       <c r="C212" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="D212" s="397"/>
+      <c r="D212" s="398"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="395">
+      <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="469" t="s">
+      <c r="B214" s="470" t="s">
         <v>233</v>
       </c>
       <c r="C214" s="145" t="s">
         <v>234</v>
       </c>
-      <c r="D214" s="397" t="s">
+      <c r="D214" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="395"/>
-      <c r="B215" s="469"/>
+      <c r="A215" s="396"/>
+      <c r="B215" s="470"/>
       <c r="C215" s="146" t="s">
         <v>235</v>
       </c>
-      <c r="D215" s="397"/>
+      <c r="D215" s="398"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="395">
+      <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="466" t="s">
+      <c r="B217" s="467" t="s">
         <v>236</v>
       </c>
       <c r="C217" s="147" t="s">
         <v>237</v>
       </c>
-      <c r="D217" s="397" t="s">
+      <c r="D217" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="395"/>
-      <c r="B218" s="466"/>
+      <c r="A218" s="396"/>
+      <c r="B218" s="467"/>
       <c r="C218" s="148" t="s">
         <v>238</v>
       </c>
-      <c r="D218" s="397"/>
+      <c r="D218" s="398"/>
     </row>
     <row r="220" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="395">
+      <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="467" t="s">
+      <c r="B220" s="468" t="s">
         <v>239</v>
       </c>
       <c r="C220" s="149" t="s">
         <v>240</v>
       </c>
-      <c r="D220" s="397" t="s">
+      <c r="D220" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="395"/>
-      <c r="B221" s="467"/>
+      <c r="A221" s="396"/>
+      <c r="B221" s="468"/>
       <c r="C221" s="150" t="s">
         <v>241</v>
       </c>
-      <c r="D221" s="397"/>
+      <c r="D221" s="398"/>
     </row>
     <row r="223" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="395">
+      <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="472" t="s">
+      <c r="B223" s="473" t="s">
         <v>242</v>
       </c>
       <c r="C223" s="151" t="s">
         <v>243</v>
       </c>
-      <c r="D223" s="397" t="s">
+      <c r="D223" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="395"/>
-      <c r="B224" s="472"/>
+      <c r="A224" s="396"/>
+      <c r="B224" s="473"/>
       <c r="C224" s="152" t="s">
         <v>244</v>
       </c>
-      <c r="D224" s="397"/>
+      <c r="D224" s="398"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="395">
+      <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="473" t="s">
+      <c r="B226" s="474" t="s">
         <v>245</v>
       </c>
       <c r="C226" s="153" t="s">
         <v>246</v>
       </c>
-      <c r="D226" s="397" t="s">
+      <c r="D226" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="395"/>
-      <c r="B227" s="473"/>
+      <c r="A227" s="396"/>
+      <c r="B227" s="474"/>
       <c r="C227" s="154" t="s">
         <v>247</v>
       </c>
-      <c r="D227" s="397"/>
+      <c r="D227" s="398"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="395">
+      <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="470" t="s">
+      <c r="B229" s="471" t="s">
         <v>248</v>
       </c>
       <c r="C229" s="155" t="s">
         <v>249</v>
       </c>
-      <c r="D229" s="397" t="s">
+      <c r="D229" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="395"/>
-      <c r="B230" s="470"/>
+      <c r="A230" s="396"/>
+      <c r="B230" s="471"/>
       <c r="C230" s="156" t="s">
         <v>250</v>
       </c>
-      <c r="D230" s="397"/>
+      <c r="D230" s="398"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="395">
+      <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="471" t="s">
+      <c r="B232" s="472" t="s">
         <v>251</v>
       </c>
       <c r="C232" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="D232" s="397" t="s">
+      <c r="D232" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="395"/>
-      <c r="B233" s="471"/>
+      <c r="A233" s="396"/>
+      <c r="B233" s="472"/>
       <c r="C233" s="158" t="s">
         <v>253</v>
       </c>
-      <c r="D233" s="397"/>
+      <c r="D233" s="398"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="395">
+      <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="476" t="s">
+      <c r="B235" s="477" t="s">
         <v>254</v>
       </c>
       <c r="C235" s="159" t="s">
         <v>255</v>
       </c>
-      <c r="D235" s="397" t="s">
+      <c r="D235" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="395"/>
-      <c r="B236" s="476"/>
+      <c r="A236" s="396"/>
+      <c r="B236" s="477"/>
       <c r="C236" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="D236" s="397"/>
+      <c r="D236" s="398"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="395">
+      <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="477" t="s">
+      <c r="B238" s="478" t="s">
         <v>257</v>
       </c>
       <c r="C238" s="161" t="s">
         <v>258</v>
       </c>
-      <c r="D238" s="397" t="s">
+      <c r="D238" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="395"/>
-      <c r="B239" s="477"/>
+      <c r="A239" s="396"/>
+      <c r="B239" s="478"/>
       <c r="C239" s="162" t="s">
         <v>259</v>
       </c>
-      <c r="D239" s="397"/>
+      <c r="D239" s="398"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="395">
+      <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="474" t="s">
+      <c r="B241" s="475" t="s">
         <v>260</v>
       </c>
       <c r="C241" s="163" t="s">
         <v>261</v>
       </c>
-      <c r="D241" s="397" t="s">
+      <c r="D241" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="395"/>
-      <c r="B242" s="474"/>
+      <c r="A242" s="396"/>
+      <c r="B242" s="475"/>
       <c r="C242" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="D242" s="397"/>
+      <c r="D242" s="398"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="395">
+      <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="475" t="s">
+      <c r="B244" s="476" t="s">
         <v>263</v>
       </c>
       <c r="C244" s="165" t="s">
         <v>264</v>
       </c>
-      <c r="D244" s="397" t="s">
+      <c r="D244" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="395"/>
-      <c r="B245" s="475"/>
+      <c r="A245" s="396"/>
+      <c r="B245" s="476"/>
       <c r="C245" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="D245" s="397"/>
+      <c r="D245" s="398"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="395">
+      <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="480" t="s">
+      <c r="B247" s="481" t="s">
         <v>266</v>
       </c>
       <c r="C247" s="167" t="s">
         <v>267</v>
       </c>
-      <c r="D247" s="397" t="s">
+      <c r="D247" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="395"/>
-      <c r="B248" s="480"/>
+      <c r="A248" s="396"/>
+      <c r="B248" s="481"/>
       <c r="C248" s="168" t="s">
         <v>268</v>
       </c>
-      <c r="D248" s="397"/>
+      <c r="D248" s="398"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="395">
+      <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="481" t="s">
+      <c r="B250" s="482" t="s">
         <v>269</v>
       </c>
       <c r="C250" s="169" t="s">
         <v>270</v>
       </c>
-      <c r="D250" s="397" t="s">
+      <c r="D250" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="395"/>
-      <c r="B251" s="481"/>
+      <c r="A251" s="396"/>
+      <c r="B251" s="482"/>
       <c r="C251" s="170" t="s">
         <v>271</v>
       </c>
-      <c r="D251" s="397"/>
+      <c r="D251" s="398"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="395">
+      <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="478" t="s">
+      <c r="B253" s="479" t="s">
         <v>272</v>
       </c>
       <c r="C253" s="171" t="s">
         <v>273</v>
       </c>
-      <c r="D253" s="397" t="s">
+      <c r="D253" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="395"/>
-      <c r="B254" s="478"/>
+      <c r="A254" s="396"/>
+      <c r="B254" s="479"/>
       <c r="C254" s="172" t="s">
         <v>274</v>
       </c>
-      <c r="D254" s="397"/>
+      <c r="D254" s="398"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="395">
+      <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="479" t="s">
+      <c r="B256" s="480" t="s">
         <v>275</v>
       </c>
       <c r="C256" s="173" t="s">
         <v>276</v>
       </c>
-      <c r="D256" s="397" t="s">
+      <c r="D256" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="395"/>
-      <c r="B257" s="479"/>
+      <c r="A257" s="396"/>
+      <c r="B257" s="480"/>
       <c r="C257" s="174" t="s">
         <v>277</v>
       </c>
-      <c r="D257" s="397"/>
+      <c r="D257" s="398"/>
     </row>
     <row r="259" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="395">
+      <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="484" t="s">
+      <c r="B259" s="485" t="s">
         <v>278</v>
       </c>
       <c r="C259" s="175" t="s">
         <v>279</v>
       </c>
-      <c r="D259" s="397" t="s">
+      <c r="D259" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="395"/>
-      <c r="B260" s="484"/>
+      <c r="A260" s="396"/>
+      <c r="B260" s="485"/>
       <c r="C260" s="176" t="s">
         <v>280</v>
       </c>
-      <c r="D260" s="397"/>
+      <c r="D260" s="398"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="395">
+      <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="485" t="s">
+      <c r="B262" s="486" t="s">
         <v>281</v>
       </c>
       <c r="C262" s="177" t="s">
         <v>282</v>
       </c>
-      <c r="D262" s="397" t="s">
+      <c r="D262" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="395"/>
-      <c r="B263" s="485"/>
+      <c r="A263" s="396"/>
+      <c r="B263" s="486"/>
       <c r="C263" s="178" t="s">
         <v>283</v>
       </c>
-      <c r="D263" s="397"/>
+      <c r="D263" s="398"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="395">
+      <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="482" t="s">
+      <c r="B265" s="483" t="s">
         <v>260</v>
       </c>
       <c r="C265" s="179" t="s">
         <v>284</v>
       </c>
-      <c r="D265" s="397" t="s">
+      <c r="D265" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="395"/>
-      <c r="B266" s="482"/>
+      <c r="A266" s="396"/>
+      <c r="B266" s="483"/>
       <c r="C266" s="180" t="s">
         <v>285</v>
       </c>
-      <c r="D266" s="397"/>
+      <c r="D266" s="398"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="395">
+      <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="483" t="s">
+      <c r="B268" s="484" t="s">
         <v>286</v>
       </c>
       <c r="C268" s="181" t="s">
         <v>287</v>
       </c>
-      <c r="D268" s="397" t="s">
+      <c r="D268" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="395"/>
-      <c r="B269" s="483"/>
+      <c r="A269" s="396"/>
+      <c r="B269" s="484"/>
       <c r="C269" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="D269" s="397"/>
+      <c r="D269" s="398"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="395">
+      <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="488" t="s">
+      <c r="B271" s="489" t="s">
         <v>289</v>
       </c>
       <c r="C271" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="D271" s="397" t="s">
+      <c r="D271" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="395"/>
-      <c r="B272" s="488"/>
+      <c r="A272" s="396"/>
+      <c r="B272" s="489"/>
       <c r="C272" s="184" t="s">
         <v>291</v>
       </c>
-      <c r="D272" s="397"/>
+      <c r="D272" s="398"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="395">
+      <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="489" t="s">
+      <c r="B274" s="490" t="s">
         <v>292</v>
       </c>
       <c r="C274" s="185" t="s">
         <v>293</v>
       </c>
-      <c r="D274" s="397" t="s">
+      <c r="D274" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="395"/>
-      <c r="B275" s="489"/>
+      <c r="A275" s="396"/>
+      <c r="B275" s="490"/>
       <c r="C275" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="D275" s="397"/>
+      <c r="D275" s="398"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="395">
+      <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="486" t="s">
+      <c r="B277" s="487" t="s">
         <v>295</v>
       </c>
       <c r="C277" s="187" t="s">
         <v>296</v>
       </c>
-      <c r="D277" s="397" t="s">
+      <c r="D277" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="395"/>
-      <c r="B278" s="486"/>
+      <c r="A278" s="396"/>
+      <c r="B278" s="487"/>
       <c r="C278" s="188" t="s">
         <v>297</v>
       </c>
-      <c r="D278" s="397"/>
+      <c r="D278" s="398"/>
     </row>
     <row r="280" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="395">
+      <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="487" t="s">
+      <c r="B280" s="488" t="s">
         <v>298</v>
       </c>
       <c r="C280" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="D280" s="397" t="s">
+      <c r="D280" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="395"/>
-      <c r="B281" s="487"/>
+      <c r="A281" s="396"/>
+      <c r="B281" s="488"/>
       <c r="C281" s="190" t="s">
         <v>300</v>
       </c>
-      <c r="D281" s="397"/>
+      <c r="D281" s="398"/>
     </row>
     <row r="283" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="395">
+      <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="492" t="s">
+      <c r="B283" s="493" t="s">
         <v>301</v>
       </c>
       <c r="C283" s="191" t="s">
         <v>302</v>
       </c>
-      <c r="D283" s="397" t="s">
+      <c r="D283" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="395"/>
-      <c r="B284" s="492"/>
+      <c r="A284" s="396"/>
+      <c r="B284" s="493"/>
       <c r="C284" s="192" t="s">
         <v>303</v>
       </c>
-      <c r="D284" s="397"/>
+      <c r="D284" s="398"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="395">
+      <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="493" t="s">
+      <c r="B286" s="494" t="s">
         <v>304</v>
       </c>
       <c r="C286" s="193" t="s">
         <v>305</v>
       </c>
-      <c r="D286" s="397" t="s">
+      <c r="D286" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="395"/>
-      <c r="B287" s="493"/>
+      <c r="A287" s="396"/>
+      <c r="B287" s="494"/>
       <c r="C287" s="194" t="s">
         <v>306</v>
       </c>
-      <c r="D287" s="397"/>
+      <c r="D287" s="398"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="395">
+      <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="490" t="s">
+      <c r="B289" s="491" t="s">
         <v>307</v>
       </c>
       <c r="C289" s="195" t="s">
         <v>308</v>
       </c>
-      <c r="D289" s="397" t="s">
+      <c r="D289" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="395"/>
-      <c r="B290" s="490"/>
+      <c r="A290" s="396"/>
+      <c r="B290" s="491"/>
       <c r="C290" s="196" t="s">
         <v>309</v>
       </c>
-      <c r="D290" s="397"/>
+      <c r="D290" s="398"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="395">
+      <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="491" t="s">
+      <c r="B292" s="492" t="s">
         <v>310</v>
       </c>
       <c r="C292" s="197" t="s">
         <v>311</v>
       </c>
-      <c r="D292" s="397" t="s">
+      <c r="D292" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="395"/>
-      <c r="B293" s="491"/>
+      <c r="A293" s="396"/>
+      <c r="B293" s="492"/>
       <c r="C293" s="198" t="s">
         <v>312</v>
       </c>
-      <c r="D293" s="397"/>
+      <c r="D293" s="398"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="395">
+      <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="496" t="s">
+      <c r="B295" s="497" t="s">
         <v>313</v>
       </c>
       <c r="C295" s="199" t="s">
         <v>314</v>
       </c>
-      <c r="D295" s="397" t="s">
+      <c r="D295" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="395"/>
-      <c r="B296" s="496"/>
+      <c r="A296" s="396"/>
+      <c r="B296" s="497"/>
       <c r="C296" s="200" t="s">
         <v>315</v>
       </c>
-      <c r="D296" s="397"/>
+      <c r="D296" s="398"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="395">
+      <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="497" t="s">
+      <c r="B298" s="498" t="s">
         <v>316</v>
       </c>
       <c r="C298" s="201" t="s">
         <v>317</v>
       </c>
-      <c r="D298" s="397" t="s">
+      <c r="D298" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="395"/>
-      <c r="B299" s="497"/>
+      <c r="A299" s="396"/>
+      <c r="B299" s="498"/>
       <c r="C299" s="202" t="s">
         <v>318</v>
       </c>
-      <c r="D299" s="397"/>
+      <c r="D299" s="398"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="395">
+      <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="494" t="s">
+      <c r="B301" s="495" t="s">
         <v>319</v>
       </c>
       <c r="C301" s="203" t="s">
         <v>320</v>
       </c>
-      <c r="D301" s="397" t="s">
+      <c r="D301" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="395"/>
-      <c r="B302" s="494"/>
+      <c r="A302" s="396"/>
+      <c r="B302" s="495"/>
       <c r="C302" s="204" t="s">
         <v>321</v>
       </c>
-      <c r="D302" s="397"/>
+      <c r="D302" s="398"/>
     </row>
     <row r="304" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="395">
+      <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="495" t="s">
+      <c r="B304" s="496" t="s">
         <v>322</v>
       </c>
       <c r="C304" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="D304" s="397" t="s">
+      <c r="D304" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="395"/>
-      <c r="B305" s="495"/>
+      <c r="A305" s="396"/>
+      <c r="B305" s="496"/>
       <c r="C305" s="206" t="s">
         <v>324</v>
       </c>
-      <c r="D305" s="397"/>
+      <c r="D305" s="398"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="395">
+      <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="500" t="s">
+      <c r="B307" s="501" t="s">
         <v>325</v>
       </c>
       <c r="C307" s="207" t="s">
         <v>326</v>
       </c>
-      <c r="D307" s="397" t="s">
+      <c r="D307" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="395"/>
-      <c r="B308" s="500"/>
+      <c r="A308" s="396"/>
+      <c r="B308" s="501"/>
       <c r="C308" s="208" t="s">
         <v>327</v>
       </c>
-      <c r="D308" s="397"/>
+      <c r="D308" s="398"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="395">
+      <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="501" t="s">
+      <c r="B310" s="502" t="s">
         <v>328</v>
       </c>
       <c r="C310" s="209" t="s">
         <v>329</v>
       </c>
-      <c r="D310" s="397" t="s">
+      <c r="D310" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="395"/>
-      <c r="B311" s="501"/>
+      <c r="A311" s="396"/>
+      <c r="B311" s="502"/>
       <c r="C311" s="210" t="s">
         <v>330</v>
       </c>
-      <c r="D311" s="397"/>
+      <c r="D311" s="398"/>
     </row>
     <row r="313" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="395">
+      <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="498" t="s">
+      <c r="B313" s="499" t="s">
         <v>331</v>
       </c>
       <c r="C313" s="211" t="s">
         <v>332</v>
       </c>
-      <c r="D313" s="397" t="s">
+      <c r="D313" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="395"/>
-      <c r="B314" s="498"/>
+      <c r="A314" s="396"/>
+      <c r="B314" s="499"/>
       <c r="C314" s="212" t="s">
         <v>333</v>
       </c>
-      <c r="D314" s="397"/>
+      <c r="D314" s="398"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="395">
+      <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="499" t="s">
+      <c r="B316" s="500" t="s">
         <v>334</v>
       </c>
       <c r="C316" s="213" t="s">
         <v>335</v>
       </c>
-      <c r="D316" s="397" t="s">
+      <c r="D316" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="395"/>
-      <c r="B317" s="499"/>
+      <c r="A317" s="396"/>
+      <c r="B317" s="500"/>
       <c r="C317" s="214" t="s">
         <v>336</v>
       </c>
-      <c r="D317" s="397"/>
+      <c r="D317" s="398"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" s="395">
+      <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="504" t="s">
+      <c r="B319" s="505" t="s">
         <v>337</v>
       </c>
       <c r="C319" s="215" t="s">
         <v>338</v>
       </c>
-      <c r="D319" s="397" t="s">
+      <c r="D319" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="395"/>
-      <c r="B320" s="504"/>
+      <c r="A320" s="396"/>
+      <c r="B320" s="505"/>
       <c r="C320" s="216" t="s">
         <v>339</v>
       </c>
-      <c r="D320" s="397"/>
+      <c r="D320" s="398"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="395">
+      <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="505" t="s">
+      <c r="B322" s="506" t="s">
         <v>340</v>
       </c>
       <c r="C322" s="217" t="s">
         <v>341</v>
       </c>
-      <c r="D322" s="397" t="s">
+      <c r="D322" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="395"/>
-      <c r="B323" s="505"/>
+      <c r="A323" s="396"/>
+      <c r="B323" s="506"/>
       <c r="C323" s="218" t="s">
         <v>342</v>
       </c>
-      <c r="D323" s="397"/>
+      <c r="D323" s="398"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="395">
+      <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="502" t="s">
+      <c r="B325" s="503" t="s">
         <v>343</v>
       </c>
       <c r="C325" s="219" t="s">
         <v>344</v>
       </c>
-      <c r="D325" s="397" t="s">
+      <c r="D325" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" s="395"/>
-      <c r="B326" s="502"/>
+      <c r="A326" s="396"/>
+      <c r="B326" s="503"/>
       <c r="C326" s="220" t="s">
         <v>345</v>
       </c>
-      <c r="D326" s="397"/>
+      <c r="D326" s="398"/>
     </row>
     <row r="328" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="395">
+      <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="503" t="s">
+      <c r="B328" s="504" t="s">
         <v>346</v>
       </c>
       <c r="C328" s="221" t="s">
         <v>347</v>
       </c>
-      <c r="D328" s="397" t="s">
+      <c r="D328" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="395"/>
-      <c r="B329" s="503"/>
+      <c r="A329" s="396"/>
+      <c r="B329" s="504"/>
       <c r="C329" s="222" t="s">
         <v>348</v>
       </c>
-      <c r="D329" s="397"/>
+      <c r="D329" s="398"/>
     </row>
     <row r="331" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="395">
+      <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="508" t="s">
+      <c r="B331" s="509" t="s">
         <v>349</v>
       </c>
       <c r="C331" s="223" t="s">
         <v>350</v>
       </c>
-      <c r="D331" s="397" t="s">
+      <c r="D331" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332" s="395"/>
-      <c r="B332" s="508"/>
+      <c r="A332" s="396"/>
+      <c r="B332" s="509"/>
       <c r="C332" s="224" t="s">
         <v>351</v>
       </c>
-      <c r="D332" s="397"/>
+      <c r="D332" s="398"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="395">
+      <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="509" t="s">
+      <c r="B334" s="510" t="s">
         <v>352</v>
       </c>
       <c r="C334" s="225" t="s">
         <v>353</v>
       </c>
-      <c r="D334" s="397" t="s">
+      <c r="D334" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" s="395"/>
-      <c r="B335" s="509"/>
+      <c r="A335" s="396"/>
+      <c r="B335" s="510"/>
       <c r="C335" s="226" t="s">
         <v>354</v>
       </c>
-      <c r="D335" s="397"/>
+      <c r="D335" s="398"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" s="395">
+      <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="506" t="s">
+      <c r="B337" s="507" t="s">
         <v>355</v>
       </c>
       <c r="C337" s="227" t="s">
         <v>356</v>
       </c>
-      <c r="D337" s="397" t="s">
+      <c r="D337" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="395"/>
-      <c r="B338" s="506"/>
+      <c r="A338" s="396"/>
+      <c r="B338" s="507"/>
       <c r="C338" s="228" t="s">
         <v>357</v>
       </c>
-      <c r="D338" s="397"/>
+      <c r="D338" s="398"/>
     </row>
     <row r="340" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="395">
+      <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="507" t="s">
+      <c r="B340" s="508" t="s">
         <v>358</v>
       </c>
       <c r="C340" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="D340" s="397" t="s">
+      <c r="D340" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" s="395"/>
-      <c r="B341" s="507"/>
+      <c r="A341" s="396"/>
+      <c r="B341" s="508"/>
       <c r="C341" s="230" t="s">
         <v>360</v>
       </c>
-      <c r="D341" s="397"/>
+      <c r="D341" s="398"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" s="395">
+      <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="512" t="s">
+      <c r="B343" s="513" t="s">
         <v>361</v>
       </c>
       <c r="C343" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="D343" s="397" t="s">
+      <c r="D343" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" s="395"/>
-      <c r="B344" s="512"/>
+      <c r="A344" s="396"/>
+      <c r="B344" s="513"/>
       <c r="C344" s="232" t="s">
         <v>363</v>
       </c>
-      <c r="D344" s="397"/>
+      <c r="D344" s="398"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="395">
+      <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="513" t="s">
+      <c r="B346" s="514" t="s">
         <v>364</v>
       </c>
       <c r="C346" s="233" t="s">
         <v>365</v>
       </c>
-      <c r="D346" s="397" t="s">
+      <c r="D346" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" s="395"/>
-      <c r="B347" s="513"/>
+      <c r="A347" s="396"/>
+      <c r="B347" s="514"/>
       <c r="C347" s="234" t="s">
         <v>366</v>
       </c>
-      <c r="D347" s="397"/>
+      <c r="D347" s="398"/>
     </row>
     <row r="349" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="395">
+      <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="510" t="s">
+      <c r="B349" s="511" t="s">
         <v>367</v>
       </c>
       <c r="C349" s="235" t="s">
         <v>368</v>
       </c>
-      <c r="D349" s="397" t="s">
+      <c r="D349" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" s="395"/>
-      <c r="B350" s="510"/>
+      <c r="A350" s="396"/>
+      <c r="B350" s="511"/>
       <c r="C350" s="236" t="s">
         <v>369</v>
       </c>
-      <c r="D350" s="397"/>
+      <c r="D350" s="398"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="395">
+      <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="511" t="s">
+      <c r="B352" s="512" t="s">
         <v>370</v>
       </c>
       <c r="C352" s="237" t="s">
         <v>371</v>
       </c>
-      <c r="D352" s="397" t="s">
+      <c r="D352" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" s="395"/>
-      <c r="B353" s="511"/>
+      <c r="A353" s="396"/>
+      <c r="B353" s="512"/>
       <c r="C353" s="238" t="s">
         <v>372</v>
       </c>
-      <c r="D353" s="397"/>
+      <c r="D353" s="398"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="395">
+      <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="516" t="s">
+      <c r="B355" s="517" t="s">
         <v>373</v>
       </c>
       <c r="C355" s="239" t="s">
         <v>374</v>
       </c>
-      <c r="D355" s="397" t="s">
+      <c r="D355" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="395"/>
-      <c r="B356" s="516"/>
+      <c r="A356" s="396"/>
+      <c r="B356" s="517"/>
       <c r="C356" s="240" t="s">
         <v>375</v>
       </c>
-      <c r="D356" s="397"/>
+      <c r="D356" s="398"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="395">
+      <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="517" t="s">
+      <c r="B358" s="518" t="s">
         <v>376</v>
       </c>
       <c r="C358" s="241" t="s">
         <v>377</v>
       </c>
-      <c r="D358" s="397" t="s">
+      <c r="D358" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" s="395"/>
-      <c r="B359" s="517"/>
+      <c r="A359" s="396"/>
+      <c r="B359" s="518"/>
       <c r="C359" s="242" t="s">
         <v>378</v>
       </c>
-      <c r="D359" s="397"/>
+      <c r="D359" s="398"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" s="395">
+      <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="514" t="s">
+      <c r="B361" s="515" t="s">
         <v>379</v>
       </c>
       <c r="C361" s="243" t="s">
         <v>380</v>
       </c>
-      <c r="D361" s="397" t="s">
+      <c r="D361" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" s="395"/>
-      <c r="B362" s="514"/>
+      <c r="A362" s="396"/>
+      <c r="B362" s="515"/>
       <c r="C362" s="244" t="s">
         <v>381</v>
       </c>
-      <c r="D362" s="397"/>
+      <c r="D362" s="398"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" s="395">
+      <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="515" t="s">
+      <c r="B364" s="516" t="s">
         <v>382</v>
       </c>
       <c r="C364" s="245" t="s">
         <v>383</v>
       </c>
-      <c r="D364" s="397" t="s">
+      <c r="D364" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" s="395"/>
-      <c r="B365" s="515"/>
+      <c r="A365" s="396"/>
+      <c r="B365" s="516"/>
       <c r="C365" s="246" t="s">
         <v>384</v>
       </c>
-      <c r="D365" s="397"/>
+      <c r="D365" s="398"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367" s="395">
+      <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="520" t="s">
+      <c r="B367" s="521" t="s">
         <v>385</v>
       </c>
       <c r="C367" s="247" t="s">
         <v>386</v>
       </c>
-      <c r="D367" s="397" t="s">
+      <c r="D367" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" s="395"/>
-      <c r="B368" s="520"/>
+      <c r="A368" s="396"/>
+      <c r="B368" s="521"/>
       <c r="C368" s="248" t="s">
         <v>387</v>
       </c>
-      <c r="D368" s="397"/>
+      <c r="D368" s="398"/>
     </row>
     <row r="370" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A370" s="395">
+      <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="521" t="s">
+      <c r="B370" s="522" t="s">
         <v>388</v>
       </c>
       <c r="C370" s="249" t="s">
         <v>389</v>
       </c>
-      <c r="D370" s="397" t="s">
+      <c r="D370" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="395"/>
-      <c r="B371" s="521"/>
+      <c r="A371" s="396"/>
+      <c r="B371" s="522"/>
       <c r="C371" s="250" t="s">
         <v>390</v>
       </c>
-      <c r="D371" s="397"/>
+      <c r="D371" s="398"/>
     </row>
     <row r="373" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="395">
+      <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="518" t="s">
+      <c r="B373" s="519" t="s">
         <v>391</v>
       </c>
       <c r="C373" s="251" t="s">
         <v>392</v>
       </c>
-      <c r="D373" s="397" t="s">
+      <c r="D373" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" s="395"/>
-      <c r="B374" s="518"/>
+      <c r="A374" s="396"/>
+      <c r="B374" s="519"/>
       <c r="C374" s="252" t="s">
         <v>393</v>
       </c>
-      <c r="D374" s="397"/>
+      <c r="D374" s="398"/>
     </row>
     <row r="376" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="395">
+      <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="519" t="s">
+      <c r="B376" s="520" t="s">
         <v>394</v>
       </c>
       <c r="C376" s="253" t="s">
         <v>395</v>
       </c>
-      <c r="D376" s="397" t="s">
+      <c r="D376" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" s="395"/>
-      <c r="B377" s="519"/>
+      <c r="A377" s="396"/>
+      <c r="B377" s="520"/>
       <c r="C377" s="254" t="s">
         <v>396</v>
       </c>
-      <c r="D377" s="397"/>
+      <c r="D377" s="398"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379" s="395">
+      <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="524" t="s">
+      <c r="B379" s="525" t="s">
         <v>397</v>
       </c>
       <c r="C379" s="255" t="s">
         <v>398</v>
       </c>
-      <c r="D379" s="397" t="s">
+      <c r="D379" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="395"/>
-      <c r="B380" s="524"/>
+      <c r="A380" s="396"/>
+      <c r="B380" s="525"/>
       <c r="C380" s="256" t="s">
         <v>399</v>
       </c>
-      <c r="D380" s="397"/>
+      <c r="D380" s="398"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382" s="395">
+      <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="525" t="s">
+      <c r="B382" s="526" t="s">
         <v>400</v>
       </c>
       <c r="C382" s="257" t="s">
         <v>401</v>
       </c>
-      <c r="D382" s="397" t="s">
+      <c r="D382" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" s="395"/>
-      <c r="B383" s="525"/>
+      <c r="A383" s="396"/>
+      <c r="B383" s="526"/>
       <c r="C383" s="258" t="s">
         <v>402</v>
       </c>
-      <c r="D383" s="397"/>
+      <c r="D383" s="398"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385" s="395">
+      <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="522" t="s">
+      <c r="B385" s="523" t="s">
         <v>403</v>
       </c>
       <c r="C385" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="D385" s="397" t="s">
+      <c r="D385" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386" s="395"/>
-      <c r="B386" s="522"/>
+      <c r="A386" s="396"/>
+      <c r="B386" s="523"/>
       <c r="C386" s="260" t="s">
         <v>405</v>
       </c>
-      <c r="D386" s="397"/>
+      <c r="D386" s="398"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388" s="395">
+      <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="523" t="s">
+      <c r="B388" s="524" t="s">
         <v>406</v>
       </c>
       <c r="C388" s="261" t="s">
         <v>407</v>
       </c>
-      <c r="D388" s="397" t="s">
+      <c r="D388" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389" s="395"/>
-      <c r="B389" s="523"/>
+      <c r="A389" s="396"/>
+      <c r="B389" s="524"/>
       <c r="C389" s="262" t="s">
         <v>408</v>
       </c>
-      <c r="D389" s="397"/>
+      <c r="D389" s="398"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391" s="395">
+      <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="528" t="s">
+      <c r="B391" s="529" t="s">
         <v>409</v>
       </c>
       <c r="C391" s="263" t="s">
         <v>410</v>
       </c>
-      <c r="D391" s="397" t="s">
+      <c r="D391" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392" s="395"/>
-      <c r="B392" s="528"/>
+      <c r="A392" s="396"/>
+      <c r="B392" s="529"/>
       <c r="C392" s="264" t="s">
         <v>411</v>
       </c>
-      <c r="D392" s="397"/>
+      <c r="D392" s="398"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394" s="395">
+      <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="529" t="s">
+      <c r="B394" s="530" t="s">
         <v>412</v>
       </c>
       <c r="C394" s="265" t="s">
         <v>413</v>
       </c>
-      <c r="D394" s="397" t="s">
+      <c r="D394" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A395" s="395"/>
-      <c r="B395" s="529"/>
+      <c r="A395" s="396"/>
+      <c r="B395" s="530"/>
       <c r="C395" s="266" t="s">
         <v>414</v>
       </c>
-      <c r="D395" s="397"/>
+      <c r="D395" s="398"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A397" s="395">
+      <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="526" t="s">
+      <c r="B397" s="527" t="s">
         <v>415</v>
       </c>
       <c r="C397" s="267" t="s">
         <v>416</v>
       </c>
-      <c r="D397" s="397" t="s">
+      <c r="D397" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A398" s="395"/>
-      <c r="B398" s="526"/>
+      <c r="A398" s="396"/>
+      <c r="B398" s="527"/>
       <c r="C398" s="268" t="s">
         <v>417</v>
       </c>
-      <c r="D398" s="397"/>
+      <c r="D398" s="398"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A400" s="395">
+      <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="527" t="s">
+      <c r="B400" s="528" t="s">
         <v>418</v>
       </c>
       <c r="C400" s="269" t="s">
         <v>419</v>
       </c>
-      <c r="D400" s="397" t="s">
+      <c r="D400" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A401" s="395"/>
-      <c r="B401" s="527"/>
+      <c r="A401" s="396"/>
+      <c r="B401" s="528"/>
       <c r="C401" s="270" t="s">
         <v>420</v>
       </c>
-      <c r="D401" s="397"/>
+      <c r="D401" s="398"/>
     </row>
     <row r="403" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="395">
+      <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="532" t="s">
+      <c r="B403" s="533" t="s">
         <v>421</v>
       </c>
       <c r="C403" s="271" t="s">
         <v>422</v>
       </c>
-      <c r="D403" s="397" t="s">
+      <c r="D403" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A404" s="395"/>
-      <c r="B404" s="532"/>
+      <c r="A404" s="396"/>
+      <c r="B404" s="533"/>
       <c r="C404" s="272" t="s">
         <v>423</v>
       </c>
-      <c r="D404" s="397"/>
+      <c r="D404" s="398"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A406" s="395">
+      <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="533" t="s">
+      <c r="B406" s="534" t="s">
         <v>424</v>
       </c>
       <c r="C406" s="273" t="s">
         <v>425</v>
       </c>
-      <c r="D406" s="397" t="s">
+      <c r="D406" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A407" s="395"/>
-      <c r="B407" s="533"/>
+      <c r="A407" s="396"/>
+      <c r="B407" s="534"/>
       <c r="C407" s="274" t="s">
         <v>426</v>
       </c>
-      <c r="D407" s="397"/>
+      <c r="D407" s="398"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A409" s="395">
+      <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="530" t="s">
+      <c r="B409" s="531" t="s">
         <v>427</v>
       </c>
       <c r="C409" s="275" t="s">
         <v>428</v>
       </c>
-      <c r="D409" s="397" t="s">
+      <c r="D409" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A410" s="395"/>
-      <c r="B410" s="530"/>
+      <c r="A410" s="396"/>
+      <c r="B410" s="531"/>
       <c r="C410" s="276" t="s">
         <v>429</v>
       </c>
-      <c r="D410" s="397"/>
+      <c r="D410" s="398"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A412" s="395">
+      <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="531" t="s">
+      <c r="B412" s="532" t="s">
         <v>430</v>
       </c>
       <c r="C412" s="277" t="s">
         <v>431</v>
       </c>
-      <c r="D412" s="397" t="s">
+      <c r="D412" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A413" s="395"/>
-      <c r="B413" s="531"/>
+      <c r="A413" s="396"/>
+      <c r="B413" s="532"/>
       <c r="C413" s="278" t="s">
         <v>432</v>
       </c>
-      <c r="D413" s="397"/>
+      <c r="D413" s="398"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415" s="395">
+      <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="536" t="s">
+      <c r="B415" s="537" t="s">
         <v>433</v>
       </c>
       <c r="C415" s="279" t="s">
         <v>434</v>
       </c>
-      <c r="D415" s="397" t="s">
+      <c r="D415" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A416" s="395"/>
-      <c r="B416" s="536"/>
+      <c r="A416" s="396"/>
+      <c r="B416" s="537"/>
       <c r="C416" s="280" t="s">
         <v>435</v>
       </c>
-      <c r="D416" s="397"/>
+      <c r="D416" s="398"/>
     </row>
     <row r="418" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="395">
+      <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="537" t="s">
+      <c r="B418" s="538" t="s">
         <v>436</v>
       </c>
       <c r="C418" s="281" t="s">
         <v>437</v>
       </c>
-      <c r="D418" s="397" t="s">
+      <c r="D418" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A419" s="395"/>
-      <c r="B419" s="537"/>
+      <c r="A419" s="396"/>
+      <c r="B419" s="538"/>
       <c r="C419" s="282" t="s">
         <v>438</v>
       </c>
-      <c r="D419" s="397"/>
+      <c r="D419" s="398"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421" s="395">
+      <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="534" t="s">
+      <c r="B421" s="535" t="s">
         <v>439</v>
       </c>
       <c r="C421" s="283" t="s">
         <v>440</v>
       </c>
-      <c r="D421" s="397" t="s">
+      <c r="D421" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A422" s="395"/>
-      <c r="B422" s="534"/>
+      <c r="A422" s="396"/>
+      <c r="B422" s="535"/>
       <c r="C422" s="284" t="s">
         <v>441</v>
       </c>
-      <c r="D422" s="397"/>
+      <c r="D422" s="398"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424" s="395">
+      <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="535" t="s">
+      <c r="B424" s="536" t="s">
         <v>442</v>
       </c>
       <c r="C424" s="285" t="s">
         <v>443</v>
       </c>
-      <c r="D424" s="397" t="s">
+      <c r="D424" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425" s="395"/>
-      <c r="B425" s="535"/>
+      <c r="A425" s="396"/>
+      <c r="B425" s="536"/>
       <c r="C425" s="286" t="s">
         <v>444</v>
       </c>
-      <c r="D425" s="397"/>
+      <c r="D425" s="398"/>
     </row>
     <row r="427" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A427" s="395">
+      <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="540" t="s">
+      <c r="B427" s="541" t="s">
         <v>445</v>
       </c>
       <c r="C427" s="287" t="s">
         <v>446</v>
       </c>
-      <c r="D427" s="397" t="s">
+      <c r="D427" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428" s="395"/>
-      <c r="B428" s="540"/>
+      <c r="A428" s="396"/>
+      <c r="B428" s="541"/>
       <c r="C428" s="288" t="s">
         <v>447</v>
       </c>
-      <c r="D428" s="397"/>
+      <c r="D428" s="398"/>
     </row>
     <row r="430" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="395">
+      <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="541" t="s">
+      <c r="B430" s="542" t="s">
         <v>448</v>
       </c>
       <c r="C430" s="289" t="s">
         <v>449</v>
       </c>
-      <c r="D430" s="397" t="s">
+      <c r="D430" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431" s="395"/>
-      <c r="B431" s="541"/>
+      <c r="A431" s="396"/>
+      <c r="B431" s="542"/>
       <c r="C431" s="290" t="s">
         <v>450</v>
       </c>
-      <c r="D431" s="397"/>
+      <c r="D431" s="398"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433" s="395">
+      <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="538" t="s">
+      <c r="B433" s="539" t="s">
         <v>451</v>
       </c>
       <c r="C433" s="291" t="s">
         <v>452</v>
       </c>
-      <c r="D433" s="397" t="s">
+      <c r="D433" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434" s="395"/>
-      <c r="B434" s="538"/>
+      <c r="A434" s="396"/>
+      <c r="B434" s="539"/>
       <c r="C434" s="292" t="s">
         <v>453</v>
       </c>
-      <c r="D434" s="397"/>
+      <c r="D434" s="398"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436" s="395">
+      <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="539" t="s">
+      <c r="B436" s="540" t="s">
         <v>454</v>
       </c>
       <c r="C436" s="293" t="s">
         <v>455</v>
       </c>
-      <c r="D436" s="397" t="s">
+      <c r="D436" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437" s="395"/>
-      <c r="B437" s="539"/>
+      <c r="A437" s="396"/>
+      <c r="B437" s="540"/>
       <c r="C437" s="294" t="s">
         <v>456</v>
       </c>
-      <c r="D437" s="397"/>
+      <c r="D437" s="398"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439" s="395">
+      <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="544" t="s">
+      <c r="B439" s="545" t="s">
         <v>457</v>
       </c>
       <c r="C439" s="295" t="s">
         <v>458</v>
       </c>
-      <c r="D439" s="397" t="s">
+      <c r="D439" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440" s="395"/>
-      <c r="B440" s="544"/>
+      <c r="A440" s="396"/>
+      <c r="B440" s="545"/>
       <c r="C440" s="296" t="s">
         <v>459</v>
       </c>
-      <c r="D440" s="397"/>
+      <c r="D440" s="398"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442" s="395">
+      <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="545" t="s">
+      <c r="B442" s="546" t="s">
         <v>460</v>
       </c>
       <c r="C442" s="297" t="s">
         <v>461</v>
       </c>
-      <c r="D442" s="397" t="s">
+      <c r="D442" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443" s="395"/>
-      <c r="B443" s="545"/>
+      <c r="A443" s="396"/>
+      <c r="B443" s="546"/>
       <c r="C443" s="298" t="s">
         <v>462</v>
       </c>
-      <c r="D443" s="397"/>
+      <c r="D443" s="398"/>
     </row>
     <row r="445" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="395">
+      <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="542" t="s">
+      <c r="B445" s="543" t="s">
         <v>463</v>
       </c>
       <c r="C445" s="299" t="s">
         <v>464</v>
       </c>
-      <c r="D445" s="397" t="s">
+      <c r="D445" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A446" s="395"/>
-      <c r="B446" s="542"/>
+      <c r="A446" s="396"/>
+      <c r="B446" s="543"/>
       <c r="C446" s="300" t="s">
         <v>465</v>
       </c>
-      <c r="D446" s="397"/>
+      <c r="D446" s="398"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448" s="395">
+      <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="543" t="s">
+      <c r="B448" s="544" t="s">
         <v>466</v>
       </c>
       <c r="C448" s="301" t="s">
         <v>467</v>
       </c>
-      <c r="D448" s="397" t="s">
+      <c r="D448" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449" s="395"/>
-      <c r="B449" s="543"/>
+      <c r="A449" s="396"/>
+      <c r="B449" s="544"/>
       <c r="C449" s="302" t="s">
         <v>468</v>
       </c>
-      <c r="D449" s="397"/>
+      <c r="D449" s="398"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451" s="395">
+      <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="548" t="s">
+      <c r="B451" s="549" t="s">
         <v>469</v>
       </c>
       <c r="C451" s="303" t="s">
         <v>470</v>
       </c>
-      <c r="D451" s="397" t="s">
+      <c r="D451" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452" s="395"/>
-      <c r="B452" s="548"/>
+      <c r="A452" s="396"/>
+      <c r="B452" s="549"/>
       <c r="C452" s="304" t="s">
         <v>471</v>
       </c>
-      <c r="D452" s="397"/>
+      <c r="D452" s="398"/>
     </row>
     <row r="454" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A454" s="395">
+      <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="549" t="s">
+      <c r="B454" s="550" t="s">
         <v>472</v>
       </c>
       <c r="C454" s="305" t="s">
         <v>473</v>
       </c>
-      <c r="D454" s="397" t="s">
+      <c r="D454" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A455" s="395"/>
-      <c r="B455" s="549"/>
+      <c r="A455" s="396"/>
+      <c r="B455" s="550"/>
       <c r="C455" s="306" t="s">
         <v>474</v>
       </c>
-      <c r="D455" s="397"/>
+      <c r="D455" s="398"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A457" s="395">
+      <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="546" t="s">
+      <c r="B457" s="547" t="s">
         <v>475</v>
       </c>
       <c r="C457" s="307" t="s">
         <v>476</v>
       </c>
-      <c r="D457" s="397" t="s">
+      <c r="D457" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A458" s="395"/>
-      <c r="B458" s="546"/>
+      <c r="A458" s="396"/>
+      <c r="B458" s="547"/>
       <c r="C458" s="308" t="s">
         <v>477</v>
       </c>
-      <c r="D458" s="397"/>
+      <c r="D458" s="398"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A460" s="395">
+      <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="547" t="s">
+      <c r="B460" s="548" t="s">
         <v>478</v>
       </c>
       <c r="C460" s="309" t="s">
         <v>479</v>
       </c>
-      <c r="D460" s="397" t="s">
+      <c r="D460" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A461" s="395"/>
-      <c r="B461" s="547"/>
+      <c r="A461" s="396"/>
+      <c r="B461" s="548"/>
       <c r="C461" s="310" t="s">
         <v>480</v>
       </c>
-      <c r="D461" s="397"/>
+      <c r="D461" s="398"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A463" s="395">
+      <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="552" t="s">
+      <c r="B463" s="553" t="s">
         <v>481</v>
       </c>
       <c r="C463" s="311" t="s">
         <v>482</v>
       </c>
-      <c r="D463" s="397" t="s">
+      <c r="D463" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A464" s="395"/>
-      <c r="B464" s="552"/>
+      <c r="A464" s="396"/>
+      <c r="B464" s="553"/>
       <c r="C464" s="312" t="s">
         <v>483</v>
       </c>
-      <c r="D464" s="397"/>
+      <c r="D464" s="398"/>
     </row>
     <row r="466" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A466" s="395">
+      <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="553" t="s">
+      <c r="B466" s="554" t="s">
         <v>484</v>
       </c>
       <c r="C466" s="313" t="s">
         <v>485</v>
       </c>
-      <c r="D466" s="397" t="s">
+      <c r="D466" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A467" s="395"/>
-      <c r="B467" s="553"/>
+      <c r="A467" s="396"/>
+      <c r="B467" s="554"/>
       <c r="C467" s="314" t="s">
         <v>486</v>
       </c>
-      <c r="D467" s="397"/>
+      <c r="D467" s="398"/>
     </row>
     <row r="469" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="395">
+      <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="550" t="s">
+      <c r="B469" s="551" t="s">
         <v>487</v>
       </c>
       <c r="C469" s="315" t="s">
         <v>488</v>
       </c>
-      <c r="D469" s="397" t="s">
+      <c r="D469" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A470" s="395"/>
-      <c r="B470" s="550"/>
+      <c r="A470" s="396"/>
+      <c r="B470" s="551"/>
       <c r="C470" s="316" t="s">
         <v>489</v>
       </c>
-      <c r="D470" s="397"/>
+      <c r="D470" s="398"/>
     </row>
     <row r="472" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A472" s="395">
+      <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="551" t="s">
+      <c r="B472" s="552" t="s">
         <v>490</v>
       </c>
       <c r="C472" s="317" t="s">
         <v>491</v>
       </c>
-      <c r="D472" s="397" t="s">
+      <c r="D472" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A473" s="395"/>
-      <c r="B473" s="551"/>
+      <c r="A473" s="396"/>
+      <c r="B473" s="552"/>
       <c r="C473" s="318" t="s">
         <v>492</v>
       </c>
-      <c r="D473" s="397"/>
+      <c r="D473" s="398"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A475" s="395">
+      <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="556" t="s">
+      <c r="B475" s="557" t="s">
         <v>493</v>
       </c>
       <c r="C475" s="319" t="s">
         <v>494</v>
       </c>
-      <c r="D475" s="397" t="s">
+      <c r="D475" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A476" s="395"/>
-      <c r="B476" s="556"/>
+      <c r="A476" s="396"/>
+      <c r="B476" s="557"/>
       <c r="C476" s="320" t="s">
         <v>495</v>
       </c>
-      <c r="D476" s="397"/>
+      <c r="D476" s="398"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A478" s="395">
+      <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="557" t="s">
+      <c r="B478" s="558" t="s">
         <v>496</v>
       </c>
       <c r="C478" s="321" t="s">
         <v>497</v>
       </c>
-      <c r="D478" s="397" t="s">
+      <c r="D478" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A479" s="395"/>
-      <c r="B479" s="557"/>
+      <c r="A479" s="396"/>
+      <c r="B479" s="558"/>
       <c r="C479" s="322" t="s">
         <v>498</v>
       </c>
-      <c r="D479" s="397"/>
+      <c r="D479" s="398"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A481" s="395">
+      <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="554" t="s">
+      <c r="B481" s="555" t="s">
         <v>499</v>
       </c>
       <c r="C481" s="323" t="s">
         <v>500</v>
       </c>
-      <c r="D481" s="397" t="s">
+      <c r="D481" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A482" s="395"/>
-      <c r="B482" s="554"/>
+      <c r="A482" s="396"/>
+      <c r="B482" s="555"/>
       <c r="C482" s="324" t="s">
         <v>501</v>
       </c>
-      <c r="D482" s="397"/>
+      <c r="D482" s="398"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A484" s="395">
+      <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="555" t="s">
+      <c r="B484" s="556" t="s">
         <v>502</v>
       </c>
       <c r="C484" s="325" t="s">
         <v>503</v>
       </c>
-      <c r="D484" s="397" t="s">
+      <c r="D484" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A485" s="395"/>
-      <c r="B485" s="555"/>
+      <c r="A485" s="396"/>
+      <c r="B485" s="556"/>
       <c r="C485" s="326" t="s">
         <v>504</v>
       </c>
-      <c r="D485" s="397"/>
+      <c r="D485" s="398"/>
     </row>
     <row r="487" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="395">
+      <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="560" t="s">
+      <c r="B487" s="561" t="s">
         <v>505</v>
       </c>
       <c r="C487" s="327" t="s">
         <v>506</v>
       </c>
-      <c r="D487" s="397" t="s">
+      <c r="D487" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A488" s="395"/>
-      <c r="B488" s="560"/>
+      <c r="A488" s="396"/>
+      <c r="B488" s="561"/>
       <c r="C488" s="328" t="s">
         <v>507</v>
       </c>
-      <c r="D488" s="397"/>
+      <c r="D488" s="398"/>
     </row>
     <row r="490" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A490" s="395">
+      <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="561" t="s">
+      <c r="B490" s="562" t="s">
         <v>508</v>
       </c>
       <c r="C490" s="329" t="s">
         <v>509</v>
       </c>
-      <c r="D490" s="397" t="s">
+      <c r="D490" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A491" s="395"/>
-      <c r="B491" s="561"/>
+      <c r="A491" s="396"/>
+      <c r="B491" s="562"/>
       <c r="C491" s="330" t="s">
         <v>510</v>
       </c>
-      <c r="D491" s="397"/>
+      <c r="D491" s="398"/>
     </row>
     <row r="493" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="395">
+      <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="558" t="s">
+      <c r="B493" s="559" t="s">
         <v>511</v>
       </c>
       <c r="C493" s="331" t="s">
         <v>512</v>
       </c>
-      <c r="D493" s="397" t="s">
+      <c r="D493" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A494" s="395"/>
-      <c r="B494" s="558"/>
+      <c r="A494" s="396"/>
+      <c r="B494" s="559"/>
       <c r="C494" s="332" t="s">
         <v>513</v>
       </c>
-      <c r="D494" s="397"/>
+      <c r="D494" s="398"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A496" s="395">
+      <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="559" t="s">
+      <c r="B496" s="560" t="s">
         <v>514</v>
       </c>
       <c r="C496" s="333" t="s">
         <v>515</v>
       </c>
-      <c r="D496" s="397" t="s">
+      <c r="D496" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A497" s="395"/>
-      <c r="B497" s="559"/>
+      <c r="A497" s="396"/>
+      <c r="B497" s="560"/>
       <c r="C497" s="334" t="s">
         <v>516</v>
       </c>
-      <c r="D497" s="397"/>
+      <c r="D497" s="398"/>
     </row>
     <row r="499" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="395">
+      <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="564" t="s">
+      <c r="B499" s="565" t="s">
         <v>517</v>
       </c>
       <c r="C499" s="335" t="s">
         <v>518</v>
       </c>
-      <c r="D499" s="397" t="s">
+      <c r="D499" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A500" s="395"/>
-      <c r="B500" s="564"/>
+      <c r="A500" s="396"/>
+      <c r="B500" s="565"/>
       <c r="C500" s="336" t="s">
         <v>519</v>
       </c>
-      <c r="D500" s="397"/>
+      <c r="D500" s="398"/>
     </row>
     <row r="502" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="395">
+      <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="565" t="s">
+      <c r="B502" s="566" t="s">
         <v>520</v>
       </c>
       <c r="C502" s="337" t="s">
         <v>521</v>
       </c>
-      <c r="D502" s="397" t="s">
+      <c r="D502" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A503" s="395"/>
-      <c r="B503" s="565"/>
+      <c r="A503" s="396"/>
+      <c r="B503" s="566"/>
       <c r="C503" s="338" t="s">
         <v>522</v>
       </c>
-      <c r="D503" s="397"/>
+      <c r="D503" s="398"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A505" s="395">
+      <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="562" t="s">
+      <c r="B505" s="563" t="s">
         <v>523</v>
       </c>
       <c r="C505" s="339" t="s">
         <v>524</v>
       </c>
-      <c r="D505" s="397" t="s">
+      <c r="D505" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A506" s="395"/>
-      <c r="B506" s="562"/>
+      <c r="A506" s="396"/>
+      <c r="B506" s="563"/>
       <c r="C506" s="340" t="s">
         <v>525</v>
       </c>
-      <c r="D506" s="397"/>
+      <c r="D506" s="398"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A508" s="395">
+      <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="563" t="s">
+      <c r="B508" s="564" t="s">
         <v>526</v>
       </c>
       <c r="C508" s="341" t="s">
         <v>527</v>
       </c>
-      <c r="D508" s="397" t="s">
+      <c r="D508" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A509" s="395"/>
-      <c r="B509" s="563"/>
+      <c r="A509" s="396"/>
+      <c r="B509" s="564"/>
       <c r="C509" s="342" t="s">
         <v>528</v>
       </c>
-      <c r="D509" s="397"/>
+      <c r="D509" s="398"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A511" s="395">
+      <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="568" t="s">
+      <c r="B511" s="569" t="s">
         <v>529</v>
       </c>
       <c r="C511" s="343" t="s">
         <v>530</v>
       </c>
-      <c r="D511" s="397" t="s">
+      <c r="D511" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A512" s="395"/>
-      <c r="B512" s="568"/>
+      <c r="A512" s="396"/>
+      <c r="B512" s="569"/>
       <c r="C512" s="344" t="s">
         <v>531</v>
       </c>
-      <c r="D512" s="397"/>
+      <c r="D512" s="398"/>
     </row>
     <row r="514" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A514" s="395">
+      <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="569" t="s">
+      <c r="B514" s="570" t="s">
         <v>532</v>
       </c>
       <c r="C514" s="345" t="s">
         <v>533</v>
       </c>
-      <c r="D514" s="397" t="s">
+      <c r="D514" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A515" s="395"/>
-      <c r="B515" s="569"/>
+      <c r="A515" s="396"/>
+      <c r="B515" s="570"/>
       <c r="C515" s="346" t="s">
         <v>534</v>
       </c>
-      <c r="D515" s="397"/>
+      <c r="D515" s="398"/>
     </row>
     <row r="517" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="395">
+      <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="566" t="s">
+      <c r="B517" s="567" t="s">
         <v>535</v>
       </c>
       <c r="C517" s="347" t="s">
         <v>536</v>
       </c>
-      <c r="D517" s="397" t="s">
+      <c r="D517" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A518" s="395"/>
-      <c r="B518" s="566"/>
+      <c r="A518" s="396"/>
+      <c r="B518" s="567"/>
       <c r="C518" s="348" t="s">
         <v>537</v>
       </c>
-      <c r="D518" s="397"/>
+      <c r="D518" s="398"/>
     </row>
     <row r="520" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A520" s="395">
+      <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="567" t="s">
+      <c r="B520" s="568" t="s">
         <v>538</v>
       </c>
       <c r="C520" s="349" t="s">
         <v>539</v>
       </c>
-      <c r="D520" s="397" t="s">
+      <c r="D520" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A521" s="395"/>
-      <c r="B521" s="567"/>
+      <c r="A521" s="396"/>
+      <c r="B521" s="568"/>
       <c r="C521" s="350" t="s">
         <v>540</v>
       </c>
-      <c r="D521" s="397"/>
+      <c r="D521" s="398"/>
     </row>
     <row r="523" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A523" s="395">
+      <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="572" t="s">
+      <c r="B523" s="573" t="s">
         <v>541</v>
       </c>
       <c r="C523" s="351" t="s">
         <v>542</v>
       </c>
-      <c r="D523" s="397" t="s">
+      <c r="D523" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A524" s="395"/>
-      <c r="B524" s="572"/>
+      <c r="A524" s="396"/>
+      <c r="B524" s="573"/>
       <c r="C524" s="352" t="s">
         <v>543</v>
       </c>
-      <c r="D524" s="397"/>
+      <c r="D524" s="398"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A526" s="395">
+      <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="573" t="s">
+      <c r="B526" s="574" t="s">
         <v>544</v>
       </c>
       <c r="C526" s="353" t="s">
         <v>545</v>
       </c>
-      <c r="D526" s="397" t="s">
+      <c r="D526" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A527" s="395"/>
-      <c r="B527" s="573"/>
+      <c r="A527" s="396"/>
+      <c r="B527" s="574"/>
       <c r="C527" s="354" t="s">
         <v>546</v>
       </c>
-      <c r="D527" s="397"/>
+      <c r="D527" s="398"/>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A529" s="395">
+      <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="570" t="s">
+      <c r="B529" s="571" t="s">
         <v>547</v>
       </c>
       <c r="C529" s="355" t="s">
         <v>548</v>
       </c>
-      <c r="D529" s="397" t="s">
+      <c r="D529" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A530" s="395"/>
-      <c r="B530" s="570"/>
+      <c r="A530" s="396"/>
+      <c r="B530" s="571"/>
       <c r="C530" s="356" t="s">
         <v>549</v>
       </c>
-      <c r="D530" s="397"/>
+      <c r="D530" s="398"/>
     </row>
     <row r="532" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="395">
+      <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="571" t="s">
+      <c r="B532" s="572" t="s">
         <v>550</v>
       </c>
       <c r="C532" s="357" t="s">
         <v>551</v>
       </c>
-      <c r="D532" s="397" t="s">
+      <c r="D532" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A533" s="395"/>
-      <c r="B533" s="571"/>
+      <c r="A533" s="396"/>
+      <c r="B533" s="572"/>
       <c r="C533" s="358" t="s">
         <v>552</v>
       </c>
-      <c r="D533" s="397"/>
+      <c r="D533" s="398"/>
     </row>
     <row r="535" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A535" s="395">
+      <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="576" t="s">
+      <c r="B535" s="577" t="s">
         <v>553</v>
       </c>
       <c r="C535" s="359" t="s">
         <v>554</v>
       </c>
-      <c r="D535" s="397" t="s">
+      <c r="D535" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A536" s="395"/>
-      <c r="B536" s="576"/>
+      <c r="A536" s="396"/>
+      <c r="B536" s="577"/>
       <c r="C536" s="360" t="s">
         <v>555</v>
       </c>
-      <c r="D536" s="397"/>
+      <c r="D536" s="398"/>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A538" s="395">
+      <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="577" t="s">
+      <c r="B538" s="578" t="s">
         <v>556</v>
       </c>
       <c r="C538" s="361" t="s">
         <v>557</v>
       </c>
-      <c r="D538" s="397" t="s">
+      <c r="D538" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A539" s="395"/>
-      <c r="B539" s="577"/>
+      <c r="A539" s="396"/>
+      <c r="B539" s="578"/>
       <c r="C539" s="362" t="s">
         <v>558</v>
       </c>
-      <c r="D539" s="397"/>
+      <c r="D539" s="398"/>
     </row>
     <row r="541" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A541" s="395">
+      <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="574" t="s">
+      <c r="B541" s="575" t="s">
         <v>559</v>
       </c>
       <c r="C541" s="363" t="s">
         <v>560</v>
       </c>
-      <c r="D541" s="397" t="s">
+      <c r="D541" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A542" s="395"/>
-      <c r="B542" s="574"/>
+      <c r="A542" s="396"/>
+      <c r="B542" s="575"/>
       <c r="C542" s="364" t="s">
         <v>561</v>
       </c>
-      <c r="D542" s="397"/>
+      <c r="D542" s="398"/>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A544" s="395">
+      <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="575" t="s">
+      <c r="B544" s="576" t="s">
         <v>562</v>
       </c>
       <c r="C544" s="365" t="s">
         <v>563</v>
       </c>
-      <c r="D544" s="397" t="s">
+      <c r="D544" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A545" s="395"/>
-      <c r="B545" s="575"/>
+      <c r="A545" s="396"/>
+      <c r="B545" s="576"/>
       <c r="C545" s="366" t="s">
         <v>564</v>
       </c>
-      <c r="D545" s="397"/>
+      <c r="D545" s="398"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A547" s="395">
+      <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="580" t="s">
+      <c r="B547" s="581" t="s">
         <v>565</v>
       </c>
       <c r="C547" s="367" t="s">
         <v>566</v>
       </c>
-      <c r="D547" s="397" t="s">
+      <c r="D547" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A548" s="395"/>
-      <c r="B548" s="580"/>
+      <c r="A548" s="396"/>
+      <c r="B548" s="581"/>
       <c r="C548" s="368" t="s">
         <v>567</v>
       </c>
-      <c r="D548" s="397"/>
+      <c r="D548" s="398"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A550" s="395">
+      <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="581" t="s">
+      <c r="B550" s="582" t="s">
         <v>568</v>
       </c>
       <c r="C550" s="369" t="s">
         <v>569</v>
       </c>
-      <c r="D550" s="397" t="s">
+      <c r="D550" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A551" s="395"/>
-      <c r="B551" s="581"/>
+      <c r="A551" s="396"/>
+      <c r="B551" s="582"/>
       <c r="C551" s="370" t="s">
         <v>570</v>
       </c>
-      <c r="D551" s="397"/>
+      <c r="D551" s="398"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A553" s="395">
+      <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="578" t="s">
+      <c r="B553" s="579" t="s">
         <v>571</v>
       </c>
       <c r="C553" s="371" t="s">
         <v>572</v>
       </c>
-      <c r="D553" s="397" t="s">
+      <c r="D553" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A554" s="395"/>
-      <c r="B554" s="578"/>
+      <c r="A554" s="396"/>
+      <c r="B554" s="579"/>
       <c r="C554" s="372" t="s">
         <v>573</v>
       </c>
-      <c r="D554" s="397"/>
+      <c r="D554" s="398"/>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A556" s="395">
+      <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="579" t="s">
+      <c r="B556" s="580" t="s">
         <v>574</v>
       </c>
       <c r="C556" s="373" t="s">
         <v>575</v>
       </c>
-      <c r="D556" s="397" t="s">
+      <c r="D556" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A557" s="395"/>
-      <c r="B557" s="579"/>
+      <c r="A557" s="396"/>
+      <c r="B557" s="580"/>
       <c r="C557" s="374" t="s">
         <v>576</v>
       </c>
-      <c r="D557" s="397"/>
+      <c r="D557" s="398"/>
     </row>
     <row r="559" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A559" s="395">
+      <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="584" t="s">
+      <c r="B559" s="585" t="s">
         <v>577</v>
       </c>
       <c r="C559" s="375" t="s">
         <v>578</v>
       </c>
-      <c r="D559" s="397" t="s">
+      <c r="D559" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A560" s="395"/>
-      <c r="B560" s="584"/>
+      <c r="A560" s="396"/>
+      <c r="B560" s="585"/>
       <c r="C560" s="376" t="s">
         <v>579</v>
       </c>
-      <c r="D560" s="397"/>
+      <c r="D560" s="398"/>
     </row>
     <row r="562" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A562" s="395">
+      <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="585" t="s">
+      <c r="B562" s="586" t="s">
         <v>580</v>
       </c>
       <c r="C562" s="377" t="s">
         <v>581</v>
       </c>
-      <c r="D562" s="397" t="s">
+      <c r="D562" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A563" s="395"/>
-      <c r="B563" s="585"/>
+      <c r="A563" s="396"/>
+      <c r="B563" s="586"/>
       <c r="C563" s="378" t="s">
         <v>582</v>
       </c>
-      <c r="D563" s="397"/>
+      <c r="D563" s="398"/>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A565" s="395">
+      <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="582" t="s">
+      <c r="B565" s="583" t="s">
         <v>583</v>
       </c>
       <c r="C565" s="379" t="s">
         <v>584</v>
       </c>
-      <c r="D565" s="397" t="s">
+      <c r="D565" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A566" s="395"/>
-      <c r="B566" s="582"/>
+      <c r="A566" s="396"/>
+      <c r="B566" s="583"/>
       <c r="C566" s="380" t="s">
         <v>585</v>
       </c>
-      <c r="D566" s="397"/>
+      <c r="D566" s="398"/>
     </row>
     <row r="568" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A568" s="395">
+      <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="583" t="s">
+      <c r="B568" s="584" t="s">
         <v>586</v>
       </c>
       <c r="C568" s="381" t="s">
         <v>587</v>
       </c>
-      <c r="D568" s="397" t="s">
+      <c r="D568" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A569" s="395"/>
-      <c r="B569" s="583"/>
+      <c r="A569" s="396"/>
+      <c r="B569" s="584"/>
       <c r="C569" s="382" t="s">
         <v>588</v>
       </c>
-      <c r="D569" s="397"/>
+      <c r="D569" s="398"/>
     </row>
     <row r="571" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A571" s="395">
+      <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="591" t="s">
+      <c r="B571" s="592" t="s">
         <v>589</v>
       </c>
       <c r="C571" s="383" t="s">
         <v>590</v>
       </c>
-      <c r="D571" s="397" t="s">
+      <c r="D571" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A572" s="395"/>
-      <c r="B572" s="591"/>
+      <c r="A572" s="396"/>
+      <c r="B572" s="592"/>
       <c r="C572" s="384" t="s">
         <v>591</v>
       </c>
-      <c r="D572" s="397"/>
+      <c r="D572" s="398"/>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A574" s="395">
+      <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="592" t="s">
+      <c r="B574" s="593" t="s">
         <v>592</v>
       </c>
       <c r="C574" s="385" t="s">
         <v>593</v>
       </c>
-      <c r="D574" s="397" t="s">
+      <c r="D574" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A575" s="395"/>
-      <c r="B575" s="592"/>
+      <c r="A575" s="396"/>
+      <c r="B575" s="593"/>
       <c r="C575" s="386" t="s">
         <v>594</v>
       </c>
-      <c r="D575" s="397"/>
+      <c r="D575" s="398"/>
     </row>
     <row r="577" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A577" s="395">
+      <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="586" t="s">
+      <c r="B577" s="587" t="s">
         <v>595</v>
       </c>
       <c r="C577" s="387" t="s">
         <v>596</v>
       </c>
-      <c r="D577" s="397" t="s">
+      <c r="D577" s="398" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A578" s="395"/>
-      <c r="B578" s="586"/>
+      <c r="A578" s="396"/>
+      <c r="B578" s="587"/>
       <c r="C578" s="388" t="s">
         <v>597</v>
       </c>
-      <c r="D578" s="397"/>
+      <c r="D578" s="398"/>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A580" s="397"/>
-      <c r="B580" s="397"/>
-      <c r="C580" s="397"/>
-      <c r="D580" s="397"/>
+      <c r="A580" s="398"/>
+      <c r="B580" s="398"/>
+      <c r="C580" s="398"/>
+      <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="587"/>
-      <c r="B581" s="589"/>
+      <c r="A581" s="588"/>
+      <c r="B581" s="590"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="588"/>
-      <c r="B582" s="590"/>
+      <c r="A582" s="589"/>
+      <c r="B582" s="591"/>
     </row>
   </sheetData>
   <mergeCells count="582">

--- a/Donna Bom.xlsx
+++ b/Donna Bom.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="621">
   <si>
     <t>#</t>
   </si>
@@ -1883,6 +1883,9 @@
   </si>
   <si>
     <t>https://www.amazon.de/sigikid-M%C3%A4dchen-Stofftier-Pl%C3%BCschmonster-38567/dp/B01D7IV5U0/ref=pd_sim_21_8?_encoding=UTF8&amp;refRID=Y1BD7ZWZJZC5DHRMFBFG&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Machinarium-Limited-2012-Pl%C3%BCsch-Robo/dp/B009GDVTZ2</t>
   </si>
 </sst>
 </file>
@@ -4293,577 +4296,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4882,6 +4318,573 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5402,10 +5405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5622,6 +5625,11 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C15" s="391" t="s">
         <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="391" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -5810,7 +5818,7 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="591" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -5822,7 +5830,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="397"/>
+      <c r="B2" s="591"/>
       <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
@@ -5832,7 +5840,7 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="399" t="s">
+      <c r="B4" s="592" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -5844,7 +5852,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="399"/>
+      <c r="B5" s="592"/>
       <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
@@ -5854,7 +5862,7 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="589" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -5866,7 +5874,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="402"/>
+      <c r="B8" s="589"/>
       <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
@@ -5876,7 +5884,7 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="590" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -5888,7 +5896,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="403"/>
+      <c r="B11" s="590"/>
       <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
@@ -5898,7 +5906,7 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="400" t="s">
+      <c r="B13" s="593" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -5910,7 +5918,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="400"/>
+      <c r="B14" s="593"/>
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
@@ -5920,7 +5928,7 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="401" t="s">
+      <c r="B16" s="588" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -5932,7 +5940,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="401"/>
+      <c r="B17" s="588"/>
       <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
@@ -5942,7 +5950,7 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="406" t="s">
+      <c r="B19" s="586" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -5954,7 +5962,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="406"/>
+      <c r="B20" s="586"/>
       <c r="C20" s="18" t="s">
         <v>42</v>
       </c>
@@ -5964,7 +5972,7 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="407" t="s">
+      <c r="B22" s="587" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -5976,7 +5984,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="407"/>
+      <c r="B23" s="587"/>
       <c r="C23" s="20" t="s">
         <v>45</v>
       </c>
@@ -5986,7 +5994,7 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="404" t="s">
+      <c r="B25" s="584" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -5998,7 +6006,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="404"/>
+      <c r="B26" s="584"/>
       <c r="C26" s="22" t="s">
         <v>48</v>
       </c>
@@ -6008,7 +6016,7 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="405" t="s">
+      <c r="B28" s="585" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6020,7 +6028,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="405"/>
+      <c r="B29" s="585"/>
       <c r="C29" s="24" t="s">
         <v>51</v>
       </c>
@@ -6030,7 +6038,7 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="410" t="s">
+      <c r="B31" s="582" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6042,7 +6050,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="410"/>
+      <c r="B32" s="582"/>
       <c r="C32" s="26" t="s">
         <v>54</v>
       </c>
@@ -6052,7 +6060,7 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="411" t="s">
+      <c r="B34" s="583" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6064,7 +6072,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="411"/>
+      <c r="B35" s="583"/>
       <c r="C35" s="28" t="s">
         <v>57</v>
       </c>
@@ -6074,7 +6082,7 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="408" t="s">
+      <c r="B37" s="580" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6086,7 +6094,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="408"/>
+      <c r="B38" s="580"/>
       <c r="C38" s="30" t="s">
         <v>60</v>
       </c>
@@ -6096,7 +6104,7 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="409" t="s">
+      <c r="B40" s="581" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6108,7 +6116,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="409"/>
+      <c r="B41" s="581"/>
       <c r="C41" s="32" t="s">
         <v>63</v>
       </c>
@@ -6118,7 +6126,7 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="414" t="s">
+      <c r="B43" s="578" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6130,7 +6138,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="414"/>
+      <c r="B44" s="578"/>
       <c r="C44" s="34" t="s">
         <v>66</v>
       </c>
@@ -6140,7 +6148,7 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="415" t="s">
+      <c r="B46" s="579" t="s">
         <v>67</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6152,7 +6160,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="415"/>
+      <c r="B47" s="579"/>
       <c r="C47" s="36" t="s">
         <v>69</v>
       </c>
@@ -6162,7 +6170,7 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="412" t="s">
+      <c r="B49" s="576" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6174,7 +6182,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="412"/>
+      <c r="B50" s="576"/>
       <c r="C50" s="38" t="s">
         <v>72</v>
       </c>
@@ -6184,7 +6192,7 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="413" t="s">
+      <c r="B52" s="577" t="s">
         <v>73</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6196,7 +6204,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="413"/>
+      <c r="B53" s="577"/>
       <c r="C53" s="40" t="s">
         <v>75</v>
       </c>
@@ -6206,7 +6214,7 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="418" t="s">
+      <c r="B55" s="575" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6218,7 +6226,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="418"/>
+      <c r="B56" s="575"/>
       <c r="C56" s="42" t="s">
         <v>78</v>
       </c>
@@ -6228,7 +6236,7 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="418" t="s">
+      <c r="B58" s="575" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6240,7 +6248,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="418"/>
+      <c r="B59" s="575"/>
       <c r="C59" s="42" t="s">
         <v>78</v>
       </c>
@@ -6250,7 +6258,7 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="416" t="s">
+      <c r="B61" s="573" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6262,7 +6270,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="416"/>
+      <c r="B62" s="573"/>
       <c r="C62" s="44" t="s">
         <v>82</v>
       </c>
@@ -6272,7 +6280,7 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="417" t="s">
+      <c r="B64" s="574" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6284,7 +6292,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="417"/>
+      <c r="B65" s="574"/>
       <c r="C65" s="46" t="s">
         <v>85</v>
       </c>
@@ -6294,7 +6302,7 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="421" t="s">
+      <c r="B67" s="571" t="s">
         <v>86</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6306,7 +6314,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="421"/>
+      <c r="B68" s="571"/>
       <c r="C68" s="48" t="s">
         <v>88</v>
       </c>
@@ -6316,7 +6324,7 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="422" t="s">
+      <c r="B70" s="572" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6328,7 +6336,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="422"/>
+      <c r="B71" s="572"/>
       <c r="C71" s="50" t="s">
         <v>91</v>
       </c>
@@ -6338,7 +6346,7 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="419" t="s">
+      <c r="B73" s="569" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6350,7 +6358,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="419"/>
+      <c r="B74" s="569"/>
       <c r="C74" s="52" t="s">
         <v>94</v>
       </c>
@@ -6360,7 +6368,7 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="420" t="s">
+      <c r="B76" s="570" t="s">
         <v>95</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6372,7 +6380,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="420"/>
+      <c r="B77" s="570"/>
       <c r="C77" s="54" t="s">
         <v>97</v>
       </c>
@@ -6382,7 +6390,7 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="425" t="s">
+      <c r="B79" s="567" t="s">
         <v>98</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6394,7 +6402,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="425"/>
+      <c r="B80" s="567"/>
       <c r="C80" s="56" t="s">
         <v>100</v>
       </c>
@@ -6404,7 +6412,7 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="426" t="s">
+      <c r="B82" s="568" t="s">
         <v>101</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6416,7 +6424,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="426"/>
+      <c r="B83" s="568"/>
       <c r="C83" s="58" t="s">
         <v>103</v>
       </c>
@@ -6426,7 +6434,7 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="423" t="s">
+      <c r="B85" s="565" t="s">
         <v>104</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6438,7 +6446,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="423"/>
+      <c r="B86" s="565"/>
       <c r="C86" s="60" t="s">
         <v>106</v>
       </c>
@@ -6448,7 +6456,7 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="424" t="s">
+      <c r="B88" s="566" t="s">
         <v>107</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6460,7 +6468,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="424"/>
+      <c r="B89" s="566"/>
       <c r="C89" s="62" t="s">
         <v>109</v>
       </c>
@@ -6470,7 +6478,7 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="429" t="s">
+      <c r="B91" s="563" t="s">
         <v>110</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6482,7 +6490,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="429"/>
+      <c r="B92" s="563"/>
       <c r="C92" s="64" t="s">
         <v>112</v>
       </c>
@@ -6492,7 +6500,7 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="430" t="s">
+      <c r="B94" s="564" t="s">
         <v>113</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6504,7 +6512,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="430"/>
+      <c r="B95" s="564"/>
       <c r="C95" s="66" t="s">
         <v>115</v>
       </c>
@@ -6514,7 +6522,7 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="427" t="s">
+      <c r="B97" s="561" t="s">
         <v>116</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -6526,7 +6534,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="427"/>
+      <c r="B98" s="561"/>
       <c r="C98" s="68" t="s">
         <v>118</v>
       </c>
@@ -6536,7 +6544,7 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="428" t="s">
+      <c r="B100" s="562" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -6548,7 +6556,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="428"/>
+      <c r="B101" s="562"/>
       <c r="C101" s="70" t="s">
         <v>121</v>
       </c>
@@ -6558,7 +6566,7 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="433" t="s">
+      <c r="B103" s="559" t="s">
         <v>122</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -6570,7 +6578,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="433"/>
+      <c r="B104" s="559"/>
       <c r="C104" s="72" t="s">
         <v>124</v>
       </c>
@@ -6580,7 +6588,7 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="434" t="s">
+      <c r="B106" s="560" t="s">
         <v>125</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -6592,7 +6600,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="434"/>
+      <c r="B107" s="560"/>
       <c r="C107" s="74" t="s">
         <v>127</v>
       </c>
@@ -6602,7 +6610,7 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="431" t="s">
+      <c r="B109" s="557" t="s">
         <v>128</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -6614,7 +6622,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="431"/>
+      <c r="B110" s="557"/>
       <c r="C110" s="76" t="s">
         <v>130</v>
       </c>
@@ -6624,7 +6632,7 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="432" t="s">
+      <c r="B112" s="558" t="s">
         <v>131</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -6636,7 +6644,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="432"/>
+      <c r="B113" s="558"/>
       <c r="C113" s="78" t="s">
         <v>133</v>
       </c>
@@ -6646,7 +6654,7 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="437" t="s">
+      <c r="B115" s="555" t="s">
         <v>134</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -6658,7 +6666,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="437"/>
+      <c r="B116" s="555"/>
       <c r="C116" s="80" t="s">
         <v>136</v>
       </c>
@@ -6668,7 +6676,7 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="438" t="s">
+      <c r="B118" s="556" t="s">
         <v>137</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -6680,7 +6688,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="438"/>
+      <c r="B119" s="556"/>
       <c r="C119" s="82" t="s">
         <v>139</v>
       </c>
@@ -6690,7 +6698,7 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="435" t="s">
+      <c r="B121" s="553" t="s">
         <v>140</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -6702,7 +6710,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="435"/>
+      <c r="B122" s="553"/>
       <c r="C122" s="84" t="s">
         <v>142</v>
       </c>
@@ -6712,7 +6720,7 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="436" t="s">
+      <c r="B124" s="554" t="s">
         <v>143</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -6724,7 +6732,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="436"/>
+      <c r="B125" s="554"/>
       <c r="C125" s="86" t="s">
         <v>145</v>
       </c>
@@ -6734,7 +6742,7 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="441" t="s">
+      <c r="B127" s="551" t="s">
         <v>146</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -6746,7 +6754,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="441"/>
+      <c r="B128" s="551"/>
       <c r="C128" s="88" t="s">
         <v>148</v>
       </c>
@@ -6756,7 +6764,7 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="442" t="s">
+      <c r="B130" s="552" t="s">
         <v>149</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -6768,7 +6776,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="442"/>
+      <c r="B131" s="552"/>
       <c r="C131" s="90" t="s">
         <v>151</v>
       </c>
@@ -6778,7 +6786,7 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="439" t="s">
+      <c r="B133" s="549" t="s">
         <v>152</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -6790,7 +6798,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="439"/>
+      <c r="B134" s="549"/>
       <c r="C134" s="92" t="s">
         <v>154</v>
       </c>
@@ -6800,7 +6808,7 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="440" t="s">
+      <c r="B136" s="550" t="s">
         <v>155</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -6812,7 +6820,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="440"/>
+      <c r="B137" s="550"/>
       <c r="C137" s="94" t="s">
         <v>157</v>
       </c>
@@ -6822,7 +6830,7 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="445" t="s">
+      <c r="B139" s="547" t="s">
         <v>158</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -6834,7 +6842,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="445"/>
+      <c r="B140" s="547"/>
       <c r="C140" s="96" t="s">
         <v>160</v>
       </c>
@@ -6844,7 +6852,7 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="446" t="s">
+      <c r="B142" s="548" t="s">
         <v>161</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -6856,7 +6864,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="446"/>
+      <c r="B143" s="548"/>
       <c r="C143" s="98" t="s">
         <v>163</v>
       </c>
@@ -6866,7 +6874,7 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="443" t="s">
+      <c r="B145" s="545" t="s">
         <v>164</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -6878,7 +6886,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="443"/>
+      <c r="B146" s="545"/>
       <c r="C146" s="100" t="s">
         <v>166</v>
       </c>
@@ -6888,7 +6896,7 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="444" t="s">
+      <c r="B148" s="546" t="s">
         <v>167</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -6900,7 +6908,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="444"/>
+      <c r="B149" s="546"/>
       <c r="C149" s="102" t="s">
         <v>169</v>
       </c>
@@ -6910,7 +6918,7 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="449" t="s">
+      <c r="B151" s="543" t="s">
         <v>170</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -6922,7 +6930,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="449"/>
+      <c r="B152" s="543"/>
       <c r="C152" s="104" t="s">
         <v>172</v>
       </c>
@@ -6932,7 +6940,7 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="450" t="s">
+      <c r="B154" s="544" t="s">
         <v>173</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -6944,7 +6952,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="450"/>
+      <c r="B155" s="544"/>
       <c r="C155" s="106" t="s">
         <v>175</v>
       </c>
@@ -6954,7 +6962,7 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="447" t="s">
+      <c r="B157" s="541" t="s">
         <v>176</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -6966,7 +6974,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="447"/>
+      <c r="B158" s="541"/>
       <c r="C158" s="108" t="s">
         <v>178</v>
       </c>
@@ -6976,7 +6984,7 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="448" t="s">
+      <c r="B160" s="542" t="s">
         <v>179</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -6988,7 +6996,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="448"/>
+      <c r="B161" s="542"/>
       <c r="C161" s="110" t="s">
         <v>181</v>
       </c>
@@ -6998,7 +7006,7 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="453" t="s">
+      <c r="B163" s="539" t="s">
         <v>182</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7010,7 +7018,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="453"/>
+      <c r="B164" s="539"/>
       <c r="C164" s="112" t="s">
         <v>184</v>
       </c>
@@ -7020,7 +7028,7 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="454" t="s">
+      <c r="B166" s="540" t="s">
         <v>185</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7032,7 +7040,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="454"/>
+      <c r="B167" s="540"/>
       <c r="C167" s="114" t="s">
         <v>187</v>
       </c>
@@ -7042,7 +7050,7 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="451" t="s">
+      <c r="B169" s="537" t="s">
         <v>188</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7054,7 +7062,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="451"/>
+      <c r="B170" s="537"/>
       <c r="C170" s="116" t="s">
         <v>190</v>
       </c>
@@ -7064,7 +7072,7 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="452" t="s">
+      <c r="B172" s="538" t="s">
         <v>191</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7076,7 +7084,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="452"/>
+      <c r="B173" s="538"/>
       <c r="C173" s="118" t="s">
         <v>193</v>
       </c>
@@ -7086,7 +7094,7 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="457" t="s">
+      <c r="B175" s="535" t="s">
         <v>194</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7098,7 +7106,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="457"/>
+      <c r="B176" s="535"/>
       <c r="C176" s="120" t="s">
         <v>196</v>
       </c>
@@ -7108,7 +7116,7 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="458" t="s">
+      <c r="B178" s="536" t="s">
         <v>197</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7120,7 +7128,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="458"/>
+      <c r="B179" s="536"/>
       <c r="C179" s="122" t="s">
         <v>199</v>
       </c>
@@ -7130,7 +7138,7 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="455" t="s">
+      <c r="B181" s="533" t="s">
         <v>200</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7142,7 +7150,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="455"/>
+      <c r="B182" s="533"/>
       <c r="C182" s="124" t="s">
         <v>202</v>
       </c>
@@ -7152,7 +7160,7 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="456" t="s">
+      <c r="B184" s="534" t="s">
         <v>203</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7164,7 +7172,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="456"/>
+      <c r="B185" s="534"/>
       <c r="C185" s="126" t="s">
         <v>205</v>
       </c>
@@ -7174,7 +7182,7 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="461" t="s">
+      <c r="B187" s="531" t="s">
         <v>206</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7186,7 +7194,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="461"/>
+      <c r="B188" s="531"/>
       <c r="C188" s="128" t="s">
         <v>208</v>
       </c>
@@ -7196,7 +7204,7 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="462" t="s">
+      <c r="B190" s="532" t="s">
         <v>209</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7208,7 +7216,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="462"/>
+      <c r="B191" s="532"/>
       <c r="C191" s="130" t="s">
         <v>211</v>
       </c>
@@ -7218,7 +7226,7 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="459" t="s">
+      <c r="B193" s="529" t="s">
         <v>212</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7230,7 +7238,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="459"/>
+      <c r="B194" s="529"/>
       <c r="C194" s="132" t="s">
         <v>214</v>
       </c>
@@ -7240,7 +7248,7 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="460" t="s">
+      <c r="B196" s="530" t="s">
         <v>215</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7252,7 +7260,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="460"/>
+      <c r="B197" s="530"/>
       <c r="C197" s="134" t="s">
         <v>217</v>
       </c>
@@ -7262,7 +7270,7 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="465" t="s">
+      <c r="B199" s="527" t="s">
         <v>218</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7274,7 +7282,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="465"/>
+      <c r="B200" s="527"/>
       <c r="C200" s="136" t="s">
         <v>220</v>
       </c>
@@ -7284,7 +7292,7 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="466" t="s">
+      <c r="B202" s="528" t="s">
         <v>221</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7296,7 +7304,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="466"/>
+      <c r="B203" s="528"/>
       <c r="C203" s="138" t="s">
         <v>223</v>
       </c>
@@ -7306,7 +7314,7 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="463" t="s">
+      <c r="B205" s="525" t="s">
         <v>224</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7318,7 +7326,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="463"/>
+      <c r="B206" s="525"/>
       <c r="C206" s="140" t="s">
         <v>226</v>
       </c>
@@ -7328,7 +7336,7 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="464" t="s">
+      <c r="B208" s="526" t="s">
         <v>227</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7340,7 +7348,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="464"/>
+      <c r="B209" s="526"/>
       <c r="C209" s="142" t="s">
         <v>229</v>
       </c>
@@ -7350,7 +7358,7 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="469" t="s">
+      <c r="B211" s="523" t="s">
         <v>230</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7362,7 +7370,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="469"/>
+      <c r="B212" s="523"/>
       <c r="C212" s="144" t="s">
         <v>232</v>
       </c>
@@ -7372,7 +7380,7 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="470" t="s">
+      <c r="B214" s="524" t="s">
         <v>233</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7384,7 +7392,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="470"/>
+      <c r="B215" s="524"/>
       <c r="C215" s="146" t="s">
         <v>235</v>
       </c>
@@ -7394,7 +7402,7 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="467" t="s">
+      <c r="B217" s="521" t="s">
         <v>236</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7406,7 +7414,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="467"/>
+      <c r="B218" s="521"/>
       <c r="C218" s="148" t="s">
         <v>238</v>
       </c>
@@ -7416,7 +7424,7 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="468" t="s">
+      <c r="B220" s="522" t="s">
         <v>239</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7428,7 +7436,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="468"/>
+      <c r="B221" s="522"/>
       <c r="C221" s="150" t="s">
         <v>241</v>
       </c>
@@ -7438,7 +7446,7 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="473" t="s">
+      <c r="B223" s="519" t="s">
         <v>242</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7450,7 +7458,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="473"/>
+      <c r="B224" s="519"/>
       <c r="C224" s="152" t="s">
         <v>244</v>
       </c>
@@ -7460,7 +7468,7 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="474" t="s">
+      <c r="B226" s="520" t="s">
         <v>245</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7472,7 +7480,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="474"/>
+      <c r="B227" s="520"/>
       <c r="C227" s="154" t="s">
         <v>247</v>
       </c>
@@ -7482,7 +7490,7 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="471" t="s">
+      <c r="B229" s="517" t="s">
         <v>248</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7494,7 +7502,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="471"/>
+      <c r="B230" s="517"/>
       <c r="C230" s="156" t="s">
         <v>250</v>
       </c>
@@ -7504,7 +7512,7 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="472" t="s">
+      <c r="B232" s="518" t="s">
         <v>251</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7516,7 +7524,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="472"/>
+      <c r="B233" s="518"/>
       <c r="C233" s="158" t="s">
         <v>253</v>
       </c>
@@ -7526,7 +7534,7 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="477" t="s">
+      <c r="B235" s="515" t="s">
         <v>254</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -7538,7 +7546,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="477"/>
+      <c r="B236" s="515"/>
       <c r="C236" s="160" t="s">
         <v>256</v>
       </c>
@@ -7548,7 +7556,7 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="478" t="s">
+      <c r="B238" s="516" t="s">
         <v>257</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -7560,7 +7568,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="478"/>
+      <c r="B239" s="516"/>
       <c r="C239" s="162" t="s">
         <v>259</v>
       </c>
@@ -7570,7 +7578,7 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="475" t="s">
+      <c r="B241" s="513" t="s">
         <v>260</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -7582,7 +7590,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="475"/>
+      <c r="B242" s="513"/>
       <c r="C242" s="164" t="s">
         <v>262</v>
       </c>
@@ -7592,7 +7600,7 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="476" t="s">
+      <c r="B244" s="514" t="s">
         <v>263</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -7604,7 +7612,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="476"/>
+      <c r="B245" s="514"/>
       <c r="C245" s="166" t="s">
         <v>265</v>
       </c>
@@ -7614,7 +7622,7 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="481" t="s">
+      <c r="B247" s="511" t="s">
         <v>266</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -7626,7 +7634,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="481"/>
+      <c r="B248" s="511"/>
       <c r="C248" s="168" t="s">
         <v>268</v>
       </c>
@@ -7636,7 +7644,7 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="482" t="s">
+      <c r="B250" s="512" t="s">
         <v>269</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -7648,7 +7656,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="482"/>
+      <c r="B251" s="512"/>
       <c r="C251" s="170" t="s">
         <v>271</v>
       </c>
@@ -7658,7 +7666,7 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="479" t="s">
+      <c r="B253" s="509" t="s">
         <v>272</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -7670,7 +7678,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="479"/>
+      <c r="B254" s="509"/>
       <c r="C254" s="172" t="s">
         <v>274</v>
       </c>
@@ -7680,7 +7688,7 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="480" t="s">
+      <c r="B256" s="510" t="s">
         <v>275</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -7692,7 +7700,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="480"/>
+      <c r="B257" s="510"/>
       <c r="C257" s="174" t="s">
         <v>277</v>
       </c>
@@ -7702,7 +7710,7 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="485" t="s">
+      <c r="B259" s="507" t="s">
         <v>278</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -7714,7 +7722,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="485"/>
+      <c r="B260" s="507"/>
       <c r="C260" s="176" t="s">
         <v>280</v>
       </c>
@@ -7724,7 +7732,7 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="486" t="s">
+      <c r="B262" s="508" t="s">
         <v>281</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -7736,7 +7744,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="486"/>
+      <c r="B263" s="508"/>
       <c r="C263" s="178" t="s">
         <v>283</v>
       </c>
@@ -7746,7 +7754,7 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="483" t="s">
+      <c r="B265" s="505" t="s">
         <v>260</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -7758,7 +7766,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="483"/>
+      <c r="B266" s="505"/>
       <c r="C266" s="180" t="s">
         <v>285</v>
       </c>
@@ -7768,7 +7776,7 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="484" t="s">
+      <c r="B268" s="506" t="s">
         <v>286</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -7780,7 +7788,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="484"/>
+      <c r="B269" s="506"/>
       <c r="C269" s="182" t="s">
         <v>288</v>
       </c>
@@ -7790,7 +7798,7 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="489" t="s">
+      <c r="B271" s="503" t="s">
         <v>289</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -7802,7 +7810,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="489"/>
+      <c r="B272" s="503"/>
       <c r="C272" s="184" t="s">
         <v>291</v>
       </c>
@@ -7812,7 +7820,7 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="490" t="s">
+      <c r="B274" s="504" t="s">
         <v>292</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -7824,7 +7832,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="490"/>
+      <c r="B275" s="504"/>
       <c r="C275" s="186" t="s">
         <v>294</v>
       </c>
@@ -7834,7 +7842,7 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="487" t="s">
+      <c r="B277" s="501" t="s">
         <v>295</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -7846,7 +7854,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="487"/>
+      <c r="B278" s="501"/>
       <c r="C278" s="188" t="s">
         <v>297</v>
       </c>
@@ -7856,7 +7864,7 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="488" t="s">
+      <c r="B280" s="502" t="s">
         <v>298</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -7868,7 +7876,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="488"/>
+      <c r="B281" s="502"/>
       <c r="C281" s="190" t="s">
         <v>300</v>
       </c>
@@ -7878,7 +7886,7 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="493" t="s">
+      <c r="B283" s="499" t="s">
         <v>301</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -7890,7 +7898,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="493"/>
+      <c r="B284" s="499"/>
       <c r="C284" s="192" t="s">
         <v>303</v>
       </c>
@@ -7900,7 +7908,7 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="494" t="s">
+      <c r="B286" s="500" t="s">
         <v>304</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -7912,7 +7920,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="494"/>
+      <c r="B287" s="500"/>
       <c r="C287" s="194" t="s">
         <v>306</v>
       </c>
@@ -7922,7 +7930,7 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="491" t="s">
+      <c r="B289" s="497" t="s">
         <v>307</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -7934,7 +7942,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="491"/>
+      <c r="B290" s="497"/>
       <c r="C290" s="196" t="s">
         <v>309</v>
       </c>
@@ -7944,7 +7952,7 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="492" t="s">
+      <c r="B292" s="498" t="s">
         <v>310</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -7956,7 +7964,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="492"/>
+      <c r="B293" s="498"/>
       <c r="C293" s="198" t="s">
         <v>312</v>
       </c>
@@ -7966,7 +7974,7 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="497" t="s">
+      <c r="B295" s="495" t="s">
         <v>313</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -7978,7 +7986,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="497"/>
+      <c r="B296" s="495"/>
       <c r="C296" s="200" t="s">
         <v>315</v>
       </c>
@@ -7988,7 +7996,7 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="498" t="s">
+      <c r="B298" s="496" t="s">
         <v>316</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8000,7 +8008,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="498"/>
+      <c r="B299" s="496"/>
       <c r="C299" s="202" t="s">
         <v>318</v>
       </c>
@@ -8010,7 +8018,7 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="495" t="s">
+      <c r="B301" s="493" t="s">
         <v>319</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8022,7 +8030,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="495"/>
+      <c r="B302" s="493"/>
       <c r="C302" s="204" t="s">
         <v>321</v>
       </c>
@@ -8032,7 +8040,7 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="496" t="s">
+      <c r="B304" s="494" t="s">
         <v>322</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8044,7 +8052,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="496"/>
+      <c r="B305" s="494"/>
       <c r="C305" s="206" t="s">
         <v>324</v>
       </c>
@@ -8054,7 +8062,7 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="501" t="s">
+      <c r="B307" s="491" t="s">
         <v>325</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8066,7 +8074,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="501"/>
+      <c r="B308" s="491"/>
       <c r="C308" s="208" t="s">
         <v>327</v>
       </c>
@@ -8076,7 +8084,7 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="502" t="s">
+      <c r="B310" s="492" t="s">
         <v>328</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8088,7 +8096,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="502"/>
+      <c r="B311" s="492"/>
       <c r="C311" s="210" t="s">
         <v>330</v>
       </c>
@@ -8098,7 +8106,7 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="499" t="s">
+      <c r="B313" s="489" t="s">
         <v>331</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8110,7 +8118,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="499"/>
+      <c r="B314" s="489"/>
       <c r="C314" s="212" t="s">
         <v>333</v>
       </c>
@@ -8120,7 +8128,7 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="500" t="s">
+      <c r="B316" s="490" t="s">
         <v>334</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8132,7 +8140,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="500"/>
+      <c r="B317" s="490"/>
       <c r="C317" s="214" t="s">
         <v>336</v>
       </c>
@@ -8142,7 +8150,7 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="505" t="s">
+      <c r="B319" s="487" t="s">
         <v>337</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8154,7 +8162,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="505"/>
+      <c r="B320" s="487"/>
       <c r="C320" s="216" t="s">
         <v>339</v>
       </c>
@@ -8164,7 +8172,7 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="506" t="s">
+      <c r="B322" s="488" t="s">
         <v>340</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8176,7 +8184,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="506"/>
+      <c r="B323" s="488"/>
       <c r="C323" s="218" t="s">
         <v>342</v>
       </c>
@@ -8186,7 +8194,7 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="503" t="s">
+      <c r="B325" s="485" t="s">
         <v>343</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8198,7 +8206,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="503"/>
+      <c r="B326" s="485"/>
       <c r="C326" s="220" t="s">
         <v>345</v>
       </c>
@@ -8208,7 +8216,7 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="504" t="s">
+      <c r="B328" s="486" t="s">
         <v>346</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8220,7 +8228,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="504"/>
+      <c r="B329" s="486"/>
       <c r="C329" s="222" t="s">
         <v>348</v>
       </c>
@@ -8230,7 +8238,7 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="509" t="s">
+      <c r="B331" s="483" t="s">
         <v>349</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8242,7 +8250,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="509"/>
+      <c r="B332" s="483"/>
       <c r="C332" s="224" t="s">
         <v>351</v>
       </c>
@@ -8252,7 +8260,7 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="510" t="s">
+      <c r="B334" s="484" t="s">
         <v>352</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8264,7 +8272,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="510"/>
+      <c r="B335" s="484"/>
       <c r="C335" s="226" t="s">
         <v>354</v>
       </c>
@@ -8274,7 +8282,7 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="507" t="s">
+      <c r="B337" s="481" t="s">
         <v>355</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8286,7 +8294,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="507"/>
+      <c r="B338" s="481"/>
       <c r="C338" s="228" t="s">
         <v>357</v>
       </c>
@@ -8296,7 +8304,7 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="508" t="s">
+      <c r="B340" s="482" t="s">
         <v>358</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8308,7 +8316,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="508"/>
+      <c r="B341" s="482"/>
       <c r="C341" s="230" t="s">
         <v>360</v>
       </c>
@@ -8318,7 +8326,7 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="513" t="s">
+      <c r="B343" s="479" t="s">
         <v>361</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8330,7 +8338,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="513"/>
+      <c r="B344" s="479"/>
       <c r="C344" s="232" t="s">
         <v>363</v>
       </c>
@@ -8340,7 +8348,7 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="514" t="s">
+      <c r="B346" s="480" t="s">
         <v>364</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8352,7 +8360,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="514"/>
+      <c r="B347" s="480"/>
       <c r="C347" s="234" t="s">
         <v>366</v>
       </c>
@@ -8362,7 +8370,7 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="511" t="s">
+      <c r="B349" s="477" t="s">
         <v>367</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8374,7 +8382,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="511"/>
+      <c r="B350" s="477"/>
       <c r="C350" s="236" t="s">
         <v>369</v>
       </c>
@@ -8384,7 +8392,7 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="512" t="s">
+      <c r="B352" s="478" t="s">
         <v>370</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8396,7 +8404,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="512"/>
+      <c r="B353" s="478"/>
       <c r="C353" s="238" t="s">
         <v>372</v>
       </c>
@@ -8406,7 +8414,7 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="517" t="s">
+      <c r="B355" s="475" t="s">
         <v>373</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8418,7 +8426,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="517"/>
+      <c r="B356" s="475"/>
       <c r="C356" s="240" t="s">
         <v>375</v>
       </c>
@@ -8428,7 +8436,7 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="518" t="s">
+      <c r="B358" s="476" t="s">
         <v>376</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8440,7 +8448,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="518"/>
+      <c r="B359" s="476"/>
       <c r="C359" s="242" t="s">
         <v>378</v>
       </c>
@@ -8450,7 +8458,7 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="515" t="s">
+      <c r="B361" s="473" t="s">
         <v>379</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8462,7 +8470,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="515"/>
+      <c r="B362" s="473"/>
       <c r="C362" s="244" t="s">
         <v>381</v>
       </c>
@@ -8472,7 +8480,7 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="516" t="s">
+      <c r="B364" s="474" t="s">
         <v>382</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8484,7 +8492,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="516"/>
+      <c r="B365" s="474"/>
       <c r="C365" s="246" t="s">
         <v>384</v>
       </c>
@@ -8494,7 +8502,7 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="521" t="s">
+      <c r="B367" s="471" t="s">
         <v>385</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8506,7 +8514,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="521"/>
+      <c r="B368" s="471"/>
       <c r="C368" s="248" t="s">
         <v>387</v>
       </c>
@@ -8516,7 +8524,7 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="522" t="s">
+      <c r="B370" s="472" t="s">
         <v>388</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -8528,7 +8536,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="522"/>
+      <c r="B371" s="472"/>
       <c r="C371" s="250" t="s">
         <v>390</v>
       </c>
@@ -8538,7 +8546,7 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="519" t="s">
+      <c r="B373" s="469" t="s">
         <v>391</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -8550,7 +8558,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="519"/>
+      <c r="B374" s="469"/>
       <c r="C374" s="252" t="s">
         <v>393</v>
       </c>
@@ -8560,7 +8568,7 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="520" t="s">
+      <c r="B376" s="470" t="s">
         <v>394</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -8572,7 +8580,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="520"/>
+      <c r="B377" s="470"/>
       <c r="C377" s="254" t="s">
         <v>396</v>
       </c>
@@ -8582,7 +8590,7 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="525" t="s">
+      <c r="B379" s="467" t="s">
         <v>397</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -8594,7 +8602,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="525"/>
+      <c r="B380" s="467"/>
       <c r="C380" s="256" t="s">
         <v>399</v>
       </c>
@@ -8604,7 +8612,7 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="526" t="s">
+      <c r="B382" s="468" t="s">
         <v>400</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -8616,7 +8624,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="526"/>
+      <c r="B383" s="468"/>
       <c r="C383" s="258" t="s">
         <v>402</v>
       </c>
@@ -8626,7 +8634,7 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="523" t="s">
+      <c r="B385" s="465" t="s">
         <v>403</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -8638,7 +8646,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="523"/>
+      <c r="B386" s="465"/>
       <c r="C386" s="260" t="s">
         <v>405</v>
       </c>
@@ -8648,7 +8656,7 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="524" t="s">
+      <c r="B388" s="466" t="s">
         <v>406</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -8660,7 +8668,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="524"/>
+      <c r="B389" s="466"/>
       <c r="C389" s="262" t="s">
         <v>408</v>
       </c>
@@ -8670,7 +8678,7 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="529" t="s">
+      <c r="B391" s="463" t="s">
         <v>409</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -8682,7 +8690,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="529"/>
+      <c r="B392" s="463"/>
       <c r="C392" s="264" t="s">
         <v>411</v>
       </c>
@@ -8692,7 +8700,7 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="530" t="s">
+      <c r="B394" s="464" t="s">
         <v>412</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -8704,7 +8712,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="530"/>
+      <c r="B395" s="464"/>
       <c r="C395" s="266" t="s">
         <v>414</v>
       </c>
@@ -8714,7 +8722,7 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="527" t="s">
+      <c r="B397" s="461" t="s">
         <v>415</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -8726,7 +8734,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="527"/>
+      <c r="B398" s="461"/>
       <c r="C398" s="268" t="s">
         <v>417</v>
       </c>
@@ -8736,7 +8744,7 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="528" t="s">
+      <c r="B400" s="462" t="s">
         <v>418</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -8748,7 +8756,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="528"/>
+      <c r="B401" s="462"/>
       <c r="C401" s="270" t="s">
         <v>420</v>
       </c>
@@ -8758,7 +8766,7 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="533" t="s">
+      <c r="B403" s="459" t="s">
         <v>421</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -8770,7 +8778,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="533"/>
+      <c r="B404" s="459"/>
       <c r="C404" s="272" t="s">
         <v>423</v>
       </c>
@@ -8780,7 +8788,7 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="534" t="s">
+      <c r="B406" s="460" t="s">
         <v>424</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -8792,7 +8800,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="534"/>
+      <c r="B407" s="460"/>
       <c r="C407" s="274" t="s">
         <v>426</v>
       </c>
@@ -8802,7 +8810,7 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="531" t="s">
+      <c r="B409" s="457" t="s">
         <v>427</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -8814,7 +8822,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="531"/>
+      <c r="B410" s="457"/>
       <c r="C410" s="276" t="s">
         <v>429</v>
       </c>
@@ -8824,7 +8832,7 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="532" t="s">
+      <c r="B412" s="458" t="s">
         <v>430</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -8836,7 +8844,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="532"/>
+      <c r="B413" s="458"/>
       <c r="C413" s="278" t="s">
         <v>432</v>
       </c>
@@ -8846,7 +8854,7 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="537" t="s">
+      <c r="B415" s="455" t="s">
         <v>433</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -8858,7 +8866,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="537"/>
+      <c r="B416" s="455"/>
       <c r="C416" s="280" t="s">
         <v>435</v>
       </c>
@@ -8868,7 +8876,7 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="538" t="s">
+      <c r="B418" s="456" t="s">
         <v>436</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -8880,7 +8888,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="538"/>
+      <c r="B419" s="456"/>
       <c r="C419" s="282" t="s">
         <v>438</v>
       </c>
@@ -8890,7 +8898,7 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="535" t="s">
+      <c r="B421" s="453" t="s">
         <v>439</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -8902,7 +8910,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="535"/>
+      <c r="B422" s="453"/>
       <c r="C422" s="284" t="s">
         <v>441</v>
       </c>
@@ -8912,7 +8920,7 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="536" t="s">
+      <c r="B424" s="454" t="s">
         <v>442</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -8924,7 +8932,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="536"/>
+      <c r="B425" s="454"/>
       <c r="C425" s="286" t="s">
         <v>444</v>
       </c>
@@ -8934,7 +8942,7 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="541" t="s">
+      <c r="B427" s="451" t="s">
         <v>445</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -8946,7 +8954,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="541"/>
+      <c r="B428" s="451"/>
       <c r="C428" s="288" t="s">
         <v>447</v>
       </c>
@@ -8956,7 +8964,7 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="542" t="s">
+      <c r="B430" s="452" t="s">
         <v>448</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -8968,7 +8976,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="542"/>
+      <c r="B431" s="452"/>
       <c r="C431" s="290" t="s">
         <v>450</v>
       </c>
@@ -8978,7 +8986,7 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="539" t="s">
+      <c r="B433" s="449" t="s">
         <v>451</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -8990,7 +8998,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="539"/>
+      <c r="B434" s="449"/>
       <c r="C434" s="292" t="s">
         <v>453</v>
       </c>
@@ -9000,7 +9008,7 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="540" t="s">
+      <c r="B436" s="450" t="s">
         <v>454</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9012,7 +9020,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="540"/>
+      <c r="B437" s="450"/>
       <c r="C437" s="294" t="s">
         <v>456</v>
       </c>
@@ -9022,7 +9030,7 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="545" t="s">
+      <c r="B439" s="447" t="s">
         <v>457</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9034,7 +9042,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="545"/>
+      <c r="B440" s="447"/>
       <c r="C440" s="296" t="s">
         <v>459</v>
       </c>
@@ -9044,7 +9052,7 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="546" t="s">
+      <c r="B442" s="448" t="s">
         <v>460</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9056,7 +9064,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="546"/>
+      <c r="B443" s="448"/>
       <c r="C443" s="298" t="s">
         <v>462</v>
       </c>
@@ -9066,7 +9074,7 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="543" t="s">
+      <c r="B445" s="445" t="s">
         <v>463</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9078,7 +9086,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="543"/>
+      <c r="B446" s="445"/>
       <c r="C446" s="300" t="s">
         <v>465</v>
       </c>
@@ -9088,7 +9096,7 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="544" t="s">
+      <c r="B448" s="446" t="s">
         <v>466</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9100,7 +9108,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="544"/>
+      <c r="B449" s="446"/>
       <c r="C449" s="302" t="s">
         <v>468</v>
       </c>
@@ -9110,7 +9118,7 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="549" t="s">
+      <c r="B451" s="443" t="s">
         <v>469</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9122,7 +9130,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="549"/>
+      <c r="B452" s="443"/>
       <c r="C452" s="304" t="s">
         <v>471</v>
       </c>
@@ -9132,7 +9140,7 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="550" t="s">
+      <c r="B454" s="444" t="s">
         <v>472</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9144,7 +9152,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="550"/>
+      <c r="B455" s="444"/>
       <c r="C455" s="306" t="s">
         <v>474</v>
       </c>
@@ -9154,7 +9162,7 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="547" t="s">
+      <c r="B457" s="441" t="s">
         <v>475</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9166,7 +9174,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="547"/>
+      <c r="B458" s="441"/>
       <c r="C458" s="308" t="s">
         <v>477</v>
       </c>
@@ -9176,7 +9184,7 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="548" t="s">
+      <c r="B460" s="442" t="s">
         <v>478</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9188,7 +9196,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="548"/>
+      <c r="B461" s="442"/>
       <c r="C461" s="310" t="s">
         <v>480</v>
       </c>
@@ -9198,7 +9206,7 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="553" t="s">
+      <c r="B463" s="439" t="s">
         <v>481</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9210,7 +9218,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="553"/>
+      <c r="B464" s="439"/>
       <c r="C464" s="312" t="s">
         <v>483</v>
       </c>
@@ -9220,7 +9228,7 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="554" t="s">
+      <c r="B466" s="440" t="s">
         <v>484</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9232,7 +9240,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="554"/>
+      <c r="B467" s="440"/>
       <c r="C467" s="314" t="s">
         <v>486</v>
       </c>
@@ -9242,7 +9250,7 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="551" t="s">
+      <c r="B469" s="437" t="s">
         <v>487</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9254,7 +9262,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="551"/>
+      <c r="B470" s="437"/>
       <c r="C470" s="316" t="s">
         <v>489</v>
       </c>
@@ -9264,7 +9272,7 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="552" t="s">
+      <c r="B472" s="438" t="s">
         <v>490</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9276,7 +9284,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="552"/>
+      <c r="B473" s="438"/>
       <c r="C473" s="318" t="s">
         <v>492</v>
       </c>
@@ -9286,7 +9294,7 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="557" t="s">
+      <c r="B475" s="435" t="s">
         <v>493</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9298,7 +9306,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="557"/>
+      <c r="B476" s="435"/>
       <c r="C476" s="320" t="s">
         <v>495</v>
       </c>
@@ -9308,7 +9316,7 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="558" t="s">
+      <c r="B478" s="436" t="s">
         <v>496</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9320,7 +9328,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="558"/>
+      <c r="B479" s="436"/>
       <c r="C479" s="322" t="s">
         <v>498</v>
       </c>
@@ -9330,7 +9338,7 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="555" t="s">
+      <c r="B481" s="433" t="s">
         <v>499</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9342,7 +9350,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="555"/>
+      <c r="B482" s="433"/>
       <c r="C482" s="324" t="s">
         <v>501</v>
       </c>
@@ -9352,7 +9360,7 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="556" t="s">
+      <c r="B484" s="434" t="s">
         <v>502</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9364,7 +9372,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="556"/>
+      <c r="B485" s="434"/>
       <c r="C485" s="326" t="s">
         <v>504</v>
       </c>
@@ -9374,7 +9382,7 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="561" t="s">
+      <c r="B487" s="431" t="s">
         <v>505</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9386,7 +9394,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="561"/>
+      <c r="B488" s="431"/>
       <c r="C488" s="328" t="s">
         <v>507</v>
       </c>
@@ -9396,7 +9404,7 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="562" t="s">
+      <c r="B490" s="432" t="s">
         <v>508</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9408,7 +9416,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="562"/>
+      <c r="B491" s="432"/>
       <c r="C491" s="330" t="s">
         <v>510</v>
       </c>
@@ -9418,7 +9426,7 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="559" t="s">
+      <c r="B493" s="429" t="s">
         <v>511</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9430,7 +9438,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="559"/>
+      <c r="B494" s="429"/>
       <c r="C494" s="332" t="s">
         <v>513</v>
       </c>
@@ -9440,7 +9448,7 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="560" t="s">
+      <c r="B496" s="430" t="s">
         <v>514</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9452,7 +9460,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="560"/>
+      <c r="B497" s="430"/>
       <c r="C497" s="334" t="s">
         <v>516</v>
       </c>
@@ -9462,7 +9470,7 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="565" t="s">
+      <c r="B499" s="427" t="s">
         <v>517</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9474,7 +9482,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="565"/>
+      <c r="B500" s="427"/>
       <c r="C500" s="336" t="s">
         <v>519</v>
       </c>
@@ -9484,7 +9492,7 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="566" t="s">
+      <c r="B502" s="428" t="s">
         <v>520</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9496,7 +9504,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="566"/>
+      <c r="B503" s="428"/>
       <c r="C503" s="338" t="s">
         <v>522</v>
       </c>
@@ -9506,7 +9514,7 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="563" t="s">
+      <c r="B505" s="425" t="s">
         <v>523</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -9518,7 +9526,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="563"/>
+      <c r="B506" s="425"/>
       <c r="C506" s="340" t="s">
         <v>525</v>
       </c>
@@ -9528,7 +9536,7 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="564" t="s">
+      <c r="B508" s="426" t="s">
         <v>526</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -9540,7 +9548,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="564"/>
+      <c r="B509" s="426"/>
       <c r="C509" s="342" t="s">
         <v>528</v>
       </c>
@@ -9550,7 +9558,7 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="569" t="s">
+      <c r="B511" s="423" t="s">
         <v>529</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -9562,7 +9570,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="569"/>
+      <c r="B512" s="423"/>
       <c r="C512" s="344" t="s">
         <v>531</v>
       </c>
@@ -9572,7 +9580,7 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="570" t="s">
+      <c r="B514" s="424" t="s">
         <v>532</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -9584,7 +9592,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="570"/>
+      <c r="B515" s="424"/>
       <c r="C515" s="346" t="s">
         <v>534</v>
       </c>
@@ -9594,7 +9602,7 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="567" t="s">
+      <c r="B517" s="421" t="s">
         <v>535</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -9606,7 +9614,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="567"/>
+      <c r="B518" s="421"/>
       <c r="C518" s="348" t="s">
         <v>537</v>
       </c>
@@ -9616,7 +9624,7 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="568" t="s">
+      <c r="B520" s="422" t="s">
         <v>538</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -9628,7 +9636,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="568"/>
+      <c r="B521" s="422"/>
       <c r="C521" s="350" t="s">
         <v>540</v>
       </c>
@@ -9638,7 +9646,7 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="573" t="s">
+      <c r="B523" s="419" t="s">
         <v>541</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -9650,7 +9658,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="573"/>
+      <c r="B524" s="419"/>
       <c r="C524" s="352" t="s">
         <v>543</v>
       </c>
@@ -9660,7 +9668,7 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="574" t="s">
+      <c r="B526" s="420" t="s">
         <v>544</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -9672,7 +9680,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="574"/>
+      <c r="B527" s="420"/>
       <c r="C527" s="354" t="s">
         <v>546</v>
       </c>
@@ -9682,7 +9690,7 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="571" t="s">
+      <c r="B529" s="417" t="s">
         <v>547</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -9694,7 +9702,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="571"/>
+      <c r="B530" s="417"/>
       <c r="C530" s="356" t="s">
         <v>549</v>
       </c>
@@ -9704,7 +9712,7 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="572" t="s">
+      <c r="B532" s="418" t="s">
         <v>550</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -9716,7 +9724,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="572"/>
+      <c r="B533" s="418"/>
       <c r="C533" s="358" t="s">
         <v>552</v>
       </c>
@@ -9726,7 +9734,7 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="577" t="s">
+      <c r="B535" s="415" t="s">
         <v>553</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -9738,7 +9746,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="577"/>
+      <c r="B536" s="415"/>
       <c r="C536" s="360" t="s">
         <v>555</v>
       </c>
@@ -9748,7 +9756,7 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="578" t="s">
+      <c r="B538" s="416" t="s">
         <v>556</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -9760,7 +9768,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="578"/>
+      <c r="B539" s="416"/>
       <c r="C539" s="362" t="s">
         <v>558</v>
       </c>
@@ -9770,7 +9778,7 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="575" t="s">
+      <c r="B541" s="413" t="s">
         <v>559</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -9782,7 +9790,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="575"/>
+      <c r="B542" s="413"/>
       <c r="C542" s="364" t="s">
         <v>561</v>
       </c>
@@ -9792,7 +9800,7 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="576" t="s">
+      <c r="B544" s="414" t="s">
         <v>562</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -9804,7 +9812,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="576"/>
+      <c r="B545" s="414"/>
       <c r="C545" s="366" t="s">
         <v>564</v>
       </c>
@@ -9814,7 +9822,7 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="581" t="s">
+      <c r="B547" s="411" t="s">
         <v>565</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -9826,7 +9834,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="581"/>
+      <c r="B548" s="411"/>
       <c r="C548" s="368" t="s">
         <v>567</v>
       </c>
@@ -9836,7 +9844,7 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="582" t="s">
+      <c r="B550" s="412" t="s">
         <v>568</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -9848,7 +9856,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="582"/>
+      <c r="B551" s="412"/>
       <c r="C551" s="370" t="s">
         <v>570</v>
       </c>
@@ -9858,7 +9866,7 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="579" t="s">
+      <c r="B553" s="409" t="s">
         <v>571</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -9870,7 +9878,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="579"/>
+      <c r="B554" s="409"/>
       <c r="C554" s="372" t="s">
         <v>573</v>
       </c>
@@ -9880,7 +9888,7 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="580" t="s">
+      <c r="B556" s="410" t="s">
         <v>574</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -9892,7 +9900,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="580"/>
+      <c r="B557" s="410"/>
       <c r="C557" s="374" t="s">
         <v>576</v>
       </c>
@@ -9902,7 +9910,7 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="585" t="s">
+      <c r="B559" s="407" t="s">
         <v>577</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -9914,7 +9922,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="585"/>
+      <c r="B560" s="407"/>
       <c r="C560" s="376" t="s">
         <v>579</v>
       </c>
@@ -9924,7 +9932,7 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="586" t="s">
+      <c r="B562" s="408" t="s">
         <v>580</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -9936,7 +9944,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="586"/>
+      <c r="B563" s="408"/>
       <c r="C563" s="378" t="s">
         <v>582</v>
       </c>
@@ -9946,7 +9954,7 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="583" t="s">
+      <c r="B565" s="405" t="s">
         <v>583</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -9958,7 +9966,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="583"/>
+      <c r="B566" s="405"/>
       <c r="C566" s="380" t="s">
         <v>585</v>
       </c>
@@ -9968,7 +9976,7 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="584" t="s">
+      <c r="B568" s="406" t="s">
         <v>586</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -9980,7 +9988,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="584"/>
+      <c r="B569" s="406"/>
       <c r="C569" s="382" t="s">
         <v>588</v>
       </c>
@@ -9990,7 +9998,7 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="592" t="s">
+      <c r="B571" s="403" t="s">
         <v>589</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10002,7 +10010,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="592"/>
+      <c r="B572" s="403"/>
       <c r="C572" s="384" t="s">
         <v>591</v>
       </c>
@@ -10012,7 +10020,7 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="593" t="s">
+      <c r="B574" s="404" t="s">
         <v>592</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10024,7 +10032,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="593"/>
+      <c r="B575" s="404"/>
       <c r="C575" s="386" t="s">
         <v>594</v>
       </c>
@@ -10034,7 +10042,7 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="587" t="s">
+      <c r="B577" s="397" t="s">
         <v>595</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10046,7 +10054,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="587"/>
+      <c r="B578" s="397"/>
       <c r="C578" s="388" t="s">
         <v>597</v>
       </c>
@@ -10059,15 +10067,585 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="588"/>
-      <c r="B581" s="590"/>
+      <c r="A581" s="399"/>
+      <c r="B581" s="401"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="589"/>
-      <c r="B582" s="591"/>
+      <c r="A582" s="400"/>
+      <c r="B582" s="402"/>
     </row>
   </sheetData>
   <mergeCells count="582">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
     <mergeCell ref="A577:A578"/>
     <mergeCell ref="B577:B578"/>
     <mergeCell ref="D577:D578"/>
@@ -10080,576 +10658,6 @@
     <mergeCell ref="A574:A575"/>
     <mergeCell ref="B574:B575"/>
     <mergeCell ref="D574:D575"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Donna Bom.xlsx
+++ b/Donna Bom.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="625">
   <si>
     <t>#</t>
   </si>
@@ -1886,6 +1886,18 @@
   </si>
   <si>
     <t>https://www.amazon.de/Machinarium-Limited-2012-Pl%C3%BCsch-Robo/dp/B009GDVTZ2</t>
+  </si>
+  <si>
+    <t>http://www.pfotenoase.at/produkt/pluesch-strauss-35cm-mit-quietsche-2/</t>
+  </si>
+  <si>
+    <t>https://www.marsmore.de/plusch/kuscheltier-funky-hahn-30cm.html</t>
+  </si>
+  <si>
+    <t>https://www.marsmore.de/plusch/kuscheltier-funky-hahn-45cm.html</t>
+  </si>
+  <si>
+    <t>https://www.marsmore.de/kuscheltier-langes-haar-strauss-43cm.html</t>
   </si>
 </sst>
 </file>
@@ -4296,10 +4308,577 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4318,573 +4897,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5405,10 +5417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K16"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5630,6 +5642,26 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C16" s="391" t="s">
         <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="391" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="391" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="391" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="391" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -5818,7 +5850,7 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="591" t="s">
+      <c r="B1" s="397" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -5830,7 +5862,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="591"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
@@ -5840,7 +5872,7 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="592" t="s">
+      <c r="B4" s="399" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -5852,7 +5884,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="592"/>
+      <c r="B5" s="399"/>
       <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
@@ -5862,7 +5894,7 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="589" t="s">
+      <c r="B7" s="402" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -5874,7 +5906,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="589"/>
+      <c r="B8" s="402"/>
       <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
@@ -5884,7 +5916,7 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="590" t="s">
+      <c r="B10" s="403" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -5896,7 +5928,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="590"/>
+      <c r="B11" s="403"/>
       <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
@@ -5906,7 +5938,7 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="593" t="s">
+      <c r="B13" s="400" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -5918,7 +5950,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="593"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
@@ -5928,7 +5960,7 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="401" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -5940,7 +5972,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="588"/>
+      <c r="B17" s="401"/>
       <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
@@ -5950,7 +5982,7 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="586" t="s">
+      <c r="B19" s="406" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -5962,7 +5994,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="586"/>
+      <c r="B20" s="406"/>
       <c r="C20" s="18" t="s">
         <v>42</v>
       </c>
@@ -5972,7 +6004,7 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="587" t="s">
+      <c r="B22" s="407" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -5984,7 +6016,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="587"/>
+      <c r="B23" s="407"/>
       <c r="C23" s="20" t="s">
         <v>45</v>
       </c>
@@ -5994,7 +6026,7 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="584" t="s">
+      <c r="B25" s="404" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -6006,7 +6038,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="584"/>
+      <c r="B26" s="404"/>
       <c r="C26" s="22" t="s">
         <v>48</v>
       </c>
@@ -6016,7 +6048,7 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="585" t="s">
+      <c r="B28" s="405" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -6028,7 +6060,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="585"/>
+      <c r="B29" s="405"/>
       <c r="C29" s="24" t="s">
         <v>51</v>
       </c>
@@ -6038,7 +6070,7 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="582" t="s">
+      <c r="B31" s="410" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -6050,7 +6082,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="582"/>
+      <c r="B32" s="410"/>
       <c r="C32" s="26" t="s">
         <v>54</v>
       </c>
@@ -6060,7 +6092,7 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="583" t="s">
+      <c r="B34" s="411" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -6072,7 +6104,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="583"/>
+      <c r="B35" s="411"/>
       <c r="C35" s="28" t="s">
         <v>57</v>
       </c>
@@ -6082,7 +6114,7 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="580" t="s">
+      <c r="B37" s="408" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -6094,7 +6126,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="580"/>
+      <c r="B38" s="408"/>
       <c r="C38" s="30" t="s">
         <v>60</v>
       </c>
@@ -6104,7 +6136,7 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="581" t="s">
+      <c r="B40" s="409" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -6116,7 +6148,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="581"/>
+      <c r="B41" s="409"/>
       <c r="C41" s="32" t="s">
         <v>63</v>
       </c>
@@ -6126,7 +6158,7 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="578" t="s">
+      <c r="B43" s="414" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -6138,7 +6170,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="578"/>
+      <c r="B44" s="414"/>
       <c r="C44" s="34" t="s">
         <v>66</v>
       </c>
@@ -6148,7 +6180,7 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="579" t="s">
+      <c r="B46" s="415" t="s">
         <v>67</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -6160,7 +6192,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="579"/>
+      <c r="B47" s="415"/>
       <c r="C47" s="36" t="s">
         <v>69</v>
       </c>
@@ -6170,7 +6202,7 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="576" t="s">
+      <c r="B49" s="412" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -6182,7 +6214,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="576"/>
+      <c r="B50" s="412"/>
       <c r="C50" s="38" t="s">
         <v>72</v>
       </c>
@@ -6192,7 +6224,7 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="577" t="s">
+      <c r="B52" s="413" t="s">
         <v>73</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -6204,7 +6236,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="577"/>
+      <c r="B53" s="413"/>
       <c r="C53" s="40" t="s">
         <v>75</v>
       </c>
@@ -6214,7 +6246,7 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="575" t="s">
+      <c r="B55" s="418" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6226,7 +6258,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="575"/>
+      <c r="B56" s="418"/>
       <c r="C56" s="42" t="s">
         <v>78</v>
       </c>
@@ -6236,7 +6268,7 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="575" t="s">
+      <c r="B58" s="418" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -6248,7 +6280,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="575"/>
+      <c r="B59" s="418"/>
       <c r="C59" s="42" t="s">
         <v>78</v>
       </c>
@@ -6258,7 +6290,7 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="573" t="s">
+      <c r="B61" s="416" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="43" t="s">
@@ -6270,7 +6302,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="573"/>
+      <c r="B62" s="416"/>
       <c r="C62" s="44" t="s">
         <v>82</v>
       </c>
@@ -6280,7 +6312,7 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="574" t="s">
+      <c r="B64" s="417" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="45" t="s">
@@ -6292,7 +6324,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="574"/>
+      <c r="B65" s="417"/>
       <c r="C65" s="46" t="s">
         <v>85</v>
       </c>
@@ -6302,7 +6334,7 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="571" t="s">
+      <c r="B67" s="421" t="s">
         <v>86</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -6314,7 +6346,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="571"/>
+      <c r="B68" s="421"/>
       <c r="C68" s="48" t="s">
         <v>88</v>
       </c>
@@ -6324,7 +6356,7 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="572" t="s">
+      <c r="B70" s="422" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6336,7 +6368,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="572"/>
+      <c r="B71" s="422"/>
       <c r="C71" s="50" t="s">
         <v>91</v>
       </c>
@@ -6346,7 +6378,7 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="569" t="s">
+      <c r="B73" s="419" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -6358,7 +6390,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="569"/>
+      <c r="B74" s="419"/>
       <c r="C74" s="52" t="s">
         <v>94</v>
       </c>
@@ -6368,7 +6400,7 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="570" t="s">
+      <c r="B76" s="420" t="s">
         <v>95</v>
       </c>
       <c r="C76" s="53" t="s">
@@ -6380,7 +6412,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="570"/>
+      <c r="B77" s="420"/>
       <c r="C77" s="54" t="s">
         <v>97</v>
       </c>
@@ -6390,7 +6422,7 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="567" t="s">
+      <c r="B79" s="425" t="s">
         <v>98</v>
       </c>
       <c r="C79" s="55" t="s">
@@ -6402,7 +6434,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="567"/>
+      <c r="B80" s="425"/>
       <c r="C80" s="56" t="s">
         <v>100</v>
       </c>
@@ -6412,7 +6444,7 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="568" t="s">
+      <c r="B82" s="426" t="s">
         <v>101</v>
       </c>
       <c r="C82" s="57" t="s">
@@ -6424,7 +6456,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="568"/>
+      <c r="B83" s="426"/>
       <c r="C83" s="58" t="s">
         <v>103</v>
       </c>
@@ -6434,7 +6466,7 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="565" t="s">
+      <c r="B85" s="423" t="s">
         <v>104</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -6446,7 +6478,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="565"/>
+      <c r="B86" s="423"/>
       <c r="C86" s="60" t="s">
         <v>106</v>
       </c>
@@ -6456,7 +6488,7 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="566" t="s">
+      <c r="B88" s="424" t="s">
         <v>107</v>
       </c>
       <c r="C88" s="61" t="s">
@@ -6468,7 +6500,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="566"/>
+      <c r="B89" s="424"/>
       <c r="C89" s="62" t="s">
         <v>109</v>
       </c>
@@ -6478,7 +6510,7 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="563" t="s">
+      <c r="B91" s="429" t="s">
         <v>110</v>
       </c>
       <c r="C91" s="63" t="s">
@@ -6490,7 +6522,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="563"/>
+      <c r="B92" s="429"/>
       <c r="C92" s="64" t="s">
         <v>112</v>
       </c>
@@ -6500,7 +6532,7 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="564" t="s">
+      <c r="B94" s="430" t="s">
         <v>113</v>
       </c>
       <c r="C94" s="65" t="s">
@@ -6512,7 +6544,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="564"/>
+      <c r="B95" s="430"/>
       <c r="C95" s="66" t="s">
         <v>115</v>
       </c>
@@ -6522,7 +6554,7 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="561" t="s">
+      <c r="B97" s="427" t="s">
         <v>116</v>
       </c>
       <c r="C97" s="67" t="s">
@@ -6534,7 +6566,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="561"/>
+      <c r="B98" s="427"/>
       <c r="C98" s="68" t="s">
         <v>118</v>
       </c>
@@ -6544,7 +6576,7 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="562" t="s">
+      <c r="B100" s="428" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="69" t="s">
@@ -6556,7 +6588,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="562"/>
+      <c r="B101" s="428"/>
       <c r="C101" s="70" t="s">
         <v>121</v>
       </c>
@@ -6566,7 +6598,7 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="559" t="s">
+      <c r="B103" s="433" t="s">
         <v>122</v>
       </c>
       <c r="C103" s="71" t="s">
@@ -6578,7 +6610,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="559"/>
+      <c r="B104" s="433"/>
       <c r="C104" s="72" t="s">
         <v>124</v>
       </c>
@@ -6588,7 +6620,7 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="560" t="s">
+      <c r="B106" s="434" t="s">
         <v>125</v>
       </c>
       <c r="C106" s="73" t="s">
@@ -6600,7 +6632,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="560"/>
+      <c r="B107" s="434"/>
       <c r="C107" s="74" t="s">
         <v>127</v>
       </c>
@@ -6610,7 +6642,7 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="557" t="s">
+      <c r="B109" s="431" t="s">
         <v>128</v>
       </c>
       <c r="C109" s="75" t="s">
@@ -6622,7 +6654,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="557"/>
+      <c r="B110" s="431"/>
       <c r="C110" s="76" t="s">
         <v>130</v>
       </c>
@@ -6632,7 +6664,7 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="558" t="s">
+      <c r="B112" s="432" t="s">
         <v>131</v>
       </c>
       <c r="C112" s="77" t="s">
@@ -6644,7 +6676,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="558"/>
+      <c r="B113" s="432"/>
       <c r="C113" s="78" t="s">
         <v>133</v>
       </c>
@@ -6654,7 +6686,7 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="555" t="s">
+      <c r="B115" s="437" t="s">
         <v>134</v>
       </c>
       <c r="C115" s="79" t="s">
@@ -6666,7 +6698,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="555"/>
+      <c r="B116" s="437"/>
       <c r="C116" s="80" t="s">
         <v>136</v>
       </c>
@@ -6676,7 +6708,7 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="556" t="s">
+      <c r="B118" s="438" t="s">
         <v>137</v>
       </c>
       <c r="C118" s="81" t="s">
@@ -6688,7 +6720,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="556"/>
+      <c r="B119" s="438"/>
       <c r="C119" s="82" t="s">
         <v>139</v>
       </c>
@@ -6698,7 +6730,7 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="553" t="s">
+      <c r="B121" s="435" t="s">
         <v>140</v>
       </c>
       <c r="C121" s="83" t="s">
@@ -6710,7 +6742,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="553"/>
+      <c r="B122" s="435"/>
       <c r="C122" s="84" t="s">
         <v>142</v>
       </c>
@@ -6720,7 +6752,7 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="554" t="s">
+      <c r="B124" s="436" t="s">
         <v>143</v>
       </c>
       <c r="C124" s="85" t="s">
@@ -6732,7 +6764,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="554"/>
+      <c r="B125" s="436"/>
       <c r="C125" s="86" t="s">
         <v>145</v>
       </c>
@@ -6742,7 +6774,7 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="551" t="s">
+      <c r="B127" s="441" t="s">
         <v>146</v>
       </c>
       <c r="C127" s="87" t="s">
@@ -6754,7 +6786,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="551"/>
+      <c r="B128" s="441"/>
       <c r="C128" s="88" t="s">
         <v>148</v>
       </c>
@@ -6764,7 +6796,7 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="552" t="s">
+      <c r="B130" s="442" t="s">
         <v>149</v>
       </c>
       <c r="C130" s="89" t="s">
@@ -6776,7 +6808,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="552"/>
+      <c r="B131" s="442"/>
       <c r="C131" s="90" t="s">
         <v>151</v>
       </c>
@@ -6786,7 +6818,7 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="549" t="s">
+      <c r="B133" s="439" t="s">
         <v>152</v>
       </c>
       <c r="C133" s="91" t="s">
@@ -6798,7 +6830,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="549"/>
+      <c r="B134" s="439"/>
       <c r="C134" s="92" t="s">
         <v>154</v>
       </c>
@@ -6808,7 +6840,7 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="550" t="s">
+      <c r="B136" s="440" t="s">
         <v>155</v>
       </c>
       <c r="C136" s="93" t="s">
@@ -6820,7 +6852,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="550"/>
+      <c r="B137" s="440"/>
       <c r="C137" s="94" t="s">
         <v>157</v>
       </c>
@@ -6830,7 +6862,7 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="547" t="s">
+      <c r="B139" s="445" t="s">
         <v>158</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -6842,7 +6874,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="547"/>
+      <c r="B140" s="445"/>
       <c r="C140" s="96" t="s">
         <v>160</v>
       </c>
@@ -6852,7 +6884,7 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="548" t="s">
+      <c r="B142" s="446" t="s">
         <v>161</v>
       </c>
       <c r="C142" s="97" t="s">
@@ -6864,7 +6896,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="548"/>
+      <c r="B143" s="446"/>
       <c r="C143" s="98" t="s">
         <v>163</v>
       </c>
@@ -6874,7 +6906,7 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="545" t="s">
+      <c r="B145" s="443" t="s">
         <v>164</v>
       </c>
       <c r="C145" s="99" t="s">
@@ -6886,7 +6918,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="545"/>
+      <c r="B146" s="443"/>
       <c r="C146" s="100" t="s">
         <v>166</v>
       </c>
@@ -6896,7 +6928,7 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="546" t="s">
+      <c r="B148" s="444" t="s">
         <v>167</v>
       </c>
       <c r="C148" s="101" t="s">
@@ -6908,7 +6940,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="546"/>
+      <c r="B149" s="444"/>
       <c r="C149" s="102" t="s">
         <v>169</v>
       </c>
@@ -6918,7 +6950,7 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="543" t="s">
+      <c r="B151" s="449" t="s">
         <v>170</v>
       </c>
       <c r="C151" s="103" t="s">
@@ -6930,7 +6962,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="543"/>
+      <c r="B152" s="449"/>
       <c r="C152" s="104" t="s">
         <v>172</v>
       </c>
@@ -6940,7 +6972,7 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="544" t="s">
+      <c r="B154" s="450" t="s">
         <v>173</v>
       </c>
       <c r="C154" s="105" t="s">
@@ -6952,7 +6984,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="544"/>
+      <c r="B155" s="450"/>
       <c r="C155" s="106" t="s">
         <v>175</v>
       </c>
@@ -6962,7 +6994,7 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="541" t="s">
+      <c r="B157" s="447" t="s">
         <v>176</v>
       </c>
       <c r="C157" s="107" t="s">
@@ -6974,7 +7006,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="541"/>
+      <c r="B158" s="447"/>
       <c r="C158" s="108" t="s">
         <v>178</v>
       </c>
@@ -6984,7 +7016,7 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="542" t="s">
+      <c r="B160" s="448" t="s">
         <v>179</v>
       </c>
       <c r="C160" s="109" t="s">
@@ -6996,7 +7028,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="542"/>
+      <c r="B161" s="448"/>
       <c r="C161" s="110" t="s">
         <v>181</v>
       </c>
@@ -7006,7 +7038,7 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="539" t="s">
+      <c r="B163" s="453" t="s">
         <v>182</v>
       </c>
       <c r="C163" s="111" t="s">
@@ -7018,7 +7050,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="539"/>
+      <c r="B164" s="453"/>
       <c r="C164" s="112" t="s">
         <v>184</v>
       </c>
@@ -7028,7 +7060,7 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="540" t="s">
+      <c r="B166" s="454" t="s">
         <v>185</v>
       </c>
       <c r="C166" s="113" t="s">
@@ -7040,7 +7072,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="540"/>
+      <c r="B167" s="454"/>
       <c r="C167" s="114" t="s">
         <v>187</v>
       </c>
@@ -7050,7 +7082,7 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="537" t="s">
+      <c r="B169" s="451" t="s">
         <v>188</v>
       </c>
       <c r="C169" s="115" t="s">
@@ -7062,7 +7094,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="537"/>
+      <c r="B170" s="451"/>
       <c r="C170" s="116" t="s">
         <v>190</v>
       </c>
@@ -7072,7 +7104,7 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="538" t="s">
+      <c r="B172" s="452" t="s">
         <v>191</v>
       </c>
       <c r="C172" s="117" t="s">
@@ -7084,7 +7116,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="538"/>
+      <c r="B173" s="452"/>
       <c r="C173" s="118" t="s">
         <v>193</v>
       </c>
@@ -7094,7 +7126,7 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="535" t="s">
+      <c r="B175" s="457" t="s">
         <v>194</v>
       </c>
       <c r="C175" s="119" t="s">
@@ -7106,7 +7138,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="535"/>
+      <c r="B176" s="457"/>
       <c r="C176" s="120" t="s">
         <v>196</v>
       </c>
@@ -7116,7 +7148,7 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="536" t="s">
+      <c r="B178" s="458" t="s">
         <v>197</v>
       </c>
       <c r="C178" s="121" t="s">
@@ -7128,7 +7160,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="536"/>
+      <c r="B179" s="458"/>
       <c r="C179" s="122" t="s">
         <v>199</v>
       </c>
@@ -7138,7 +7170,7 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="533" t="s">
+      <c r="B181" s="455" t="s">
         <v>200</v>
       </c>
       <c r="C181" s="123" t="s">
@@ -7150,7 +7182,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="533"/>
+      <c r="B182" s="455"/>
       <c r="C182" s="124" t="s">
         <v>202</v>
       </c>
@@ -7160,7 +7192,7 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="534" t="s">
+      <c r="B184" s="456" t="s">
         <v>203</v>
       </c>
       <c r="C184" s="125" t="s">
@@ -7172,7 +7204,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="534"/>
+      <c r="B185" s="456"/>
       <c r="C185" s="126" t="s">
         <v>205</v>
       </c>
@@ -7182,7 +7214,7 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="531" t="s">
+      <c r="B187" s="461" t="s">
         <v>206</v>
       </c>
       <c r="C187" s="127" t="s">
@@ -7194,7 +7226,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="531"/>
+      <c r="B188" s="461"/>
       <c r="C188" s="128" t="s">
         <v>208</v>
       </c>
@@ -7204,7 +7236,7 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="532" t="s">
+      <c r="B190" s="462" t="s">
         <v>209</v>
       </c>
       <c r="C190" s="129" t="s">
@@ -7216,7 +7248,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="532"/>
+      <c r="B191" s="462"/>
       <c r="C191" s="130" t="s">
         <v>211</v>
       </c>
@@ -7226,7 +7258,7 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="529" t="s">
+      <c r="B193" s="459" t="s">
         <v>212</v>
       </c>
       <c r="C193" s="131" t="s">
@@ -7238,7 +7270,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="529"/>
+      <c r="B194" s="459"/>
       <c r="C194" s="132" t="s">
         <v>214</v>
       </c>
@@ -7248,7 +7280,7 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="530" t="s">
+      <c r="B196" s="460" t="s">
         <v>215</v>
       </c>
       <c r="C196" s="133" t="s">
@@ -7260,7 +7292,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="530"/>
+      <c r="B197" s="460"/>
       <c r="C197" s="134" t="s">
         <v>217</v>
       </c>
@@ -7270,7 +7302,7 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="527" t="s">
+      <c r="B199" s="465" t="s">
         <v>218</v>
       </c>
       <c r="C199" s="135" t="s">
@@ -7282,7 +7314,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="527"/>
+      <c r="B200" s="465"/>
       <c r="C200" s="136" t="s">
         <v>220</v>
       </c>
@@ -7292,7 +7324,7 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="528" t="s">
+      <c r="B202" s="466" t="s">
         <v>221</v>
       </c>
       <c r="C202" s="137" t="s">
@@ -7304,7 +7336,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="528"/>
+      <c r="B203" s="466"/>
       <c r="C203" s="138" t="s">
         <v>223</v>
       </c>
@@ -7314,7 +7346,7 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="525" t="s">
+      <c r="B205" s="463" t="s">
         <v>224</v>
       </c>
       <c r="C205" s="139" t="s">
@@ -7326,7 +7358,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="525"/>
+      <c r="B206" s="463"/>
       <c r="C206" s="140" t="s">
         <v>226</v>
       </c>
@@ -7336,7 +7368,7 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="526" t="s">
+      <c r="B208" s="464" t="s">
         <v>227</v>
       </c>
       <c r="C208" s="141" t="s">
@@ -7348,7 +7380,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="526"/>
+      <c r="B209" s="464"/>
       <c r="C209" s="142" t="s">
         <v>229</v>
       </c>
@@ -7358,7 +7390,7 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="523" t="s">
+      <c r="B211" s="469" t="s">
         <v>230</v>
       </c>
       <c r="C211" s="143" t="s">
@@ -7370,7 +7402,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="523"/>
+      <c r="B212" s="469"/>
       <c r="C212" s="144" t="s">
         <v>232</v>
       </c>
@@ -7380,7 +7412,7 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="524" t="s">
+      <c r="B214" s="470" t="s">
         <v>233</v>
       </c>
       <c r="C214" s="145" t="s">
@@ -7392,7 +7424,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="524"/>
+      <c r="B215" s="470"/>
       <c r="C215" s="146" t="s">
         <v>235</v>
       </c>
@@ -7402,7 +7434,7 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="521" t="s">
+      <c r="B217" s="467" t="s">
         <v>236</v>
       </c>
       <c r="C217" s="147" t="s">
@@ -7414,7 +7446,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="521"/>
+      <c r="B218" s="467"/>
       <c r="C218" s="148" t="s">
         <v>238</v>
       </c>
@@ -7424,7 +7456,7 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="522" t="s">
+      <c r="B220" s="468" t="s">
         <v>239</v>
       </c>
       <c r="C220" s="149" t="s">
@@ -7436,7 +7468,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="522"/>
+      <c r="B221" s="468"/>
       <c r="C221" s="150" t="s">
         <v>241</v>
       </c>
@@ -7446,7 +7478,7 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="519" t="s">
+      <c r="B223" s="473" t="s">
         <v>242</v>
       </c>
       <c r="C223" s="151" t="s">
@@ -7458,7 +7490,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="519"/>
+      <c r="B224" s="473"/>
       <c r="C224" s="152" t="s">
         <v>244</v>
       </c>
@@ -7468,7 +7500,7 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="520" t="s">
+      <c r="B226" s="474" t="s">
         <v>245</v>
       </c>
       <c r="C226" s="153" t="s">
@@ -7480,7 +7512,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="520"/>
+      <c r="B227" s="474"/>
       <c r="C227" s="154" t="s">
         <v>247</v>
       </c>
@@ -7490,7 +7522,7 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="517" t="s">
+      <c r="B229" s="471" t="s">
         <v>248</v>
       </c>
       <c r="C229" s="155" t="s">
@@ -7502,7 +7534,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="517"/>
+      <c r="B230" s="471"/>
       <c r="C230" s="156" t="s">
         <v>250</v>
       </c>
@@ -7512,7 +7544,7 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="518" t="s">
+      <c r="B232" s="472" t="s">
         <v>251</v>
       </c>
       <c r="C232" s="157" t="s">
@@ -7524,7 +7556,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="518"/>
+      <c r="B233" s="472"/>
       <c r="C233" s="158" t="s">
         <v>253</v>
       </c>
@@ -7534,7 +7566,7 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="515" t="s">
+      <c r="B235" s="477" t="s">
         <v>254</v>
       </c>
       <c r="C235" s="159" t="s">
@@ -7546,7 +7578,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="515"/>
+      <c r="B236" s="477"/>
       <c r="C236" s="160" t="s">
         <v>256</v>
       </c>
@@ -7556,7 +7588,7 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="516" t="s">
+      <c r="B238" s="478" t="s">
         <v>257</v>
       </c>
       <c r="C238" s="161" t="s">
@@ -7568,7 +7600,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="516"/>
+      <c r="B239" s="478"/>
       <c r="C239" s="162" t="s">
         <v>259</v>
       </c>
@@ -7578,7 +7610,7 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="513" t="s">
+      <c r="B241" s="475" t="s">
         <v>260</v>
       </c>
       <c r="C241" s="163" t="s">
@@ -7590,7 +7622,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="513"/>
+      <c r="B242" s="475"/>
       <c r="C242" s="164" t="s">
         <v>262</v>
       </c>
@@ -7600,7 +7632,7 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="514" t="s">
+      <c r="B244" s="476" t="s">
         <v>263</v>
       </c>
       <c r="C244" s="165" t="s">
@@ -7612,7 +7644,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="514"/>
+      <c r="B245" s="476"/>
       <c r="C245" s="166" t="s">
         <v>265</v>
       </c>
@@ -7622,7 +7654,7 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="511" t="s">
+      <c r="B247" s="481" t="s">
         <v>266</v>
       </c>
       <c r="C247" s="167" t="s">
@@ -7634,7 +7666,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="511"/>
+      <c r="B248" s="481"/>
       <c r="C248" s="168" t="s">
         <v>268</v>
       </c>
@@ -7644,7 +7676,7 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="512" t="s">
+      <c r="B250" s="482" t="s">
         <v>269</v>
       </c>
       <c r="C250" s="169" t="s">
@@ -7656,7 +7688,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="512"/>
+      <c r="B251" s="482"/>
       <c r="C251" s="170" t="s">
         <v>271</v>
       </c>
@@ -7666,7 +7698,7 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="509" t="s">
+      <c r="B253" s="479" t="s">
         <v>272</v>
       </c>
       <c r="C253" s="171" t="s">
@@ -7678,7 +7710,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="509"/>
+      <c r="B254" s="479"/>
       <c r="C254" s="172" t="s">
         <v>274</v>
       </c>
@@ -7688,7 +7720,7 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="510" t="s">
+      <c r="B256" s="480" t="s">
         <v>275</v>
       </c>
       <c r="C256" s="173" t="s">
@@ -7700,7 +7732,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="510"/>
+      <c r="B257" s="480"/>
       <c r="C257" s="174" t="s">
         <v>277</v>
       </c>
@@ -7710,7 +7742,7 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="507" t="s">
+      <c r="B259" s="485" t="s">
         <v>278</v>
       </c>
       <c r="C259" s="175" t="s">
@@ -7722,7 +7754,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="507"/>
+      <c r="B260" s="485"/>
       <c r="C260" s="176" t="s">
         <v>280</v>
       </c>
@@ -7732,7 +7764,7 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="508" t="s">
+      <c r="B262" s="486" t="s">
         <v>281</v>
       </c>
       <c r="C262" s="177" t="s">
@@ -7744,7 +7776,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="508"/>
+      <c r="B263" s="486"/>
       <c r="C263" s="178" t="s">
         <v>283</v>
       </c>
@@ -7754,7 +7786,7 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="505" t="s">
+      <c r="B265" s="483" t="s">
         <v>260</v>
       </c>
       <c r="C265" s="179" t="s">
@@ -7766,7 +7798,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="505"/>
+      <c r="B266" s="483"/>
       <c r="C266" s="180" t="s">
         <v>285</v>
       </c>
@@ -7776,7 +7808,7 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="506" t="s">
+      <c r="B268" s="484" t="s">
         <v>286</v>
       </c>
       <c r="C268" s="181" t="s">
@@ -7788,7 +7820,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="506"/>
+      <c r="B269" s="484"/>
       <c r="C269" s="182" t="s">
         <v>288</v>
       </c>
@@ -7798,7 +7830,7 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="503" t="s">
+      <c r="B271" s="489" t="s">
         <v>289</v>
       </c>
       <c r="C271" s="183" t="s">
@@ -7810,7 +7842,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="503"/>
+      <c r="B272" s="489"/>
       <c r="C272" s="184" t="s">
         <v>291</v>
       </c>
@@ -7820,7 +7852,7 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="504" t="s">
+      <c r="B274" s="490" t="s">
         <v>292</v>
       </c>
       <c r="C274" s="185" t="s">
@@ -7832,7 +7864,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="504"/>
+      <c r="B275" s="490"/>
       <c r="C275" s="186" t="s">
         <v>294</v>
       </c>
@@ -7842,7 +7874,7 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="501" t="s">
+      <c r="B277" s="487" t="s">
         <v>295</v>
       </c>
       <c r="C277" s="187" t="s">
@@ -7854,7 +7886,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="501"/>
+      <c r="B278" s="487"/>
       <c r="C278" s="188" t="s">
         <v>297</v>
       </c>
@@ -7864,7 +7896,7 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="502" t="s">
+      <c r="B280" s="488" t="s">
         <v>298</v>
       </c>
       <c r="C280" s="189" t="s">
@@ -7876,7 +7908,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="502"/>
+      <c r="B281" s="488"/>
       <c r="C281" s="190" t="s">
         <v>300</v>
       </c>
@@ -7886,7 +7918,7 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="499" t="s">
+      <c r="B283" s="493" t="s">
         <v>301</v>
       </c>
       <c r="C283" s="191" t="s">
@@ -7898,7 +7930,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="499"/>
+      <c r="B284" s="493"/>
       <c r="C284" s="192" t="s">
         <v>303</v>
       </c>
@@ -7908,7 +7940,7 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="500" t="s">
+      <c r="B286" s="494" t="s">
         <v>304</v>
       </c>
       <c r="C286" s="193" t="s">
@@ -7920,7 +7952,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="500"/>
+      <c r="B287" s="494"/>
       <c r="C287" s="194" t="s">
         <v>306</v>
       </c>
@@ -7930,7 +7962,7 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="497" t="s">
+      <c r="B289" s="491" t="s">
         <v>307</v>
       </c>
       <c r="C289" s="195" t="s">
@@ -7942,7 +7974,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="497"/>
+      <c r="B290" s="491"/>
       <c r="C290" s="196" t="s">
         <v>309</v>
       </c>
@@ -7952,7 +7984,7 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="498" t="s">
+      <c r="B292" s="492" t="s">
         <v>310</v>
       </c>
       <c r="C292" s="197" t="s">
@@ -7964,7 +7996,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="498"/>
+      <c r="B293" s="492"/>
       <c r="C293" s="198" t="s">
         <v>312</v>
       </c>
@@ -7974,7 +8006,7 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="495" t="s">
+      <c r="B295" s="497" t="s">
         <v>313</v>
       </c>
       <c r="C295" s="199" t="s">
@@ -7986,7 +8018,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="495"/>
+      <c r="B296" s="497"/>
       <c r="C296" s="200" t="s">
         <v>315</v>
       </c>
@@ -7996,7 +8028,7 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="496" t="s">
+      <c r="B298" s="498" t="s">
         <v>316</v>
       </c>
       <c r="C298" s="201" t="s">
@@ -8008,7 +8040,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="496"/>
+      <c r="B299" s="498"/>
       <c r="C299" s="202" t="s">
         <v>318</v>
       </c>
@@ -8018,7 +8050,7 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="493" t="s">
+      <c r="B301" s="495" t="s">
         <v>319</v>
       </c>
       <c r="C301" s="203" t="s">
@@ -8030,7 +8062,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="493"/>
+      <c r="B302" s="495"/>
       <c r="C302" s="204" t="s">
         <v>321</v>
       </c>
@@ -8040,7 +8072,7 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="494" t="s">
+      <c r="B304" s="496" t="s">
         <v>322</v>
       </c>
       <c r="C304" s="205" t="s">
@@ -8052,7 +8084,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="494"/>
+      <c r="B305" s="496"/>
       <c r="C305" s="206" t="s">
         <v>324</v>
       </c>
@@ -8062,7 +8094,7 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="491" t="s">
+      <c r="B307" s="501" t="s">
         <v>325</v>
       </c>
       <c r="C307" s="207" t="s">
@@ -8074,7 +8106,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="491"/>
+      <c r="B308" s="501"/>
       <c r="C308" s="208" t="s">
         <v>327</v>
       </c>
@@ -8084,7 +8116,7 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="492" t="s">
+      <c r="B310" s="502" t="s">
         <v>328</v>
       </c>
       <c r="C310" s="209" t="s">
@@ -8096,7 +8128,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="492"/>
+      <c r="B311" s="502"/>
       <c r="C311" s="210" t="s">
         <v>330</v>
       </c>
@@ -8106,7 +8138,7 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="489" t="s">
+      <c r="B313" s="499" t="s">
         <v>331</v>
       </c>
       <c r="C313" s="211" t="s">
@@ -8118,7 +8150,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="489"/>
+      <c r="B314" s="499"/>
       <c r="C314" s="212" t="s">
         <v>333</v>
       </c>
@@ -8128,7 +8160,7 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="490" t="s">
+      <c r="B316" s="500" t="s">
         <v>334</v>
       </c>
       <c r="C316" s="213" t="s">
@@ -8140,7 +8172,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="490"/>
+      <c r="B317" s="500"/>
       <c r="C317" s="214" t="s">
         <v>336</v>
       </c>
@@ -8150,7 +8182,7 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="487" t="s">
+      <c r="B319" s="505" t="s">
         <v>337</v>
       </c>
       <c r="C319" s="215" t="s">
@@ -8162,7 +8194,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="487"/>
+      <c r="B320" s="505"/>
       <c r="C320" s="216" t="s">
         <v>339</v>
       </c>
@@ -8172,7 +8204,7 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="488" t="s">
+      <c r="B322" s="506" t="s">
         <v>340</v>
       </c>
       <c r="C322" s="217" t="s">
@@ -8184,7 +8216,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="488"/>
+      <c r="B323" s="506"/>
       <c r="C323" s="218" t="s">
         <v>342</v>
       </c>
@@ -8194,7 +8226,7 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="485" t="s">
+      <c r="B325" s="503" t="s">
         <v>343</v>
       </c>
       <c r="C325" s="219" t="s">
@@ -8206,7 +8238,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="485"/>
+      <c r="B326" s="503"/>
       <c r="C326" s="220" t="s">
         <v>345</v>
       </c>
@@ -8216,7 +8248,7 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="486" t="s">
+      <c r="B328" s="504" t="s">
         <v>346</v>
       </c>
       <c r="C328" s="221" t="s">
@@ -8228,7 +8260,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="486"/>
+      <c r="B329" s="504"/>
       <c r="C329" s="222" t="s">
         <v>348</v>
       </c>
@@ -8238,7 +8270,7 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="483" t="s">
+      <c r="B331" s="509" t="s">
         <v>349</v>
       </c>
       <c r="C331" s="223" t="s">
@@ -8250,7 +8282,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="483"/>
+      <c r="B332" s="509"/>
       <c r="C332" s="224" t="s">
         <v>351</v>
       </c>
@@ -8260,7 +8292,7 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="484" t="s">
+      <c r="B334" s="510" t="s">
         <v>352</v>
       </c>
       <c r="C334" s="225" t="s">
@@ -8272,7 +8304,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="484"/>
+      <c r="B335" s="510"/>
       <c r="C335" s="226" t="s">
         <v>354</v>
       </c>
@@ -8282,7 +8314,7 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="481" t="s">
+      <c r="B337" s="507" t="s">
         <v>355</v>
       </c>
       <c r="C337" s="227" t="s">
@@ -8294,7 +8326,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="481"/>
+      <c r="B338" s="507"/>
       <c r="C338" s="228" t="s">
         <v>357</v>
       </c>
@@ -8304,7 +8336,7 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="482" t="s">
+      <c r="B340" s="508" t="s">
         <v>358</v>
       </c>
       <c r="C340" s="229" t="s">
@@ -8316,7 +8348,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="482"/>
+      <c r="B341" s="508"/>
       <c r="C341" s="230" t="s">
         <v>360</v>
       </c>
@@ -8326,7 +8358,7 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="479" t="s">
+      <c r="B343" s="513" t="s">
         <v>361</v>
       </c>
       <c r="C343" s="231" t="s">
@@ -8338,7 +8370,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="479"/>
+      <c r="B344" s="513"/>
       <c r="C344" s="232" t="s">
         <v>363</v>
       </c>
@@ -8348,7 +8380,7 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="480" t="s">
+      <c r="B346" s="514" t="s">
         <v>364</v>
       </c>
       <c r="C346" s="233" t="s">
@@ -8360,7 +8392,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="480"/>
+      <c r="B347" s="514"/>
       <c r="C347" s="234" t="s">
         <v>366</v>
       </c>
@@ -8370,7 +8402,7 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="477" t="s">
+      <c r="B349" s="511" t="s">
         <v>367</v>
       </c>
       <c r="C349" s="235" t="s">
@@ -8382,7 +8414,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="477"/>
+      <c r="B350" s="511"/>
       <c r="C350" s="236" t="s">
         <v>369</v>
       </c>
@@ -8392,7 +8424,7 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="478" t="s">
+      <c r="B352" s="512" t="s">
         <v>370</v>
       </c>
       <c r="C352" s="237" t="s">
@@ -8404,7 +8436,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="478"/>
+      <c r="B353" s="512"/>
       <c r="C353" s="238" t="s">
         <v>372</v>
       </c>
@@ -8414,7 +8446,7 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="475" t="s">
+      <c r="B355" s="517" t="s">
         <v>373</v>
       </c>
       <c r="C355" s="239" t="s">
@@ -8426,7 +8458,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="475"/>
+      <c r="B356" s="517"/>
       <c r="C356" s="240" t="s">
         <v>375</v>
       </c>
@@ -8436,7 +8468,7 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="476" t="s">
+      <c r="B358" s="518" t="s">
         <v>376</v>
       </c>
       <c r="C358" s="241" t="s">
@@ -8448,7 +8480,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="476"/>
+      <c r="B359" s="518"/>
       <c r="C359" s="242" t="s">
         <v>378</v>
       </c>
@@ -8458,7 +8490,7 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="473" t="s">
+      <c r="B361" s="515" t="s">
         <v>379</v>
       </c>
       <c r="C361" s="243" t="s">
@@ -8470,7 +8502,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="473"/>
+      <c r="B362" s="515"/>
       <c r="C362" s="244" t="s">
         <v>381</v>
       </c>
@@ -8480,7 +8512,7 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="474" t="s">
+      <c r="B364" s="516" t="s">
         <v>382</v>
       </c>
       <c r="C364" s="245" t="s">
@@ -8492,7 +8524,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="474"/>
+      <c r="B365" s="516"/>
       <c r="C365" s="246" t="s">
         <v>384</v>
       </c>
@@ -8502,7 +8534,7 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="471" t="s">
+      <c r="B367" s="521" t="s">
         <v>385</v>
       </c>
       <c r="C367" s="247" t="s">
@@ -8514,7 +8546,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="471"/>
+      <c r="B368" s="521"/>
       <c r="C368" s="248" t="s">
         <v>387</v>
       </c>
@@ -8524,7 +8556,7 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="472" t="s">
+      <c r="B370" s="522" t="s">
         <v>388</v>
       </c>
       <c r="C370" s="249" t="s">
@@ -8536,7 +8568,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="472"/>
+      <c r="B371" s="522"/>
       <c r="C371" s="250" t="s">
         <v>390</v>
       </c>
@@ -8546,7 +8578,7 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="469" t="s">
+      <c r="B373" s="519" t="s">
         <v>391</v>
       </c>
       <c r="C373" s="251" t="s">
@@ -8558,7 +8590,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="469"/>
+      <c r="B374" s="519"/>
       <c r="C374" s="252" t="s">
         <v>393</v>
       </c>
@@ -8568,7 +8600,7 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="470" t="s">
+      <c r="B376" s="520" t="s">
         <v>394</v>
       </c>
       <c r="C376" s="253" t="s">
@@ -8580,7 +8612,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="470"/>
+      <c r="B377" s="520"/>
       <c r="C377" s="254" t="s">
         <v>396</v>
       </c>
@@ -8590,7 +8622,7 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="467" t="s">
+      <c r="B379" s="525" t="s">
         <v>397</v>
       </c>
       <c r="C379" s="255" t="s">
@@ -8602,7 +8634,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="467"/>
+      <c r="B380" s="525"/>
       <c r="C380" s="256" t="s">
         <v>399</v>
       </c>
@@ -8612,7 +8644,7 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="468" t="s">
+      <c r="B382" s="526" t="s">
         <v>400</v>
       </c>
       <c r="C382" s="257" t="s">
@@ -8624,7 +8656,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="468"/>
+      <c r="B383" s="526"/>
       <c r="C383" s="258" t="s">
         <v>402</v>
       </c>
@@ -8634,7 +8666,7 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="465" t="s">
+      <c r="B385" s="523" t="s">
         <v>403</v>
       </c>
       <c r="C385" s="259" t="s">
@@ -8646,7 +8678,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="465"/>
+      <c r="B386" s="523"/>
       <c r="C386" s="260" t="s">
         <v>405</v>
       </c>
@@ -8656,7 +8688,7 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="466" t="s">
+      <c r="B388" s="524" t="s">
         <v>406</v>
       </c>
       <c r="C388" s="261" t="s">
@@ -8668,7 +8700,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="466"/>
+      <c r="B389" s="524"/>
       <c r="C389" s="262" t="s">
         <v>408</v>
       </c>
@@ -8678,7 +8710,7 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="463" t="s">
+      <c r="B391" s="529" t="s">
         <v>409</v>
       </c>
       <c r="C391" s="263" t="s">
@@ -8690,7 +8722,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="463"/>
+      <c r="B392" s="529"/>
       <c r="C392" s="264" t="s">
         <v>411</v>
       </c>
@@ -8700,7 +8732,7 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="464" t="s">
+      <c r="B394" s="530" t="s">
         <v>412</v>
       </c>
       <c r="C394" s="265" t="s">
@@ -8712,7 +8744,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="464"/>
+      <c r="B395" s="530"/>
       <c r="C395" s="266" t="s">
         <v>414</v>
       </c>
@@ -8722,7 +8754,7 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="461" t="s">
+      <c r="B397" s="527" t="s">
         <v>415</v>
       </c>
       <c r="C397" s="267" t="s">
@@ -8734,7 +8766,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="461"/>
+      <c r="B398" s="527"/>
       <c r="C398" s="268" t="s">
         <v>417</v>
       </c>
@@ -8744,7 +8776,7 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="462" t="s">
+      <c r="B400" s="528" t="s">
         <v>418</v>
       </c>
       <c r="C400" s="269" t="s">
@@ -8756,7 +8788,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="462"/>
+      <c r="B401" s="528"/>
       <c r="C401" s="270" t="s">
         <v>420</v>
       </c>
@@ -8766,7 +8798,7 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="459" t="s">
+      <c r="B403" s="533" t="s">
         <v>421</v>
       </c>
       <c r="C403" s="271" t="s">
@@ -8778,7 +8810,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="459"/>
+      <c r="B404" s="533"/>
       <c r="C404" s="272" t="s">
         <v>423</v>
       </c>
@@ -8788,7 +8820,7 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="460" t="s">
+      <c r="B406" s="534" t="s">
         <v>424</v>
       </c>
       <c r="C406" s="273" t="s">
@@ -8800,7 +8832,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="460"/>
+      <c r="B407" s="534"/>
       <c r="C407" s="274" t="s">
         <v>426</v>
       </c>
@@ -8810,7 +8842,7 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="457" t="s">
+      <c r="B409" s="531" t="s">
         <v>427</v>
       </c>
       <c r="C409" s="275" t="s">
@@ -8822,7 +8854,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="457"/>
+      <c r="B410" s="531"/>
       <c r="C410" s="276" t="s">
         <v>429</v>
       </c>
@@ -8832,7 +8864,7 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="458" t="s">
+      <c r="B412" s="532" t="s">
         <v>430</v>
       </c>
       <c r="C412" s="277" t="s">
@@ -8844,7 +8876,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="458"/>
+      <c r="B413" s="532"/>
       <c r="C413" s="278" t="s">
         <v>432</v>
       </c>
@@ -8854,7 +8886,7 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="455" t="s">
+      <c r="B415" s="537" t="s">
         <v>433</v>
       </c>
       <c r="C415" s="279" t="s">
@@ -8866,7 +8898,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="455"/>
+      <c r="B416" s="537"/>
       <c r="C416" s="280" t="s">
         <v>435</v>
       </c>
@@ -8876,7 +8908,7 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="456" t="s">
+      <c r="B418" s="538" t="s">
         <v>436</v>
       </c>
       <c r="C418" s="281" t="s">
@@ -8888,7 +8920,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="456"/>
+      <c r="B419" s="538"/>
       <c r="C419" s="282" t="s">
         <v>438</v>
       </c>
@@ -8898,7 +8930,7 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="453" t="s">
+      <c r="B421" s="535" t="s">
         <v>439</v>
       </c>
       <c r="C421" s="283" t="s">
@@ -8910,7 +8942,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="453"/>
+      <c r="B422" s="535"/>
       <c r="C422" s="284" t="s">
         <v>441</v>
       </c>
@@ -8920,7 +8952,7 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="454" t="s">
+      <c r="B424" s="536" t="s">
         <v>442</v>
       </c>
       <c r="C424" s="285" t="s">
@@ -8932,7 +8964,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="454"/>
+      <c r="B425" s="536"/>
       <c r="C425" s="286" t="s">
         <v>444</v>
       </c>
@@ -8942,7 +8974,7 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="451" t="s">
+      <c r="B427" s="541" t="s">
         <v>445</v>
       </c>
       <c r="C427" s="287" t="s">
@@ -8954,7 +8986,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="451"/>
+      <c r="B428" s="541"/>
       <c r="C428" s="288" t="s">
         <v>447</v>
       </c>
@@ -8964,7 +8996,7 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="452" t="s">
+      <c r="B430" s="542" t="s">
         <v>448</v>
       </c>
       <c r="C430" s="289" t="s">
@@ -8976,7 +9008,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="452"/>
+      <c r="B431" s="542"/>
       <c r="C431" s="290" t="s">
         <v>450</v>
       </c>
@@ -8986,7 +9018,7 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="449" t="s">
+      <c r="B433" s="539" t="s">
         <v>451</v>
       </c>
       <c r="C433" s="291" t="s">
@@ -8998,7 +9030,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="449"/>
+      <c r="B434" s="539"/>
       <c r="C434" s="292" t="s">
         <v>453</v>
       </c>
@@ -9008,7 +9040,7 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="450" t="s">
+      <c r="B436" s="540" t="s">
         <v>454</v>
       </c>
       <c r="C436" s="293" t="s">
@@ -9020,7 +9052,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="450"/>
+      <c r="B437" s="540"/>
       <c r="C437" s="294" t="s">
         <v>456</v>
       </c>
@@ -9030,7 +9062,7 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="447" t="s">
+      <c r="B439" s="545" t="s">
         <v>457</v>
       </c>
       <c r="C439" s="295" t="s">
@@ -9042,7 +9074,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="447"/>
+      <c r="B440" s="545"/>
       <c r="C440" s="296" t="s">
         <v>459</v>
       </c>
@@ -9052,7 +9084,7 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="448" t="s">
+      <c r="B442" s="546" t="s">
         <v>460</v>
       </c>
       <c r="C442" s="297" t="s">
@@ -9064,7 +9096,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="448"/>
+      <c r="B443" s="546"/>
       <c r="C443" s="298" t="s">
         <v>462</v>
       </c>
@@ -9074,7 +9106,7 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="445" t="s">
+      <c r="B445" s="543" t="s">
         <v>463</v>
       </c>
       <c r="C445" s="299" t="s">
@@ -9086,7 +9118,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="445"/>
+      <c r="B446" s="543"/>
       <c r="C446" s="300" t="s">
         <v>465</v>
       </c>
@@ -9096,7 +9128,7 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="446" t="s">
+      <c r="B448" s="544" t="s">
         <v>466</v>
       </c>
       <c r="C448" s="301" t="s">
@@ -9108,7 +9140,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="446"/>
+      <c r="B449" s="544"/>
       <c r="C449" s="302" t="s">
         <v>468</v>
       </c>
@@ -9118,7 +9150,7 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="443" t="s">
+      <c r="B451" s="549" t="s">
         <v>469</v>
       </c>
       <c r="C451" s="303" t="s">
@@ -9130,7 +9162,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="443"/>
+      <c r="B452" s="549"/>
       <c r="C452" s="304" t="s">
         <v>471</v>
       </c>
@@ -9140,7 +9172,7 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="444" t="s">
+      <c r="B454" s="550" t="s">
         <v>472</v>
       </c>
       <c r="C454" s="305" t="s">
@@ -9152,7 +9184,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="444"/>
+      <c r="B455" s="550"/>
       <c r="C455" s="306" t="s">
         <v>474</v>
       </c>
@@ -9162,7 +9194,7 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="441" t="s">
+      <c r="B457" s="547" t="s">
         <v>475</v>
       </c>
       <c r="C457" s="307" t="s">
@@ -9174,7 +9206,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="441"/>
+      <c r="B458" s="547"/>
       <c r="C458" s="308" t="s">
         <v>477</v>
       </c>
@@ -9184,7 +9216,7 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="442" t="s">
+      <c r="B460" s="548" t="s">
         <v>478</v>
       </c>
       <c r="C460" s="309" t="s">
@@ -9196,7 +9228,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="442"/>
+      <c r="B461" s="548"/>
       <c r="C461" s="310" t="s">
         <v>480</v>
       </c>
@@ -9206,7 +9238,7 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="439" t="s">
+      <c r="B463" s="553" t="s">
         <v>481</v>
       </c>
       <c r="C463" s="311" t="s">
@@ -9218,7 +9250,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="439"/>
+      <c r="B464" s="553"/>
       <c r="C464" s="312" t="s">
         <v>483</v>
       </c>
@@ -9228,7 +9260,7 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="440" t="s">
+      <c r="B466" s="554" t="s">
         <v>484</v>
       </c>
       <c r="C466" s="313" t="s">
@@ -9240,7 +9272,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="440"/>
+      <c r="B467" s="554"/>
       <c r="C467" s="314" t="s">
         <v>486</v>
       </c>
@@ -9250,7 +9282,7 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="437" t="s">
+      <c r="B469" s="551" t="s">
         <v>487</v>
       </c>
       <c r="C469" s="315" t="s">
@@ -9262,7 +9294,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="437"/>
+      <c r="B470" s="551"/>
       <c r="C470" s="316" t="s">
         <v>489</v>
       </c>
@@ -9272,7 +9304,7 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="438" t="s">
+      <c r="B472" s="552" t="s">
         <v>490</v>
       </c>
       <c r="C472" s="317" t="s">
@@ -9284,7 +9316,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="438"/>
+      <c r="B473" s="552"/>
       <c r="C473" s="318" t="s">
         <v>492</v>
       </c>
@@ -9294,7 +9326,7 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="435" t="s">
+      <c r="B475" s="557" t="s">
         <v>493</v>
       </c>
       <c r="C475" s="319" t="s">
@@ -9306,7 +9338,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="435"/>
+      <c r="B476" s="557"/>
       <c r="C476" s="320" t="s">
         <v>495</v>
       </c>
@@ -9316,7 +9348,7 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="436" t="s">
+      <c r="B478" s="558" t="s">
         <v>496</v>
       </c>
       <c r="C478" s="321" t="s">
@@ -9328,7 +9360,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="436"/>
+      <c r="B479" s="558"/>
       <c r="C479" s="322" t="s">
         <v>498</v>
       </c>
@@ -9338,7 +9370,7 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="433" t="s">
+      <c r="B481" s="555" t="s">
         <v>499</v>
       </c>
       <c r="C481" s="323" t="s">
@@ -9350,7 +9382,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="433"/>
+      <c r="B482" s="555"/>
       <c r="C482" s="324" t="s">
         <v>501</v>
       </c>
@@ -9360,7 +9392,7 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="434" t="s">
+      <c r="B484" s="556" t="s">
         <v>502</v>
       </c>
       <c r="C484" s="325" t="s">
@@ -9372,7 +9404,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="434"/>
+      <c r="B485" s="556"/>
       <c r="C485" s="326" t="s">
         <v>504</v>
       </c>
@@ -9382,7 +9414,7 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="431" t="s">
+      <c r="B487" s="561" t="s">
         <v>505</v>
       </c>
       <c r="C487" s="327" t="s">
@@ -9394,7 +9426,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="431"/>
+      <c r="B488" s="561"/>
       <c r="C488" s="328" t="s">
         <v>507</v>
       </c>
@@ -9404,7 +9436,7 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="432" t="s">
+      <c r="B490" s="562" t="s">
         <v>508</v>
       </c>
       <c r="C490" s="329" t="s">
@@ -9416,7 +9448,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="432"/>
+      <c r="B491" s="562"/>
       <c r="C491" s="330" t="s">
         <v>510</v>
       </c>
@@ -9426,7 +9458,7 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="429" t="s">
+      <c r="B493" s="559" t="s">
         <v>511</v>
       </c>
       <c r="C493" s="331" t="s">
@@ -9438,7 +9470,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="429"/>
+      <c r="B494" s="559"/>
       <c r="C494" s="332" t="s">
         <v>513</v>
       </c>
@@ -9448,7 +9480,7 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="430" t="s">
+      <c r="B496" s="560" t="s">
         <v>514</v>
       </c>
       <c r="C496" s="333" t="s">
@@ -9460,7 +9492,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="430"/>
+      <c r="B497" s="560"/>
       <c r="C497" s="334" t="s">
         <v>516</v>
       </c>
@@ -9470,7 +9502,7 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="427" t="s">
+      <c r="B499" s="565" t="s">
         <v>517</v>
       </c>
       <c r="C499" s="335" t="s">
@@ -9482,7 +9514,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="427"/>
+      <c r="B500" s="565"/>
       <c r="C500" s="336" t="s">
         <v>519</v>
       </c>
@@ -9492,7 +9524,7 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="428" t="s">
+      <c r="B502" s="566" t="s">
         <v>520</v>
       </c>
       <c r="C502" s="337" t="s">
@@ -9504,7 +9536,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="428"/>
+      <c r="B503" s="566"/>
       <c r="C503" s="338" t="s">
         <v>522</v>
       </c>
@@ -9514,7 +9546,7 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="425" t="s">
+      <c r="B505" s="563" t="s">
         <v>523</v>
       </c>
       <c r="C505" s="339" t="s">
@@ -9526,7 +9558,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="425"/>
+      <c r="B506" s="563"/>
       <c r="C506" s="340" t="s">
         <v>525</v>
       </c>
@@ -9536,7 +9568,7 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="426" t="s">
+      <c r="B508" s="564" t="s">
         <v>526</v>
       </c>
       <c r="C508" s="341" t="s">
@@ -9548,7 +9580,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="426"/>
+      <c r="B509" s="564"/>
       <c r="C509" s="342" t="s">
         <v>528</v>
       </c>
@@ -9558,7 +9590,7 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="423" t="s">
+      <c r="B511" s="569" t="s">
         <v>529</v>
       </c>
       <c r="C511" s="343" t="s">
@@ -9570,7 +9602,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="423"/>
+      <c r="B512" s="569"/>
       <c r="C512" s="344" t="s">
         <v>531</v>
       </c>
@@ -9580,7 +9612,7 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="424" t="s">
+      <c r="B514" s="570" t="s">
         <v>532</v>
       </c>
       <c r="C514" s="345" t="s">
@@ -9592,7 +9624,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="424"/>
+      <c r="B515" s="570"/>
       <c r="C515" s="346" t="s">
         <v>534</v>
       </c>
@@ -9602,7 +9634,7 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="421" t="s">
+      <c r="B517" s="567" t="s">
         <v>535</v>
       </c>
       <c r="C517" s="347" t="s">
@@ -9614,7 +9646,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="421"/>
+      <c r="B518" s="567"/>
       <c r="C518" s="348" t="s">
         <v>537</v>
       </c>
@@ -9624,7 +9656,7 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="422" t="s">
+      <c r="B520" s="568" t="s">
         <v>538</v>
       </c>
       <c r="C520" s="349" t="s">
@@ -9636,7 +9668,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="422"/>
+      <c r="B521" s="568"/>
       <c r="C521" s="350" t="s">
         <v>540</v>
       </c>
@@ -9646,7 +9678,7 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="419" t="s">
+      <c r="B523" s="573" t="s">
         <v>541</v>
       </c>
       <c r="C523" s="351" t="s">
@@ -9658,7 +9690,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="419"/>
+      <c r="B524" s="573"/>
       <c r="C524" s="352" t="s">
         <v>543</v>
       </c>
@@ -9668,7 +9700,7 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="420" t="s">
+      <c r="B526" s="574" t="s">
         <v>544</v>
       </c>
       <c r="C526" s="353" t="s">
@@ -9680,7 +9712,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="420"/>
+      <c r="B527" s="574"/>
       <c r="C527" s="354" t="s">
         <v>546</v>
       </c>
@@ -9690,7 +9722,7 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="417" t="s">
+      <c r="B529" s="571" t="s">
         <v>547</v>
       </c>
       <c r="C529" s="355" t="s">
@@ -9702,7 +9734,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="417"/>
+      <c r="B530" s="571"/>
       <c r="C530" s="356" t="s">
         <v>549</v>
       </c>
@@ -9712,7 +9744,7 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="418" t="s">
+      <c r="B532" s="572" t="s">
         <v>550</v>
       </c>
       <c r="C532" s="357" t="s">
@@ -9724,7 +9756,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="418"/>
+      <c r="B533" s="572"/>
       <c r="C533" s="358" t="s">
         <v>552</v>
       </c>
@@ -9734,7 +9766,7 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="415" t="s">
+      <c r="B535" s="577" t="s">
         <v>553</v>
       </c>
       <c r="C535" s="359" t="s">
@@ -9746,7 +9778,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="415"/>
+      <c r="B536" s="577"/>
       <c r="C536" s="360" t="s">
         <v>555</v>
       </c>
@@ -9756,7 +9788,7 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="416" t="s">
+      <c r="B538" s="578" t="s">
         <v>556</v>
       </c>
       <c r="C538" s="361" t="s">
@@ -9768,7 +9800,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="416"/>
+      <c r="B539" s="578"/>
       <c r="C539" s="362" t="s">
         <v>558</v>
       </c>
@@ -9778,7 +9810,7 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="413" t="s">
+      <c r="B541" s="575" t="s">
         <v>559</v>
       </c>
       <c r="C541" s="363" t="s">
@@ -9790,7 +9822,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="413"/>
+      <c r="B542" s="575"/>
       <c r="C542" s="364" t="s">
         <v>561</v>
       </c>
@@ -9800,7 +9832,7 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="414" t="s">
+      <c r="B544" s="576" t="s">
         <v>562</v>
       </c>
       <c r="C544" s="365" t="s">
@@ -9812,7 +9844,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="414"/>
+      <c r="B545" s="576"/>
       <c r="C545" s="366" t="s">
         <v>564</v>
       </c>
@@ -9822,7 +9854,7 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="411" t="s">
+      <c r="B547" s="581" t="s">
         <v>565</v>
       </c>
       <c r="C547" s="367" t="s">
@@ -9834,7 +9866,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="411"/>
+      <c r="B548" s="581"/>
       <c r="C548" s="368" t="s">
         <v>567</v>
       </c>
@@ -9844,7 +9876,7 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="412" t="s">
+      <c r="B550" s="582" t="s">
         <v>568</v>
       </c>
       <c r="C550" s="369" t="s">
@@ -9856,7 +9888,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="412"/>
+      <c r="B551" s="582"/>
       <c r="C551" s="370" t="s">
         <v>570</v>
       </c>
@@ -9866,7 +9898,7 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="409" t="s">
+      <c r="B553" s="579" t="s">
         <v>571</v>
       </c>
       <c r="C553" s="371" t="s">
@@ -9878,7 +9910,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="409"/>
+      <c r="B554" s="579"/>
       <c r="C554" s="372" t="s">
         <v>573</v>
       </c>
@@ -9888,7 +9920,7 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="410" t="s">
+      <c r="B556" s="580" t="s">
         <v>574</v>
       </c>
       <c r="C556" s="373" t="s">
@@ -9900,7 +9932,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="410"/>
+      <c r="B557" s="580"/>
       <c r="C557" s="374" t="s">
         <v>576</v>
       </c>
@@ -9910,7 +9942,7 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="407" t="s">
+      <c r="B559" s="585" t="s">
         <v>577</v>
       </c>
       <c r="C559" s="375" t="s">
@@ -9922,7 +9954,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="407"/>
+      <c r="B560" s="585"/>
       <c r="C560" s="376" t="s">
         <v>579</v>
       </c>
@@ -9932,7 +9964,7 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="408" t="s">
+      <c r="B562" s="586" t="s">
         <v>580</v>
       </c>
       <c r="C562" s="377" t="s">
@@ -9944,7 +9976,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="408"/>
+      <c r="B563" s="586"/>
       <c r="C563" s="378" t="s">
         <v>582</v>
       </c>
@@ -9954,7 +9986,7 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="405" t="s">
+      <c r="B565" s="583" t="s">
         <v>583</v>
       </c>
       <c r="C565" s="379" t="s">
@@ -9966,7 +9998,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="405"/>
+      <c r="B566" s="583"/>
       <c r="C566" s="380" t="s">
         <v>585</v>
       </c>
@@ -9976,7 +10008,7 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="406" t="s">
+      <c r="B568" s="584" t="s">
         <v>586</v>
       </c>
       <c r="C568" s="381" t="s">
@@ -9988,7 +10020,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="406"/>
+      <c r="B569" s="584"/>
       <c r="C569" s="382" t="s">
         <v>588</v>
       </c>
@@ -9998,7 +10030,7 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="403" t="s">
+      <c r="B571" s="592" t="s">
         <v>589</v>
       </c>
       <c r="C571" s="383" t="s">
@@ -10010,7 +10042,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="403"/>
+      <c r="B572" s="592"/>
       <c r="C572" s="384" t="s">
         <v>591</v>
       </c>
@@ -10020,7 +10052,7 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="404" t="s">
+      <c r="B574" s="593" t="s">
         <v>592</v>
       </c>
       <c r="C574" s="385" t="s">
@@ -10032,7 +10064,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="404"/>
+      <c r="B575" s="593"/>
       <c r="C575" s="386" t="s">
         <v>594</v>
       </c>
@@ -10042,7 +10074,7 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="397" t="s">
+      <c r="B577" s="587" t="s">
         <v>595</v>
       </c>
       <c r="C577" s="387" t="s">
@@ -10054,7 +10086,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="397"/>
+      <c r="B578" s="587"/>
       <c r="C578" s="388" t="s">
         <v>597</v>
       </c>
@@ -10067,33 +10099,567 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="399"/>
-      <c r="B581" s="401"/>
+      <c r="A581" s="588"/>
+      <c r="B581" s="590"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="400"/>
-      <c r="B582" s="402"/>
+      <c r="A582" s="589"/>
+      <c r="B582" s="591"/>
     </row>
   </sheetData>
   <mergeCells count="582">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="A580:D580"/>
+    <mergeCell ref="A581:A582"/>
+    <mergeCell ref="B581:B582"/>
+    <mergeCell ref="A571:A572"/>
+    <mergeCell ref="B571:B572"/>
+    <mergeCell ref="D571:D572"/>
+    <mergeCell ref="A574:A575"/>
+    <mergeCell ref="B574:B575"/>
+    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
@@ -10106,558 +10672,24 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="A580:D580"/>
-    <mergeCell ref="A581:A582"/>
-    <mergeCell ref="B581:B582"/>
-    <mergeCell ref="A571:A572"/>
-    <mergeCell ref="B571:B572"/>
-    <mergeCell ref="D571:D572"/>
-    <mergeCell ref="A574:A575"/>
-    <mergeCell ref="B574:B575"/>
-    <mergeCell ref="D574:D575"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Donna Bom.xlsx
+++ b/Donna Bom.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="624">
   <si>
     <t>#</t>
   </si>
@@ -55,15 +55,6 @@
     <t>http://www.pollin.de/shop/dt/ODA1OTgxOTk-/Bauelemente_Bauteile/Entwicklerboards/Odroid/ODROID_C2_Einplatinen_Computer_1_5_GHz_QuadCore_2_GB_RAM_4x_USB.html</t>
   </si>
   <si>
-    <t>Teensy 3.5</t>
-  </si>
-  <si>
-    <t>Servo control</t>
-  </si>
-  <si>
-    <t>http://www.exp-tech.de/teensy-3-5</t>
-  </si>
-  <si>
     <t>Computation of footprint (used in _common_params.yaml)</t>
   </si>
   <si>
@@ -1840,9 +1831,6 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>http://www.gabriel-stahlformenbau.de/shop/Modellbau/Kugelgelenke/Kugelgelenk-993009?source=2&amp;refertype=1&amp;referid=12</t>
   </si>
   <si>
@@ -1898,6 +1886,15 @@
   </si>
   <si>
     <t>https://www.marsmore.de/kuscheltier-langes-haar-strauss-43cm.html</t>
+  </si>
+  <si>
+    <t>https://holzprofi.com/maschinen/absaugzubehoer/absaugschlauch/AB-F-TPU-Z120/Polyuretan%20Flexschlauch%20TPU%26%238209%3BZ%20120mm%20HOLZPROFI</t>
+  </si>
+  <si>
+    <t>Absaugschlauch</t>
+  </si>
+  <si>
+    <t>Body Inlet</t>
   </si>
 </sst>
 </file>
@@ -4308,577 +4305,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4897,6 +4327,573 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5420,7 +5417,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5462,7 +5459,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
@@ -5485,74 +5482,72 @@
         <v>59</v>
       </c>
       <c r="J3" s="392">
-        <f t="shared" ref="J3:J4" si="0">I3*B3</f>
+        <f t="shared" ref="J3" si="0">I3*B3</f>
         <v>59</v>
       </c>
       <c r="K3" s="394" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="391">
-        <v>1</v>
-      </c>
-      <c r="C4" s="391" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="391" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="394" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4" s="394" t="s">
+        <v>608</v>
       </c>
       <c r="G4" s="391" t="s">
-        <v>12</v>
+        <v>603</v>
       </c>
       <c r="H4" s="391">
         <v>1</v>
       </c>
       <c r="I4" s="392">
-        <v>29.95</v>
+        <v>3.9</v>
       </c>
       <c r="J4" s="392">
-        <f t="shared" si="0"/>
-        <v>29.95</v>
-      </c>
-      <c r="K4" s="394" t="s">
-        <v>605</v>
-      </c>
+        <f t="shared" ref="J4" si="1">I4*B4</f>
+        <v>23.4</v>
+      </c>
+      <c r="K4" s="394"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="391">
-        <v>6</v>
-      </c>
       <c r="C5" s="394" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" s="394" t="s">
         <v>612</v>
       </c>
+      <c r="D5" s="394"/>
       <c r="G5" s="391" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H5" s="391">
         <v>1</v>
       </c>
-      <c r="I5" s="392">
-        <v>3.9</v>
-      </c>
-      <c r="J5" s="392">
-        <f t="shared" ref="J5" si="1">I5*B5</f>
-        <v>23.4</v>
-      </c>
+      <c r="I5" s="392"/>
+      <c r="J5" s="392"/>
       <c r="K5" s="394"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="391">
+        <v>1</v>
+      </c>
       <c r="C6" s="394" t="s">
-        <v>616</v>
-      </c>
-      <c r="D6" s="394"/>
+        <v>622</v>
+      </c>
+      <c r="D6" s="394" t="s">
+        <v>623</v>
+      </c>
       <c r="G6" s="391" t="s">
-        <v>615</v>
-      </c>
-      <c r="I6" s="392"/>
+        <v>621</v>
+      </c>
+      <c r="H6" s="391">
+        <v>1</v>
+      </c>
+      <c r="I6" s="392">
+        <v>11.9</v>
+      </c>
       <c r="J6" s="392"/>
       <c r="K6" s="394"/>
     </row>
@@ -5561,13 +5556,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="394" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D7" s="394" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G7" s="391" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H7" s="394">
         <v>10</v>
@@ -5585,13 +5580,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="394" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D8" s="394" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G8" s="391" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H8" s="394">
         <v>1</v>
@@ -5609,59 +5604,59 @@
         <v>6</v>
       </c>
       <c r="C9" s="394" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D9" s="394" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G9" s="391" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="J10" s="393">
-        <f>SUM(J3:J4)</f>
-        <v>88.95</v>
+        <f>SUM(J3:J3)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C13" s="391" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C14" s="391" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C15" s="391" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C16" s="391" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" s="391" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" s="391" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" s="391" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20" s="391" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +5681,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -5694,23 +5689,23 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5756,7 +5751,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <f>$B$3*COS(RADIANS(B6))</f>
@@ -5781,7 +5776,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <f>$B$3*SIN(RADIANS(B6))</f>
@@ -5827,7 +5822,7 @@
   <sheetData>
     <row r="99" spans="4:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D99" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5850,21 +5845,21 @@
       <c r="A1" s="396">
         <v>1000</v>
       </c>
-      <c r="B1" s="397" t="s">
-        <v>21</v>
+      <c r="B1" s="591" t="s">
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="396"/>
-      <c r="B2" s="397"/>
+      <c r="B2" s="591"/>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" s="398"/>
     </row>
@@ -5872,21 +5867,21 @@
       <c r="A4" s="396">
         <v>1001</v>
       </c>
-      <c r="B4" s="399" t="s">
-        <v>25</v>
+      <c r="B4" s="592" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="396"/>
-      <c r="B5" s="399"/>
+      <c r="B5" s="592"/>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="398"/>
     </row>
@@ -5894,21 +5889,21 @@
       <c r="A7" s="396">
         <v>1002</v>
       </c>
-      <c r="B7" s="402" t="s">
-        <v>28</v>
+      <c r="B7" s="589" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="396"/>
-      <c r="B8" s="402"/>
+      <c r="B8" s="589"/>
       <c r="C8" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="398"/>
     </row>
@@ -5916,21 +5911,21 @@
       <c r="A10" s="396">
         <v>1003</v>
       </c>
-      <c r="B10" s="403" t="s">
-        <v>31</v>
+      <c r="B10" s="590" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="396"/>
-      <c r="B11" s="403"/>
+      <c r="B11" s="590"/>
       <c r="C11" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="398"/>
     </row>
@@ -5938,21 +5933,21 @@
       <c r="A13" s="396">
         <v>1004</v>
       </c>
-      <c r="B13" s="400" t="s">
-        <v>34</v>
+      <c r="B13" s="593" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="396"/>
-      <c r="B14" s="400"/>
+      <c r="B14" s="593"/>
       <c r="C14" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="398"/>
     </row>
@@ -5960,21 +5955,21 @@
       <c r="A16" s="396">
         <v>1005</v>
       </c>
-      <c r="B16" s="401" t="s">
-        <v>37</v>
+      <c r="B16" s="588" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="396"/>
-      <c r="B17" s="401"/>
+      <c r="B17" s="588"/>
       <c r="C17" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="398"/>
     </row>
@@ -5982,21 +5977,21 @@
       <c r="A19" s="396">
         <v>1006</v>
       </c>
-      <c r="B19" s="406" t="s">
-        <v>40</v>
+      <c r="B19" s="586" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="396"/>
-      <c r="B20" s="406"/>
+      <c r="B20" s="586"/>
       <c r="C20" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="398"/>
     </row>
@@ -6004,21 +5999,21 @@
       <c r="A22" s="396">
         <v>1007</v>
       </c>
-      <c r="B22" s="407" t="s">
-        <v>43</v>
+      <c r="B22" s="587" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="396"/>
-      <c r="B23" s="407"/>
+      <c r="B23" s="587"/>
       <c r="C23" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="398"/>
     </row>
@@ -6026,21 +6021,21 @@
       <c r="A25" s="396">
         <v>1011</v>
       </c>
-      <c r="B25" s="404" t="s">
-        <v>46</v>
+      <c r="B25" s="584" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="396"/>
-      <c r="B26" s="404"/>
+      <c r="B26" s="584"/>
       <c r="C26" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="398"/>
     </row>
@@ -6048,21 +6043,21 @@
       <c r="A28" s="396">
         <v>1012</v>
       </c>
-      <c r="B28" s="405" t="s">
-        <v>49</v>
+      <c r="B28" s="585" t="s">
+        <v>46</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="396"/>
-      <c r="B29" s="405"/>
+      <c r="B29" s="585"/>
       <c r="C29" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D29" s="398"/>
     </row>
@@ -6070,21 +6065,21 @@
       <c r="A31" s="396">
         <v>1013</v>
       </c>
-      <c r="B31" s="410" t="s">
-        <v>52</v>
+      <c r="B31" s="582" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D31" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="396"/>
-      <c r="B32" s="410"/>
+      <c r="B32" s="582"/>
       <c r="C32" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D32" s="398"/>
     </row>
@@ -6092,21 +6087,21 @@
       <c r="A34" s="396">
         <v>1014</v>
       </c>
-      <c r="B34" s="411" t="s">
-        <v>55</v>
+      <c r="B34" s="583" t="s">
+        <v>52</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="396"/>
-      <c r="B35" s="411"/>
+      <c r="B35" s="583"/>
       <c r="C35" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D35" s="398"/>
     </row>
@@ -6114,21 +6109,21 @@
       <c r="A37" s="396">
         <v>1015</v>
       </c>
-      <c r="B37" s="408" t="s">
-        <v>58</v>
+      <c r="B37" s="580" t="s">
+        <v>55</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D37" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="396"/>
-      <c r="B38" s="408"/>
+      <c r="B38" s="580"/>
       <c r="C38" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D38" s="398"/>
     </row>
@@ -6136,21 +6131,21 @@
       <c r="A40" s="396">
         <v>1016</v>
       </c>
-      <c r="B40" s="409" t="s">
-        <v>61</v>
+      <c r="B40" s="581" t="s">
+        <v>58</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D40" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="396"/>
-      <c r="B41" s="409"/>
+      <c r="B41" s="581"/>
       <c r="C41" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D41" s="398"/>
     </row>
@@ -6158,21 +6153,21 @@
       <c r="A43" s="396">
         <v>1017</v>
       </c>
-      <c r="B43" s="414" t="s">
-        <v>64</v>
+      <c r="B43" s="578" t="s">
+        <v>61</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D43" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="396"/>
-      <c r="B44" s="414"/>
+      <c r="B44" s="578"/>
       <c r="C44" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D44" s="398"/>
     </row>
@@ -6180,21 +6175,21 @@
       <c r="A46" s="396">
         <v>1018</v>
       </c>
-      <c r="B46" s="415" t="s">
-        <v>67</v>
+      <c r="B46" s="579" t="s">
+        <v>64</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D46" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="396"/>
-      <c r="B47" s="415"/>
+      <c r="B47" s="579"/>
       <c r="C47" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D47" s="398"/>
     </row>
@@ -6202,21 +6197,21 @@
       <c r="A49" s="396">
         <v>1019</v>
       </c>
-      <c r="B49" s="412" t="s">
-        <v>70</v>
+      <c r="B49" s="576" t="s">
+        <v>67</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D49" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="396"/>
-      <c r="B50" s="412"/>
+      <c r="B50" s="576"/>
       <c r="C50" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D50" s="398"/>
     </row>
@@ -6224,21 +6219,21 @@
       <c r="A52" s="396">
         <v>1020</v>
       </c>
-      <c r="B52" s="413" t="s">
-        <v>73</v>
+      <c r="B52" s="577" t="s">
+        <v>70</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D52" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="396"/>
-      <c r="B53" s="413"/>
+      <c r="B53" s="577"/>
       <c r="C53" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D53" s="398"/>
     </row>
@@ -6246,21 +6241,21 @@
       <c r="A55" s="396">
         <v>1021</v>
       </c>
-      <c r="B55" s="418" t="s">
-        <v>76</v>
+      <c r="B55" s="575" t="s">
+        <v>73</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D55" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="396"/>
-      <c r="B56" s="418"/>
+      <c r="B56" s="575"/>
       <c r="C56" s="42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D56" s="398"/>
     </row>
@@ -6268,21 +6263,21 @@
       <c r="A58" s="396">
         <v>1023</v>
       </c>
-      <c r="B58" s="418" t="s">
-        <v>79</v>
+      <c r="B58" s="575" t="s">
+        <v>76</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D58" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="396"/>
-      <c r="B59" s="418"/>
+      <c r="B59" s="575"/>
       <c r="C59" s="42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D59" s="398"/>
     </row>
@@ -6290,21 +6285,21 @@
       <c r="A61" s="396">
         <v>1024</v>
       </c>
-      <c r="B61" s="416" t="s">
-        <v>80</v>
+      <c r="B61" s="573" t="s">
+        <v>77</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D61" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="396"/>
-      <c r="B62" s="416"/>
+      <c r="B62" s="573"/>
       <c r="C62" s="44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D62" s="398"/>
     </row>
@@ -6312,21 +6307,21 @@
       <c r="A64" s="396">
         <v>1026</v>
       </c>
-      <c r="B64" s="417" t="s">
-        <v>83</v>
+      <c r="B64" s="574" t="s">
+        <v>80</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D64" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="396"/>
-      <c r="B65" s="417"/>
+      <c r="B65" s="574"/>
       <c r="C65" s="46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D65" s="398"/>
     </row>
@@ -6334,21 +6329,21 @@
       <c r="A67" s="396">
         <v>1027</v>
       </c>
-      <c r="B67" s="421" t="s">
-        <v>86</v>
+      <c r="B67" s="571" t="s">
+        <v>83</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D67" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="396"/>
-      <c r="B68" s="421"/>
+      <c r="B68" s="571"/>
       <c r="C68" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D68" s="398"/>
     </row>
@@ -6356,21 +6351,21 @@
       <c r="A70" s="396">
         <v>1028</v>
       </c>
-      <c r="B70" s="422" t="s">
-        <v>89</v>
+      <c r="B70" s="572" t="s">
+        <v>86</v>
       </c>
       <c r="C70" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D70" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="396"/>
-      <c r="B71" s="422"/>
+      <c r="B71" s="572"/>
       <c r="C71" s="50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D71" s="398"/>
     </row>
@@ -6378,21 +6373,21 @@
       <c r="A73" s="396">
         <v>1032</v>
       </c>
-      <c r="B73" s="419" t="s">
-        <v>92</v>
+      <c r="B73" s="569" t="s">
+        <v>89</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D73" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="396"/>
-      <c r="B74" s="419"/>
+      <c r="B74" s="569"/>
       <c r="C74" s="52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D74" s="398"/>
     </row>
@@ -6400,21 +6395,21 @@
       <c r="A76" s="396">
         <v>1033</v>
       </c>
-      <c r="B76" s="420" t="s">
-        <v>95</v>
+      <c r="B76" s="570" t="s">
+        <v>92</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D76" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="396"/>
-      <c r="B77" s="420"/>
+      <c r="B77" s="570"/>
       <c r="C77" s="54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D77" s="398"/>
     </row>
@@ -6422,21 +6417,21 @@
       <c r="A79" s="396">
         <v>1034</v>
       </c>
-      <c r="B79" s="425" t="s">
-        <v>98</v>
+      <c r="B79" s="567" t="s">
+        <v>95</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D79" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="396"/>
-      <c r="B80" s="425"/>
+      <c r="B80" s="567"/>
       <c r="C80" s="56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D80" s="398"/>
     </row>
@@ -6444,21 +6439,21 @@
       <c r="A82" s="396">
         <v>2000</v>
       </c>
-      <c r="B82" s="426" t="s">
-        <v>101</v>
+      <c r="B82" s="568" t="s">
+        <v>98</v>
       </c>
       <c r="C82" s="57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D82" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="396"/>
-      <c r="B83" s="426"/>
+      <c r="B83" s="568"/>
       <c r="C83" s="58" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D83" s="398"/>
     </row>
@@ -6466,21 +6461,21 @@
       <c r="A85" s="396">
         <v>2001</v>
       </c>
-      <c r="B85" s="423" t="s">
-        <v>104</v>
+      <c r="B85" s="565" t="s">
+        <v>101</v>
       </c>
       <c r="C85" s="59" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D85" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="396"/>
-      <c r="B86" s="423"/>
+      <c r="B86" s="565"/>
       <c r="C86" s="60" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D86" s="398"/>
     </row>
@@ -6488,21 +6483,21 @@
       <c r="A88" s="396">
         <v>2002</v>
       </c>
-      <c r="B88" s="424" t="s">
-        <v>107</v>
+      <c r="B88" s="566" t="s">
+        <v>104</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D88" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="396"/>
-      <c r="B89" s="424"/>
+      <c r="B89" s="566"/>
       <c r="C89" s="62" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D89" s="398"/>
     </row>
@@ -6510,21 +6505,21 @@
       <c r="A91" s="396">
         <v>2003</v>
       </c>
-      <c r="B91" s="429" t="s">
-        <v>110</v>
+      <c r="B91" s="563" t="s">
+        <v>107</v>
       </c>
       <c r="C91" s="63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D91" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="396"/>
-      <c r="B92" s="429"/>
+      <c r="B92" s="563"/>
       <c r="C92" s="64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D92" s="398"/>
     </row>
@@ -6532,21 +6527,21 @@
       <c r="A94" s="396">
         <v>2004</v>
       </c>
-      <c r="B94" s="430" t="s">
-        <v>113</v>
+      <c r="B94" s="564" t="s">
+        <v>110</v>
       </c>
       <c r="C94" s="65" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D94" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="396"/>
-      <c r="B95" s="430"/>
+      <c r="B95" s="564"/>
       <c r="C95" s="66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D95" s="398"/>
     </row>
@@ -6554,21 +6549,21 @@
       <c r="A97" s="396">
         <v>2005</v>
       </c>
-      <c r="B97" s="427" t="s">
-        <v>116</v>
+      <c r="B97" s="561" t="s">
+        <v>113</v>
       </c>
       <c r="C97" s="67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D97" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="396"/>
-      <c r="B98" s="427"/>
+      <c r="B98" s="561"/>
       <c r="C98" s="68" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D98" s="398"/>
     </row>
@@ -6576,21 +6571,21 @@
       <c r="A100" s="396">
         <v>2007</v>
       </c>
-      <c r="B100" s="428" t="s">
-        <v>119</v>
+      <c r="B100" s="562" t="s">
+        <v>116</v>
       </c>
       <c r="C100" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D100" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="396"/>
-      <c r="B101" s="428"/>
+      <c r="B101" s="562"/>
       <c r="C101" s="70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D101" s="398"/>
     </row>
@@ -6598,21 +6593,21 @@
       <c r="A103" s="396">
         <v>2008</v>
       </c>
-      <c r="B103" s="433" t="s">
-        <v>122</v>
+      <c r="B103" s="559" t="s">
+        <v>119</v>
       </c>
       <c r="C103" s="71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D103" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="396"/>
-      <c r="B104" s="433"/>
+      <c r="B104" s="559"/>
       <c r="C104" s="72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D104" s="398"/>
     </row>
@@ -6620,21 +6615,21 @@
       <c r="A106" s="396">
         <v>2009</v>
       </c>
-      <c r="B106" s="434" t="s">
-        <v>125</v>
+      <c r="B106" s="560" t="s">
+        <v>122</v>
       </c>
       <c r="C106" s="73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D106" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="396"/>
-      <c r="B107" s="434"/>
+      <c r="B107" s="560"/>
       <c r="C107" s="74" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D107" s="398"/>
     </row>
@@ -6642,21 +6637,21 @@
       <c r="A109" s="396">
         <v>2010</v>
       </c>
-      <c r="B109" s="431" t="s">
-        <v>128</v>
+      <c r="B109" s="557" t="s">
+        <v>125</v>
       </c>
       <c r="C109" s="75" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D109" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="396"/>
-      <c r="B110" s="431"/>
+      <c r="B110" s="557"/>
       <c r="C110" s="76" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D110" s="398"/>
     </row>
@@ -6664,21 +6659,21 @@
       <c r="A112" s="396">
         <v>2011</v>
       </c>
-      <c r="B112" s="432" t="s">
-        <v>131</v>
+      <c r="B112" s="558" t="s">
+        <v>128</v>
       </c>
       <c r="C112" s="77" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D112" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="396"/>
-      <c r="B113" s="432"/>
+      <c r="B113" s="558"/>
       <c r="C113" s="78" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D113" s="398"/>
     </row>
@@ -6686,21 +6681,21 @@
       <c r="A115" s="396">
         <v>2012</v>
       </c>
-      <c r="B115" s="437" t="s">
-        <v>134</v>
+      <c r="B115" s="555" t="s">
+        <v>131</v>
       </c>
       <c r="C115" s="79" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D115" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="396"/>
-      <c r="B116" s="437"/>
+      <c r="B116" s="555"/>
       <c r="C116" s="80" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D116" s="398"/>
     </row>
@@ -6708,21 +6703,21 @@
       <c r="A118" s="396">
         <v>3000</v>
       </c>
-      <c r="B118" s="438" t="s">
-        <v>137</v>
+      <c r="B118" s="556" t="s">
+        <v>134</v>
       </c>
       <c r="C118" s="81" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D118" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="396"/>
-      <c r="B119" s="438"/>
+      <c r="B119" s="556"/>
       <c r="C119" s="82" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D119" s="398"/>
     </row>
@@ -6730,21 +6725,21 @@
       <c r="A121" s="396">
         <v>3001</v>
       </c>
-      <c r="B121" s="435" t="s">
-        <v>140</v>
+      <c r="B121" s="553" t="s">
+        <v>137</v>
       </c>
       <c r="C121" s="83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D121" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="396"/>
-      <c r="B122" s="435"/>
+      <c r="B122" s="553"/>
       <c r="C122" s="84" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D122" s="398"/>
     </row>
@@ -6752,21 +6747,21 @@
       <c r="A124" s="396">
         <v>3002</v>
       </c>
-      <c r="B124" s="436" t="s">
-        <v>143</v>
+      <c r="B124" s="554" t="s">
+        <v>140</v>
       </c>
       <c r="C124" s="85" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D124" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="396"/>
-      <c r="B125" s="436"/>
+      <c r="B125" s="554"/>
       <c r="C125" s="86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D125" s="398"/>
     </row>
@@ -6774,21 +6769,21 @@
       <c r="A127" s="396">
         <v>3003</v>
       </c>
-      <c r="B127" s="441" t="s">
-        <v>146</v>
+      <c r="B127" s="551" t="s">
+        <v>143</v>
       </c>
       <c r="C127" s="87" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D127" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="396"/>
-      <c r="B128" s="441"/>
+      <c r="B128" s="551"/>
       <c r="C128" s="88" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D128" s="398"/>
     </row>
@@ -6796,21 +6791,21 @@
       <c r="A130" s="396">
         <v>3004</v>
       </c>
-      <c r="B130" s="442" t="s">
-        <v>149</v>
+      <c r="B130" s="552" t="s">
+        <v>146</v>
       </c>
       <c r="C130" s="89" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D130" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="396"/>
-      <c r="B131" s="442"/>
+      <c r="B131" s="552"/>
       <c r="C131" s="90" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D131" s="398"/>
     </row>
@@ -6818,21 +6813,21 @@
       <c r="A133" s="396">
         <v>3005</v>
       </c>
-      <c r="B133" s="439" t="s">
-        <v>152</v>
+      <c r="B133" s="549" t="s">
+        <v>149</v>
       </c>
       <c r="C133" s="91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D133" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="396"/>
-      <c r="B134" s="439"/>
+      <c r="B134" s="549"/>
       <c r="C134" s="92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D134" s="398"/>
     </row>
@@ -6840,21 +6835,21 @@
       <c r="A136" s="396">
         <v>3007</v>
       </c>
-      <c r="B136" s="440" t="s">
-        <v>155</v>
+      <c r="B136" s="550" t="s">
+        <v>152</v>
       </c>
       <c r="C136" s="93" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D136" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="396"/>
-      <c r="B137" s="440"/>
+      <c r="B137" s="550"/>
       <c r="C137" s="94" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D137" s="398"/>
     </row>
@@ -6862,21 +6857,21 @@
       <c r="A139" s="396">
         <v>3009</v>
       </c>
-      <c r="B139" s="445" t="s">
-        <v>158</v>
+      <c r="B139" s="547" t="s">
+        <v>155</v>
       </c>
       <c r="C139" s="95" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D139" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="396"/>
-      <c r="B140" s="445"/>
+      <c r="B140" s="547"/>
       <c r="C140" s="96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D140" s="398"/>
     </row>
@@ -6884,21 +6879,21 @@
       <c r="A142" s="396">
         <v>3011</v>
       </c>
-      <c r="B142" s="446" t="s">
-        <v>161</v>
+      <c r="B142" s="548" t="s">
+        <v>158</v>
       </c>
       <c r="C142" s="97" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D142" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="396"/>
-      <c r="B143" s="446"/>
+      <c r="B143" s="548"/>
       <c r="C143" s="98" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D143" s="398"/>
     </row>
@@ -6906,21 +6901,21 @@
       <c r="A145" s="396">
         <v>3012</v>
       </c>
-      <c r="B145" s="443" t="s">
-        <v>164</v>
+      <c r="B145" s="545" t="s">
+        <v>161</v>
       </c>
       <c r="C145" s="99" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D145" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="396"/>
-      <c r="B146" s="443"/>
+      <c r="B146" s="545"/>
       <c r="C146" s="100" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D146" s="398"/>
     </row>
@@ -6928,21 +6923,21 @@
       <c r="A148" s="396">
         <v>3013</v>
       </c>
-      <c r="B148" s="444" t="s">
-        <v>167</v>
+      <c r="B148" s="546" t="s">
+        <v>164</v>
       </c>
       <c r="C148" s="101" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D148" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="396"/>
-      <c r="B149" s="444"/>
+      <c r="B149" s="546"/>
       <c r="C149" s="102" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D149" s="398"/>
     </row>
@@ -6950,21 +6945,21 @@
       <c r="A151" s="396">
         <v>3014</v>
       </c>
-      <c r="B151" s="449" t="s">
-        <v>170</v>
+      <c r="B151" s="543" t="s">
+        <v>167</v>
       </c>
       <c r="C151" s="103" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D151" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="396"/>
-      <c r="B152" s="449"/>
+      <c r="B152" s="543"/>
       <c r="C152" s="104" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D152" s="398"/>
     </row>
@@ -6972,21 +6967,21 @@
       <c r="A154" s="396">
         <v>3015</v>
       </c>
-      <c r="B154" s="450" t="s">
-        <v>173</v>
+      <c r="B154" s="544" t="s">
+        <v>170</v>
       </c>
       <c r="C154" s="105" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D154" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="396"/>
-      <c r="B155" s="450"/>
+      <c r="B155" s="544"/>
       <c r="C155" s="106" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D155" s="398"/>
     </row>
@@ -6994,21 +6989,21 @@
       <c r="A157" s="396">
         <v>3016</v>
       </c>
-      <c r="B157" s="447" t="s">
-        <v>176</v>
+      <c r="B157" s="541" t="s">
+        <v>173</v>
       </c>
       <c r="C157" s="107" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D157" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="396"/>
-      <c r="B158" s="447"/>
+      <c r="B158" s="541"/>
       <c r="C158" s="108" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D158" s="398"/>
     </row>
@@ -7016,21 +7011,21 @@
       <c r="A160" s="396">
         <v>3017</v>
       </c>
-      <c r="B160" s="448" t="s">
-        <v>179</v>
+      <c r="B160" s="542" t="s">
+        <v>176</v>
       </c>
       <c r="C160" s="109" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D160" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="396"/>
-      <c r="B161" s="448"/>
+      <c r="B161" s="542"/>
       <c r="C161" s="110" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D161" s="398"/>
     </row>
@@ -7038,21 +7033,21 @@
       <c r="A163" s="396">
         <v>3018</v>
       </c>
-      <c r="B163" s="453" t="s">
-        <v>182</v>
+      <c r="B163" s="539" t="s">
+        <v>179</v>
       </c>
       <c r="C163" s="111" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D163" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="396"/>
-      <c r="B164" s="453"/>
+      <c r="B164" s="539"/>
       <c r="C164" s="112" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D164" s="398"/>
     </row>
@@ -7060,21 +7055,21 @@
       <c r="A166" s="396">
         <v>3020</v>
       </c>
-      <c r="B166" s="454" t="s">
-        <v>185</v>
+      <c r="B166" s="540" t="s">
+        <v>182</v>
       </c>
       <c r="C166" s="113" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D166" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="396"/>
-      <c r="B167" s="454"/>
+      <c r="B167" s="540"/>
       <c r="C167" s="114" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D167" s="398"/>
     </row>
@@ -7082,21 +7077,21 @@
       <c r="A169" s="396">
         <v>3022</v>
       </c>
-      <c r="B169" s="451" t="s">
-        <v>188</v>
+      <c r="B169" s="537" t="s">
+        <v>185</v>
       </c>
       <c r="C169" s="115" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D169" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="396"/>
-      <c r="B170" s="451"/>
+      <c r="B170" s="537"/>
       <c r="C170" s="116" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D170" s="398"/>
     </row>
@@ -7104,21 +7099,21 @@
       <c r="A172" s="396">
         <v>3024</v>
       </c>
-      <c r="B172" s="452" t="s">
-        <v>191</v>
+      <c r="B172" s="538" t="s">
+        <v>188</v>
       </c>
       <c r="C172" s="117" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D172" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="396"/>
-      <c r="B173" s="452"/>
+      <c r="B173" s="538"/>
       <c r="C173" s="118" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D173" s="398"/>
     </row>
@@ -7126,21 +7121,21 @@
       <c r="A175" s="396">
         <v>3026</v>
       </c>
-      <c r="B175" s="457" t="s">
-        <v>194</v>
+      <c r="B175" s="535" t="s">
+        <v>191</v>
       </c>
       <c r="C175" s="119" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D175" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="396"/>
-      <c r="B176" s="457"/>
+      <c r="B176" s="535"/>
       <c r="C176" s="120" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D176" s="398"/>
     </row>
@@ -7148,21 +7143,21 @@
       <c r="A178" s="396">
         <v>3027</v>
       </c>
-      <c r="B178" s="458" t="s">
-        <v>197</v>
+      <c r="B178" s="536" t="s">
+        <v>194</v>
       </c>
       <c r="C178" s="121" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D178" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="396"/>
-      <c r="B179" s="458"/>
+      <c r="B179" s="536"/>
       <c r="C179" s="122" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D179" s="398"/>
     </row>
@@ -7170,21 +7165,21 @@
       <c r="A181" s="396">
         <v>3031</v>
       </c>
-      <c r="B181" s="455" t="s">
-        <v>200</v>
+      <c r="B181" s="533" t="s">
+        <v>197</v>
       </c>
       <c r="C181" s="123" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D181" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="396"/>
-      <c r="B182" s="455"/>
+      <c r="B182" s="533"/>
       <c r="C182" s="124" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D182" s="398"/>
     </row>
@@ -7192,21 +7187,21 @@
       <c r="A184" s="396">
         <v>4001</v>
       </c>
-      <c r="B184" s="456" t="s">
-        <v>203</v>
+      <c r="B184" s="534" t="s">
+        <v>200</v>
       </c>
       <c r="C184" s="125" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D184" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="396"/>
-      <c r="B185" s="456"/>
+      <c r="B185" s="534"/>
       <c r="C185" s="126" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D185" s="398"/>
     </row>
@@ -7214,21 +7209,21 @@
       <c r="A187" s="396">
         <v>4002</v>
       </c>
-      <c r="B187" s="461" t="s">
-        <v>206</v>
+      <c r="B187" s="531" t="s">
+        <v>203</v>
       </c>
       <c r="C187" s="127" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D187" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="396"/>
-      <c r="B188" s="461"/>
+      <c r="B188" s="531"/>
       <c r="C188" s="128" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D188" s="398"/>
     </row>
@@ -7236,21 +7231,21 @@
       <c r="A190" s="396">
         <v>4003</v>
       </c>
-      <c r="B190" s="462" t="s">
-        <v>209</v>
+      <c r="B190" s="532" t="s">
+        <v>206</v>
       </c>
       <c r="C190" s="129" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D190" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="396"/>
-      <c r="B191" s="462"/>
+      <c r="B191" s="532"/>
       <c r="C191" s="130" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D191" s="398"/>
     </row>
@@ -7258,21 +7253,21 @@
       <c r="A193" s="396">
         <v>4004</v>
       </c>
-      <c r="B193" s="459" t="s">
-        <v>212</v>
+      <c r="B193" s="529" t="s">
+        <v>209</v>
       </c>
       <c r="C193" s="131" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D193" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="396"/>
-      <c r="B194" s="459"/>
+      <c r="B194" s="529"/>
       <c r="C194" s="132" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D194" s="398"/>
     </row>
@@ -7280,21 +7275,21 @@
       <c r="A196" s="396">
         <v>4005</v>
       </c>
-      <c r="B196" s="460" t="s">
-        <v>215</v>
+      <c r="B196" s="530" t="s">
+        <v>212</v>
       </c>
       <c r="C196" s="133" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D196" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="396"/>
-      <c r="B197" s="460"/>
+      <c r="B197" s="530"/>
       <c r="C197" s="134" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D197" s="398"/>
     </row>
@@ -7302,21 +7297,21 @@
       <c r="A199" s="396">
         <v>4006</v>
       </c>
-      <c r="B199" s="465" t="s">
-        <v>218</v>
+      <c r="B199" s="527" t="s">
+        <v>215</v>
       </c>
       <c r="C199" s="135" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D199" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="396"/>
-      <c r="B200" s="465"/>
+      <c r="B200" s="527"/>
       <c r="C200" s="136" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D200" s="398"/>
     </row>
@@ -7324,21 +7319,21 @@
       <c r="A202" s="396">
         <v>4007</v>
       </c>
-      <c r="B202" s="466" t="s">
-        <v>221</v>
+      <c r="B202" s="528" t="s">
+        <v>218</v>
       </c>
       <c r="C202" s="137" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D202" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="396"/>
-      <c r="B203" s="466"/>
+      <c r="B203" s="528"/>
       <c r="C203" s="138" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D203" s="398"/>
     </row>
@@ -7346,21 +7341,21 @@
       <c r="A205" s="396">
         <v>4008</v>
       </c>
-      <c r="B205" s="463" t="s">
-        <v>224</v>
+      <c r="B205" s="525" t="s">
+        <v>221</v>
       </c>
       <c r="C205" s="139" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D205" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="396"/>
-      <c r="B206" s="463"/>
+      <c r="B206" s="525"/>
       <c r="C206" s="140" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D206" s="398"/>
     </row>
@@ -7368,21 +7363,21 @@
       <c r="A208" s="396">
         <v>4009</v>
       </c>
-      <c r="B208" s="464" t="s">
-        <v>227</v>
+      <c r="B208" s="526" t="s">
+        <v>224</v>
       </c>
       <c r="C208" s="141" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D208" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="396"/>
-      <c r="B209" s="464"/>
+      <c r="B209" s="526"/>
       <c r="C209" s="142" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D209" s="398"/>
     </row>
@@ -7390,21 +7385,21 @@
       <c r="A211" s="396">
         <v>4010</v>
       </c>
-      <c r="B211" s="469" t="s">
-        <v>230</v>
+      <c r="B211" s="523" t="s">
+        <v>227</v>
       </c>
       <c r="C211" s="143" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D211" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="396"/>
-      <c r="B212" s="469"/>
+      <c r="B212" s="523"/>
       <c r="C212" s="144" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D212" s="398"/>
     </row>
@@ -7412,21 +7407,21 @@
       <c r="A214" s="396">
         <v>5000</v>
       </c>
-      <c r="B214" s="470" t="s">
-        <v>233</v>
+      <c r="B214" s="524" t="s">
+        <v>230</v>
       </c>
       <c r="C214" s="145" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D214" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="396"/>
-      <c r="B215" s="470"/>
+      <c r="B215" s="524"/>
       <c r="C215" s="146" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D215" s="398"/>
     </row>
@@ -7434,21 +7429,21 @@
       <c r="A217" s="396">
         <v>5001</v>
       </c>
-      <c r="B217" s="467" t="s">
-        <v>236</v>
+      <c r="B217" s="521" t="s">
+        <v>233</v>
       </c>
       <c r="C217" s="147" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D217" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="396"/>
-      <c r="B218" s="467"/>
+      <c r="B218" s="521"/>
       <c r="C218" s="148" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D218" s="398"/>
     </row>
@@ -7456,21 +7451,21 @@
       <c r="A220" s="396">
         <v>5002</v>
       </c>
-      <c r="B220" s="468" t="s">
-        <v>239</v>
+      <c r="B220" s="522" t="s">
+        <v>236</v>
       </c>
       <c r="C220" s="149" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D220" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="396"/>
-      <c r="B221" s="468"/>
+      <c r="B221" s="522"/>
       <c r="C221" s="150" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D221" s="398"/>
     </row>
@@ -7478,21 +7473,21 @@
       <c r="A223" s="396">
         <v>5003</v>
       </c>
-      <c r="B223" s="473" t="s">
-        <v>242</v>
+      <c r="B223" s="519" t="s">
+        <v>239</v>
       </c>
       <c r="C223" s="151" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D223" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="396"/>
-      <c r="B224" s="473"/>
+      <c r="B224" s="519"/>
       <c r="C224" s="152" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D224" s="398"/>
     </row>
@@ -7500,21 +7495,21 @@
       <c r="A226" s="396">
         <v>5004</v>
       </c>
-      <c r="B226" s="474" t="s">
-        <v>245</v>
+      <c r="B226" s="520" t="s">
+        <v>242</v>
       </c>
       <c r="C226" s="153" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D226" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="396"/>
-      <c r="B227" s="474"/>
+      <c r="B227" s="520"/>
       <c r="C227" s="154" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D227" s="398"/>
     </row>
@@ -7522,21 +7517,21 @@
       <c r="A229" s="396">
         <v>5005</v>
       </c>
-      <c r="B229" s="471" t="s">
-        <v>248</v>
+      <c r="B229" s="517" t="s">
+        <v>245</v>
       </c>
       <c r="C229" s="155" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D229" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="396"/>
-      <c r="B230" s="471"/>
+      <c r="B230" s="517"/>
       <c r="C230" s="156" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D230" s="398"/>
     </row>
@@ -7544,21 +7539,21 @@
       <c r="A232" s="396">
         <v>5007</v>
       </c>
-      <c r="B232" s="472" t="s">
-        <v>251</v>
+      <c r="B232" s="518" t="s">
+        <v>248</v>
       </c>
       <c r="C232" s="157" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D232" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="396"/>
-      <c r="B233" s="472"/>
+      <c r="B233" s="518"/>
       <c r="C233" s="158" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D233" s="398"/>
     </row>
@@ -7566,21 +7561,21 @@
       <c r="A235" s="396">
         <v>5008</v>
       </c>
-      <c r="B235" s="477" t="s">
-        <v>254</v>
+      <c r="B235" s="515" t="s">
+        <v>251</v>
       </c>
       <c r="C235" s="159" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D235" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="396"/>
-      <c r="B236" s="477"/>
+      <c r="B236" s="515"/>
       <c r="C236" s="160" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D236" s="398"/>
     </row>
@@ -7588,21 +7583,21 @@
       <c r="A238" s="396">
         <v>5009</v>
       </c>
-      <c r="B238" s="478" t="s">
-        <v>257</v>
+      <c r="B238" s="516" t="s">
+        <v>254</v>
       </c>
       <c r="C238" s="161" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D238" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="396"/>
-      <c r="B239" s="478"/>
+      <c r="B239" s="516"/>
       <c r="C239" s="162" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D239" s="398"/>
     </row>
@@ -7610,21 +7605,21 @@
       <c r="A241" s="396">
         <v>5011</v>
       </c>
-      <c r="B241" s="475" t="s">
-        <v>260</v>
+      <c r="B241" s="513" t="s">
+        <v>257</v>
       </c>
       <c r="C241" s="163" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D241" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="396"/>
-      <c r="B242" s="475"/>
+      <c r="B242" s="513"/>
       <c r="C242" s="164" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D242" s="398"/>
     </row>
@@ -7632,21 +7627,21 @@
       <c r="A244" s="396">
         <v>5012</v>
       </c>
-      <c r="B244" s="476" t="s">
-        <v>263</v>
+      <c r="B244" s="514" t="s">
+        <v>260</v>
       </c>
       <c r="C244" s="165" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D244" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="396"/>
-      <c r="B245" s="476"/>
+      <c r="B245" s="514"/>
       <c r="C245" s="166" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D245" s="398"/>
     </row>
@@ -7654,21 +7649,21 @@
       <c r="A247" s="396">
         <v>5013</v>
       </c>
-      <c r="B247" s="481" t="s">
-        <v>266</v>
+      <c r="B247" s="511" t="s">
+        <v>263</v>
       </c>
       <c r="C247" s="167" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D247" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="396"/>
-      <c r="B248" s="481"/>
+      <c r="B248" s="511"/>
       <c r="C248" s="168" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D248" s="398"/>
     </row>
@@ -7676,21 +7671,21 @@
       <c r="A250" s="396">
         <v>5014</v>
       </c>
-      <c r="B250" s="482" t="s">
-        <v>269</v>
+      <c r="B250" s="512" t="s">
+        <v>266</v>
       </c>
       <c r="C250" s="169" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D250" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="396"/>
-      <c r="B251" s="482"/>
+      <c r="B251" s="512"/>
       <c r="C251" s="170" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D251" s="398"/>
     </row>
@@ -7698,21 +7693,21 @@
       <c r="A253" s="396">
         <v>5015</v>
       </c>
-      <c r="B253" s="479" t="s">
-        <v>272</v>
+      <c r="B253" s="509" t="s">
+        <v>269</v>
       </c>
       <c r="C253" s="171" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D253" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="396"/>
-      <c r="B254" s="479"/>
+      <c r="B254" s="509"/>
       <c r="C254" s="172" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D254" s="398"/>
     </row>
@@ -7720,21 +7715,21 @@
       <c r="A256" s="396">
         <v>5017</v>
       </c>
-      <c r="B256" s="480" t="s">
-        <v>275</v>
+      <c r="B256" s="510" t="s">
+        <v>272</v>
       </c>
       <c r="C256" s="173" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D256" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="396"/>
-      <c r="B257" s="480"/>
+      <c r="B257" s="510"/>
       <c r="C257" s="174" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D257" s="398"/>
     </row>
@@ -7742,21 +7737,21 @@
       <c r="A259" s="396">
         <v>5018</v>
       </c>
-      <c r="B259" s="485" t="s">
-        <v>278</v>
+      <c r="B259" s="507" t="s">
+        <v>275</v>
       </c>
       <c r="C259" s="175" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D259" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="396"/>
-      <c r="B260" s="485"/>
+      <c r="B260" s="507"/>
       <c r="C260" s="176" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D260" s="398"/>
     </row>
@@ -7764,21 +7759,21 @@
       <c r="A262" s="396">
         <v>5019</v>
       </c>
-      <c r="B262" s="486" t="s">
-        <v>281</v>
+      <c r="B262" s="508" t="s">
+        <v>278</v>
       </c>
       <c r="C262" s="177" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D262" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="396"/>
-      <c r="B263" s="486"/>
+      <c r="B263" s="508"/>
       <c r="C263" s="178" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D263" s="398"/>
     </row>
@@ -7786,21 +7781,21 @@
       <c r="A265" s="396">
         <v>5020</v>
       </c>
-      <c r="B265" s="483" t="s">
-        <v>260</v>
+      <c r="B265" s="505" t="s">
+        <v>257</v>
       </c>
       <c r="C265" s="179" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D265" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="396"/>
-      <c r="B266" s="483"/>
+      <c r="B266" s="505"/>
       <c r="C266" s="180" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D266" s="398"/>
     </row>
@@ -7808,21 +7803,21 @@
       <c r="A268" s="396">
         <v>5021</v>
       </c>
-      <c r="B268" s="484" t="s">
-        <v>286</v>
+      <c r="B268" s="506" t="s">
+        <v>283</v>
       </c>
       <c r="C268" s="181" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D268" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="396"/>
-      <c r="B269" s="484"/>
+      <c r="B269" s="506"/>
       <c r="C269" s="182" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D269" s="398"/>
     </row>
@@ -7830,21 +7825,21 @@
       <c r="A271" s="396">
         <v>5022</v>
       </c>
-      <c r="B271" s="489" t="s">
-        <v>289</v>
+      <c r="B271" s="503" t="s">
+        <v>286</v>
       </c>
       <c r="C271" s="183" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D271" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="396"/>
-      <c r="B272" s="489"/>
+      <c r="B272" s="503"/>
       <c r="C272" s="184" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D272" s="398"/>
     </row>
@@ -7852,21 +7847,21 @@
       <c r="A274" s="396">
         <v>5023</v>
       </c>
-      <c r="B274" s="490" t="s">
-        <v>292</v>
+      <c r="B274" s="504" t="s">
+        <v>289</v>
       </c>
       <c r="C274" s="185" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D274" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="396"/>
-      <c r="B275" s="490"/>
+      <c r="B275" s="504"/>
       <c r="C275" s="186" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D275" s="398"/>
     </row>
@@ -7874,21 +7869,21 @@
       <c r="A277" s="396">
         <v>5024</v>
       </c>
-      <c r="B277" s="487" t="s">
-        <v>295</v>
+      <c r="B277" s="501" t="s">
+        <v>292</v>
       </c>
       <c r="C277" s="187" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D277" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="396"/>
-      <c r="B278" s="487"/>
+      <c r="B278" s="501"/>
       <c r="C278" s="188" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D278" s="398"/>
     </row>
@@ -7896,21 +7891,21 @@
       <c r="A280" s="396">
         <v>6000</v>
       </c>
-      <c r="B280" s="488" t="s">
-        <v>298</v>
+      <c r="B280" s="502" t="s">
+        <v>295</v>
       </c>
       <c r="C280" s="189" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D280" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="396"/>
-      <c r="B281" s="488"/>
+      <c r="B281" s="502"/>
       <c r="C281" s="190" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D281" s="398"/>
     </row>
@@ -7918,21 +7913,21 @@
       <c r="A283" s="396">
         <v>6001</v>
       </c>
-      <c r="B283" s="493" t="s">
-        <v>301</v>
+      <c r="B283" s="499" t="s">
+        <v>298</v>
       </c>
       <c r="C283" s="191" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D283" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="396"/>
-      <c r="B284" s="493"/>
+      <c r="B284" s="499"/>
       <c r="C284" s="192" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D284" s="398"/>
     </row>
@@ -7940,21 +7935,21 @@
       <c r="A286" s="396">
         <v>6002</v>
       </c>
-      <c r="B286" s="494" t="s">
-        <v>304</v>
+      <c r="B286" s="500" t="s">
+        <v>301</v>
       </c>
       <c r="C286" s="193" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D286" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="396"/>
-      <c r="B287" s="494"/>
+      <c r="B287" s="500"/>
       <c r="C287" s="194" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D287" s="398"/>
     </row>
@@ -7962,21 +7957,21 @@
       <c r="A289" s="396">
         <v>6003</v>
       </c>
-      <c r="B289" s="491" t="s">
-        <v>307</v>
+      <c r="B289" s="497" t="s">
+        <v>304</v>
       </c>
       <c r="C289" s="195" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D289" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="396"/>
-      <c r="B290" s="491"/>
+      <c r="B290" s="497"/>
       <c r="C290" s="196" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D290" s="398"/>
     </row>
@@ -7984,21 +7979,21 @@
       <c r="A292" s="396">
         <v>6004</v>
       </c>
-      <c r="B292" s="492" t="s">
-        <v>310</v>
+      <c r="B292" s="498" t="s">
+        <v>307</v>
       </c>
       <c r="C292" s="197" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D292" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="396"/>
-      <c r="B293" s="492"/>
+      <c r="B293" s="498"/>
       <c r="C293" s="198" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D293" s="398"/>
     </row>
@@ -8006,21 +8001,21 @@
       <c r="A295" s="396">
         <v>6005</v>
       </c>
-      <c r="B295" s="497" t="s">
-        <v>313</v>
+      <c r="B295" s="495" t="s">
+        <v>310</v>
       </c>
       <c r="C295" s="199" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D295" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="396"/>
-      <c r="B296" s="497"/>
+      <c r="B296" s="495"/>
       <c r="C296" s="200" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D296" s="398"/>
     </row>
@@ -8028,21 +8023,21 @@
       <c r="A298" s="396">
         <v>6006</v>
       </c>
-      <c r="B298" s="498" t="s">
-        <v>316</v>
+      <c r="B298" s="496" t="s">
+        <v>313</v>
       </c>
       <c r="C298" s="201" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D298" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="396"/>
-      <c r="B299" s="498"/>
+      <c r="B299" s="496"/>
       <c r="C299" s="202" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D299" s="398"/>
     </row>
@@ -8050,21 +8045,21 @@
       <c r="A301" s="396">
         <v>6007</v>
       </c>
-      <c r="B301" s="495" t="s">
-        <v>319</v>
+      <c r="B301" s="493" t="s">
+        <v>316</v>
       </c>
       <c r="C301" s="203" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D301" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="396"/>
-      <c r="B302" s="495"/>
+      <c r="B302" s="493"/>
       <c r="C302" s="204" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D302" s="398"/>
     </row>
@@ -8072,21 +8067,21 @@
       <c r="A304" s="396">
         <v>6008</v>
       </c>
-      <c r="B304" s="496" t="s">
-        <v>322</v>
+      <c r="B304" s="494" t="s">
+        <v>319</v>
       </c>
       <c r="C304" s="205" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D304" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="396"/>
-      <c r="B305" s="496"/>
+      <c r="B305" s="494"/>
       <c r="C305" s="206" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D305" s="398"/>
     </row>
@@ -8094,21 +8089,21 @@
       <c r="A307" s="396">
         <v>6009</v>
       </c>
-      <c r="B307" s="501" t="s">
-        <v>325</v>
+      <c r="B307" s="491" t="s">
+        <v>322</v>
       </c>
       <c r="C307" s="207" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D307" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="396"/>
-      <c r="B308" s="501"/>
+      <c r="B308" s="491"/>
       <c r="C308" s="208" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D308" s="398"/>
     </row>
@@ -8116,21 +8111,21 @@
       <c r="A310" s="396">
         <v>6010</v>
       </c>
-      <c r="B310" s="502" t="s">
-        <v>328</v>
+      <c r="B310" s="492" t="s">
+        <v>325</v>
       </c>
       <c r="C310" s="209" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D310" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="396"/>
-      <c r="B311" s="502"/>
+      <c r="B311" s="492"/>
       <c r="C311" s="210" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D311" s="398"/>
     </row>
@@ -8138,21 +8133,21 @@
       <c r="A313" s="396">
         <v>6011</v>
       </c>
-      <c r="B313" s="499" t="s">
-        <v>331</v>
+      <c r="B313" s="489" t="s">
+        <v>328</v>
       </c>
       <c r="C313" s="211" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D313" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="396"/>
-      <c r="B314" s="499"/>
+      <c r="B314" s="489"/>
       <c r="C314" s="212" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D314" s="398"/>
     </row>
@@ -8160,21 +8155,21 @@
       <c r="A316" s="396">
         <v>6012</v>
       </c>
-      <c r="B316" s="500" t="s">
-        <v>334</v>
+      <c r="B316" s="490" t="s">
+        <v>331</v>
       </c>
       <c r="C316" s="213" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D316" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="396"/>
-      <c r="B317" s="500"/>
+      <c r="B317" s="490"/>
       <c r="C317" s="214" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D317" s="398"/>
     </row>
@@ -8182,21 +8177,21 @@
       <c r="A319" s="396">
         <v>6013</v>
       </c>
-      <c r="B319" s="505" t="s">
-        <v>337</v>
+      <c r="B319" s="487" t="s">
+        <v>334</v>
       </c>
       <c r="C319" s="215" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D319" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="396"/>
-      <c r="B320" s="505"/>
+      <c r="B320" s="487"/>
       <c r="C320" s="216" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D320" s="398"/>
     </row>
@@ -8204,21 +8199,21 @@
       <c r="A322" s="396">
         <v>6014</v>
       </c>
-      <c r="B322" s="506" t="s">
-        <v>340</v>
+      <c r="B322" s="488" t="s">
+        <v>337</v>
       </c>
       <c r="C322" s="217" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D322" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="396"/>
-      <c r="B323" s="506"/>
+      <c r="B323" s="488"/>
       <c r="C323" s="218" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D323" s="398"/>
     </row>
@@ -8226,21 +8221,21 @@
       <c r="A325" s="396">
         <v>6015</v>
       </c>
-      <c r="B325" s="503" t="s">
-        <v>343</v>
+      <c r="B325" s="485" t="s">
+        <v>340</v>
       </c>
       <c r="C325" s="219" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D325" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="396"/>
-      <c r="B326" s="503"/>
+      <c r="B326" s="485"/>
       <c r="C326" s="220" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D326" s="398"/>
     </row>
@@ -8248,21 +8243,21 @@
       <c r="A328" s="396">
         <v>6016</v>
       </c>
-      <c r="B328" s="504" t="s">
-        <v>346</v>
+      <c r="B328" s="486" t="s">
+        <v>343</v>
       </c>
       <c r="C328" s="221" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D328" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="396"/>
-      <c r="B329" s="504"/>
+      <c r="B329" s="486"/>
       <c r="C329" s="222" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D329" s="398"/>
     </row>
@@ -8270,21 +8265,21 @@
       <c r="A331" s="396">
         <v>6017</v>
       </c>
-      <c r="B331" s="509" t="s">
-        <v>349</v>
+      <c r="B331" s="483" t="s">
+        <v>346</v>
       </c>
       <c r="C331" s="223" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D331" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="396"/>
-      <c r="B332" s="509"/>
+      <c r="B332" s="483"/>
       <c r="C332" s="224" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D332" s="398"/>
     </row>
@@ -8292,21 +8287,21 @@
       <c r="A334" s="396">
         <v>6018</v>
       </c>
-      <c r="B334" s="510" t="s">
-        <v>352</v>
+      <c r="B334" s="484" t="s">
+        <v>349</v>
       </c>
       <c r="C334" s="225" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D334" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="396"/>
-      <c r="B335" s="510"/>
+      <c r="B335" s="484"/>
       <c r="C335" s="226" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D335" s="398"/>
     </row>
@@ -8314,21 +8309,21 @@
       <c r="A337" s="396">
         <v>6019</v>
       </c>
-      <c r="B337" s="507" t="s">
-        <v>355</v>
+      <c r="B337" s="481" t="s">
+        <v>352</v>
       </c>
       <c r="C337" s="227" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D337" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="396"/>
-      <c r="B338" s="507"/>
+      <c r="B338" s="481"/>
       <c r="C338" s="228" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D338" s="398"/>
     </row>
@@ -8336,21 +8331,21 @@
       <c r="A340" s="396">
         <v>6020</v>
       </c>
-      <c r="B340" s="508" t="s">
-        <v>358</v>
+      <c r="B340" s="482" t="s">
+        <v>355</v>
       </c>
       <c r="C340" s="229" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D340" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="396"/>
-      <c r="B341" s="508"/>
+      <c r="B341" s="482"/>
       <c r="C341" s="230" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D341" s="398"/>
     </row>
@@ -8358,21 +8353,21 @@
       <c r="A343" s="396">
         <v>6021</v>
       </c>
-      <c r="B343" s="513" t="s">
-        <v>361</v>
+      <c r="B343" s="479" t="s">
+        <v>358</v>
       </c>
       <c r="C343" s="231" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D343" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="396"/>
-      <c r="B344" s="513"/>
+      <c r="B344" s="479"/>
       <c r="C344" s="232" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D344" s="398"/>
     </row>
@@ -8380,21 +8375,21 @@
       <c r="A346" s="396">
         <v>6022</v>
       </c>
-      <c r="B346" s="514" t="s">
-        <v>364</v>
+      <c r="B346" s="480" t="s">
+        <v>361</v>
       </c>
       <c r="C346" s="233" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D346" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="396"/>
-      <c r="B347" s="514"/>
+      <c r="B347" s="480"/>
       <c r="C347" s="234" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D347" s="398"/>
     </row>
@@ -8402,21 +8397,21 @@
       <c r="A349" s="396">
         <v>6024</v>
       </c>
-      <c r="B349" s="511" t="s">
-        <v>367</v>
+      <c r="B349" s="477" t="s">
+        <v>364</v>
       </c>
       <c r="C349" s="235" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D349" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="396"/>
-      <c r="B350" s="511"/>
+      <c r="B350" s="477"/>
       <c r="C350" s="236" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D350" s="398"/>
     </row>
@@ -8424,21 +8419,21 @@
       <c r="A352" s="396">
         <v>6025</v>
       </c>
-      <c r="B352" s="512" t="s">
-        <v>370</v>
+      <c r="B352" s="478" t="s">
+        <v>367</v>
       </c>
       <c r="C352" s="237" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D352" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="396"/>
-      <c r="B353" s="512"/>
+      <c r="B353" s="478"/>
       <c r="C353" s="238" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D353" s="398"/>
     </row>
@@ -8446,21 +8441,21 @@
       <c r="A355" s="396">
         <v>6026</v>
       </c>
-      <c r="B355" s="517" t="s">
-        <v>373</v>
+      <c r="B355" s="475" t="s">
+        <v>370</v>
       </c>
       <c r="C355" s="239" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D355" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="396"/>
-      <c r="B356" s="517"/>
+      <c r="B356" s="475"/>
       <c r="C356" s="240" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D356" s="398"/>
     </row>
@@ -8468,21 +8463,21 @@
       <c r="A358" s="396">
         <v>6027</v>
       </c>
-      <c r="B358" s="518" t="s">
-        <v>376</v>
+      <c r="B358" s="476" t="s">
+        <v>373</v>
       </c>
       <c r="C358" s="241" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D358" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="396"/>
-      <c r="B359" s="518"/>
+      <c r="B359" s="476"/>
       <c r="C359" s="242" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D359" s="398"/>
     </row>
@@ -8490,21 +8485,21 @@
       <c r="A361" s="396">
         <v>6028</v>
       </c>
-      <c r="B361" s="515" t="s">
-        <v>379</v>
+      <c r="B361" s="473" t="s">
+        <v>376</v>
       </c>
       <c r="C361" s="243" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D361" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="396"/>
-      <c r="B362" s="515"/>
+      <c r="B362" s="473"/>
       <c r="C362" s="244" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D362" s="398"/>
     </row>
@@ -8512,21 +8507,21 @@
       <c r="A364" s="396">
         <v>6029</v>
       </c>
-      <c r="B364" s="516" t="s">
-        <v>382</v>
+      <c r="B364" s="474" t="s">
+        <v>379</v>
       </c>
       <c r="C364" s="245" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D364" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="396"/>
-      <c r="B365" s="516"/>
+      <c r="B365" s="474"/>
       <c r="C365" s="246" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D365" s="398"/>
     </row>
@@ -8534,21 +8529,21 @@
       <c r="A367" s="396">
         <v>6032</v>
       </c>
-      <c r="B367" s="521" t="s">
-        <v>385</v>
+      <c r="B367" s="471" t="s">
+        <v>382</v>
       </c>
       <c r="C367" s="247" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D367" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="396"/>
-      <c r="B368" s="521"/>
+      <c r="B368" s="471"/>
       <c r="C368" s="248" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D368" s="398"/>
     </row>
@@ -8556,21 +8551,21 @@
       <c r="A370" s="396">
         <v>6033</v>
       </c>
-      <c r="B370" s="522" t="s">
-        <v>388</v>
+      <c r="B370" s="472" t="s">
+        <v>385</v>
       </c>
       <c r="C370" s="249" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D370" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="396"/>
-      <c r="B371" s="522"/>
+      <c r="B371" s="472"/>
       <c r="C371" s="250" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D371" s="398"/>
     </row>
@@ -8578,21 +8573,21 @@
       <c r="A373" s="396">
         <v>6034</v>
       </c>
-      <c r="B373" s="519" t="s">
-        <v>391</v>
+      <c r="B373" s="469" t="s">
+        <v>388</v>
       </c>
       <c r="C373" s="251" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D373" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="396"/>
-      <c r="B374" s="519"/>
+      <c r="B374" s="469"/>
       <c r="C374" s="252" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D374" s="398"/>
     </row>
@@ -8600,21 +8595,21 @@
       <c r="A376" s="396">
         <v>7000</v>
       </c>
-      <c r="B376" s="520" t="s">
-        <v>394</v>
+      <c r="B376" s="470" t="s">
+        <v>391</v>
       </c>
       <c r="C376" s="253" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D376" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="396"/>
-      <c r="B377" s="520"/>
+      <c r="B377" s="470"/>
       <c r="C377" s="254" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D377" s="398"/>
     </row>
@@ -8622,21 +8617,21 @@
       <c r="A379" s="396">
         <v>7001</v>
       </c>
-      <c r="B379" s="525" t="s">
-        <v>397</v>
+      <c r="B379" s="467" t="s">
+        <v>394</v>
       </c>
       <c r="C379" s="255" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D379" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="396"/>
-      <c r="B380" s="525"/>
+      <c r="B380" s="467"/>
       <c r="C380" s="256" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D380" s="398"/>
     </row>
@@ -8644,21 +8639,21 @@
       <c r="A382" s="396">
         <v>7002</v>
       </c>
-      <c r="B382" s="526" t="s">
-        <v>400</v>
+      <c r="B382" s="468" t="s">
+        <v>397</v>
       </c>
       <c r="C382" s="257" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D382" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="396"/>
-      <c r="B383" s="526"/>
+      <c r="B383" s="468"/>
       <c r="C383" s="258" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D383" s="398"/>
     </row>
@@ -8666,21 +8661,21 @@
       <c r="A385" s="396">
         <v>7003</v>
       </c>
-      <c r="B385" s="523" t="s">
-        <v>403</v>
+      <c r="B385" s="465" t="s">
+        <v>400</v>
       </c>
       <c r="C385" s="259" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D385" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="396"/>
-      <c r="B386" s="523"/>
+      <c r="B386" s="465"/>
       <c r="C386" s="260" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D386" s="398"/>
     </row>
@@ -8688,21 +8683,21 @@
       <c r="A388" s="396">
         <v>7004</v>
       </c>
-      <c r="B388" s="524" t="s">
-        <v>406</v>
+      <c r="B388" s="466" t="s">
+        <v>403</v>
       </c>
       <c r="C388" s="261" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D388" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="396"/>
-      <c r="B389" s="524"/>
+      <c r="B389" s="466"/>
       <c r="C389" s="262" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D389" s="398"/>
     </row>
@@ -8710,21 +8705,21 @@
       <c r="A391" s="396">
         <v>7005</v>
       </c>
-      <c r="B391" s="529" t="s">
-        <v>409</v>
+      <c r="B391" s="463" t="s">
+        <v>406</v>
       </c>
       <c r="C391" s="263" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D391" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="396"/>
-      <c r="B392" s="529"/>
+      <c r="B392" s="463"/>
       <c r="C392" s="264" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D392" s="398"/>
     </row>
@@ -8732,21 +8727,21 @@
       <c r="A394" s="396">
         <v>7006</v>
       </c>
-      <c r="B394" s="530" t="s">
-        <v>412</v>
+      <c r="B394" s="464" t="s">
+        <v>409</v>
       </c>
       <c r="C394" s="265" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D394" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="396"/>
-      <c r="B395" s="530"/>
+      <c r="B395" s="464"/>
       <c r="C395" s="266" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D395" s="398"/>
     </row>
@@ -8754,21 +8749,21 @@
       <c r="A397" s="396">
         <v>7008</v>
       </c>
-      <c r="B397" s="527" t="s">
-        <v>415</v>
+      <c r="B397" s="461" t="s">
+        <v>412</v>
       </c>
       <c r="C397" s="267" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D397" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="396"/>
-      <c r="B398" s="527"/>
+      <c r="B398" s="461"/>
       <c r="C398" s="268" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D398" s="398"/>
     </row>
@@ -8776,21 +8771,21 @@
       <c r="A400" s="396">
         <v>7009</v>
       </c>
-      <c r="B400" s="528" t="s">
-        <v>418</v>
+      <c r="B400" s="462" t="s">
+        <v>415</v>
       </c>
       <c r="C400" s="269" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D400" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="396"/>
-      <c r="B401" s="528"/>
+      <c r="B401" s="462"/>
       <c r="C401" s="270" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D401" s="398"/>
     </row>
@@ -8798,21 +8793,21 @@
       <c r="A403" s="396">
         <v>7010</v>
       </c>
-      <c r="B403" s="533" t="s">
-        <v>421</v>
+      <c r="B403" s="459" t="s">
+        <v>418</v>
       </c>
       <c r="C403" s="271" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D403" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="396"/>
-      <c r="B404" s="533"/>
+      <c r="B404" s="459"/>
       <c r="C404" s="272" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D404" s="398"/>
     </row>
@@ -8820,21 +8815,21 @@
       <c r="A406" s="396">
         <v>7011</v>
       </c>
-      <c r="B406" s="534" t="s">
-        <v>424</v>
+      <c r="B406" s="460" t="s">
+        <v>421</v>
       </c>
       <c r="C406" s="273" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D406" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="396"/>
-      <c r="B407" s="534"/>
+      <c r="B407" s="460"/>
       <c r="C407" s="274" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D407" s="398"/>
     </row>
@@ -8842,21 +8837,21 @@
       <c r="A409" s="396">
         <v>7012</v>
       </c>
-      <c r="B409" s="531" t="s">
-        <v>427</v>
+      <c r="B409" s="457" t="s">
+        <v>424</v>
       </c>
       <c r="C409" s="275" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D409" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="396"/>
-      <c r="B410" s="531"/>
+      <c r="B410" s="457"/>
       <c r="C410" s="276" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D410" s="398"/>
     </row>
@@ -8864,21 +8859,21 @@
       <c r="A412" s="396">
         <v>7013</v>
       </c>
-      <c r="B412" s="532" t="s">
-        <v>430</v>
+      <c r="B412" s="458" t="s">
+        <v>427</v>
       </c>
       <c r="C412" s="277" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D412" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="396"/>
-      <c r="B413" s="532"/>
+      <c r="B413" s="458"/>
       <c r="C413" s="278" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D413" s="398"/>
     </row>
@@ -8886,21 +8881,21 @@
       <c r="A415" s="396">
         <v>7015</v>
       </c>
-      <c r="B415" s="537" t="s">
-        <v>433</v>
+      <c r="B415" s="455" t="s">
+        <v>430</v>
       </c>
       <c r="C415" s="279" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D415" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="396"/>
-      <c r="B416" s="537"/>
+      <c r="B416" s="455"/>
       <c r="C416" s="280" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D416" s="398"/>
     </row>
@@ -8908,21 +8903,21 @@
       <c r="A418" s="396">
         <v>7016</v>
       </c>
-      <c r="B418" s="538" t="s">
-        <v>436</v>
+      <c r="B418" s="456" t="s">
+        <v>433</v>
       </c>
       <c r="C418" s="281" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D418" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="396"/>
-      <c r="B419" s="538"/>
+      <c r="B419" s="456"/>
       <c r="C419" s="282" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D419" s="398"/>
     </row>
@@ -8930,21 +8925,21 @@
       <c r="A421" s="396">
         <v>7021</v>
       </c>
-      <c r="B421" s="535" t="s">
-        <v>439</v>
+      <c r="B421" s="453" t="s">
+        <v>436</v>
       </c>
       <c r="C421" s="283" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D421" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="396"/>
-      <c r="B422" s="535"/>
+      <c r="B422" s="453"/>
       <c r="C422" s="284" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D422" s="398"/>
     </row>
@@ -8952,21 +8947,21 @@
       <c r="A424" s="396">
         <v>7022</v>
       </c>
-      <c r="B424" s="536" t="s">
-        <v>442</v>
+      <c r="B424" s="454" t="s">
+        <v>439</v>
       </c>
       <c r="C424" s="285" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D424" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="396"/>
-      <c r="B425" s="536"/>
+      <c r="B425" s="454"/>
       <c r="C425" s="286" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D425" s="398"/>
     </row>
@@ -8974,21 +8969,21 @@
       <c r="A427" s="396">
         <v>7023</v>
       </c>
-      <c r="B427" s="541" t="s">
-        <v>445</v>
+      <c r="B427" s="451" t="s">
+        <v>442</v>
       </c>
       <c r="C427" s="287" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D427" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="396"/>
-      <c r="B428" s="541"/>
+      <c r="B428" s="451"/>
       <c r="C428" s="288" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D428" s="398"/>
     </row>
@@ -8996,21 +8991,21 @@
       <c r="A430" s="396">
         <v>7024</v>
       </c>
-      <c r="B430" s="542" t="s">
-        <v>448</v>
+      <c r="B430" s="452" t="s">
+        <v>445</v>
       </c>
       <c r="C430" s="289" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D430" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="396"/>
-      <c r="B431" s="542"/>
+      <c r="B431" s="452"/>
       <c r="C431" s="290" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D431" s="398"/>
     </row>
@@ -9018,21 +9013,21 @@
       <c r="A433" s="396">
         <v>7026</v>
       </c>
-      <c r="B433" s="539" t="s">
-        <v>451</v>
+      <c r="B433" s="449" t="s">
+        <v>448</v>
       </c>
       <c r="C433" s="291" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D433" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="396"/>
-      <c r="B434" s="539"/>
+      <c r="B434" s="449"/>
       <c r="C434" s="292" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D434" s="398"/>
     </row>
@@ -9040,21 +9035,21 @@
       <c r="A436" s="396">
         <v>7030</v>
       </c>
-      <c r="B436" s="540" t="s">
-        <v>454</v>
+      <c r="B436" s="450" t="s">
+        <v>451</v>
       </c>
       <c r="C436" s="293" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D436" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="396"/>
-      <c r="B437" s="540"/>
+      <c r="B437" s="450"/>
       <c r="C437" s="294" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D437" s="398"/>
     </row>
@@ -9062,21 +9057,21 @@
       <c r="A439" s="396">
         <v>7031</v>
       </c>
-      <c r="B439" s="545" t="s">
-        <v>457</v>
+      <c r="B439" s="447" t="s">
+        <v>454</v>
       </c>
       <c r="C439" s="295" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D439" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="396"/>
-      <c r="B440" s="545"/>
+      <c r="B440" s="447"/>
       <c r="C440" s="296" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D440" s="398"/>
     </row>
@@ -9084,21 +9079,21 @@
       <c r="A442" s="396">
         <v>7032</v>
       </c>
-      <c r="B442" s="546" t="s">
-        <v>460</v>
+      <c r="B442" s="448" t="s">
+        <v>457</v>
       </c>
       <c r="C442" s="297" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D442" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="396"/>
-      <c r="B443" s="546"/>
+      <c r="B443" s="448"/>
       <c r="C443" s="298" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D443" s="398"/>
     </row>
@@ -9106,21 +9101,21 @@
       <c r="A445" s="396">
         <v>7033</v>
       </c>
-      <c r="B445" s="543" t="s">
-        <v>463</v>
+      <c r="B445" s="445" t="s">
+        <v>460</v>
       </c>
       <c r="C445" s="299" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D445" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="396"/>
-      <c r="B446" s="543"/>
+      <c r="B446" s="445"/>
       <c r="C446" s="300" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D446" s="398"/>
     </row>
@@ -9128,21 +9123,21 @@
       <c r="A448" s="396">
         <v>7034</v>
       </c>
-      <c r="B448" s="544" t="s">
-        <v>466</v>
+      <c r="B448" s="446" t="s">
+        <v>463</v>
       </c>
       <c r="C448" s="301" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D448" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="396"/>
-      <c r="B449" s="544"/>
+      <c r="B449" s="446"/>
       <c r="C449" s="302" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D449" s="398"/>
     </row>
@@ -9150,21 +9145,21 @@
       <c r="A451" s="396">
         <v>7035</v>
       </c>
-      <c r="B451" s="549" t="s">
-        <v>469</v>
+      <c r="B451" s="443" t="s">
+        <v>466</v>
       </c>
       <c r="C451" s="303" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D451" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="396"/>
-      <c r="B452" s="549"/>
+      <c r="B452" s="443"/>
       <c r="C452" s="304" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D452" s="398"/>
     </row>
@@ -9172,21 +9167,21 @@
       <c r="A454" s="396">
         <v>7036</v>
       </c>
-      <c r="B454" s="550" t="s">
-        <v>472</v>
+      <c r="B454" s="444" t="s">
+        <v>469</v>
       </c>
       <c r="C454" s="305" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D454" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="396"/>
-      <c r="B455" s="550"/>
+      <c r="B455" s="444"/>
       <c r="C455" s="306" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D455" s="398"/>
     </row>
@@ -9194,21 +9189,21 @@
       <c r="A457" s="396">
         <v>7037</v>
       </c>
-      <c r="B457" s="547" t="s">
-        <v>475</v>
+      <c r="B457" s="441" t="s">
+        <v>472</v>
       </c>
       <c r="C457" s="307" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D457" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="396"/>
-      <c r="B458" s="547"/>
+      <c r="B458" s="441"/>
       <c r="C458" s="308" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D458" s="398"/>
     </row>
@@ -9216,21 +9211,21 @@
       <c r="A460" s="396">
         <v>7038</v>
       </c>
-      <c r="B460" s="548" t="s">
-        <v>478</v>
+      <c r="B460" s="442" t="s">
+        <v>475</v>
       </c>
       <c r="C460" s="309" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D460" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="396"/>
-      <c r="B461" s="548"/>
+      <c r="B461" s="442"/>
       <c r="C461" s="310" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D461" s="398"/>
     </row>
@@ -9238,21 +9233,21 @@
       <c r="A463" s="396">
         <v>7039</v>
       </c>
-      <c r="B463" s="553" t="s">
-        <v>481</v>
+      <c r="B463" s="439" t="s">
+        <v>478</v>
       </c>
       <c r="C463" s="311" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D463" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="396"/>
-      <c r="B464" s="553"/>
+      <c r="B464" s="439"/>
       <c r="C464" s="312" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D464" s="398"/>
     </row>
@@ -9260,21 +9255,21 @@
       <c r="A466" s="396">
         <v>7040</v>
       </c>
-      <c r="B466" s="554" t="s">
-        <v>484</v>
+      <c r="B466" s="440" t="s">
+        <v>481</v>
       </c>
       <c r="C466" s="313" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D466" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="396"/>
-      <c r="B467" s="554"/>
+      <c r="B467" s="440"/>
       <c r="C467" s="314" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D467" s="398"/>
     </row>
@@ -9282,21 +9277,21 @@
       <c r="A469" s="396">
         <v>7042</v>
       </c>
-      <c r="B469" s="551" t="s">
-        <v>487</v>
+      <c r="B469" s="437" t="s">
+        <v>484</v>
       </c>
       <c r="C469" s="315" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D469" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="396"/>
-      <c r="B470" s="551"/>
+      <c r="B470" s="437"/>
       <c r="C470" s="316" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D470" s="398"/>
     </row>
@@ -9304,21 +9299,21 @@
       <c r="A472" s="396">
         <v>7043</v>
       </c>
-      <c r="B472" s="552" t="s">
-        <v>490</v>
+      <c r="B472" s="438" t="s">
+        <v>487</v>
       </c>
       <c r="C472" s="317" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D472" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="396"/>
-      <c r="B473" s="552"/>
+      <c r="B473" s="438"/>
       <c r="C473" s="318" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D473" s="398"/>
     </row>
@@ -9326,21 +9321,21 @@
       <c r="A475" s="396">
         <v>7044</v>
       </c>
-      <c r="B475" s="557" t="s">
-        <v>493</v>
+      <c r="B475" s="435" t="s">
+        <v>490</v>
       </c>
       <c r="C475" s="319" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D475" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="396"/>
-      <c r="B476" s="557"/>
+      <c r="B476" s="435"/>
       <c r="C476" s="320" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D476" s="398"/>
     </row>
@@ -9348,21 +9343,21 @@
       <c r="A478" s="396">
         <v>7045</v>
       </c>
-      <c r="B478" s="558" t="s">
-        <v>496</v>
+      <c r="B478" s="436" t="s">
+        <v>493</v>
       </c>
       <c r="C478" s="321" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D478" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="396"/>
-      <c r="B479" s="558"/>
+      <c r="B479" s="436"/>
       <c r="C479" s="322" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D479" s="398"/>
     </row>
@@ -9370,21 +9365,21 @@
       <c r="A481" s="396">
         <v>7046</v>
       </c>
-      <c r="B481" s="555" t="s">
-        <v>499</v>
+      <c r="B481" s="433" t="s">
+        <v>496</v>
       </c>
       <c r="C481" s="323" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D481" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="396"/>
-      <c r="B482" s="555"/>
+      <c r="B482" s="433"/>
       <c r="C482" s="324" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D482" s="398"/>
     </row>
@@ -9392,21 +9387,21 @@
       <c r="A484" s="396">
         <v>7047</v>
       </c>
-      <c r="B484" s="556" t="s">
-        <v>502</v>
+      <c r="B484" s="434" t="s">
+        <v>499</v>
       </c>
       <c r="C484" s="325" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D484" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="396"/>
-      <c r="B485" s="556"/>
+      <c r="B485" s="434"/>
       <c r="C485" s="326" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D485" s="398"/>
     </row>
@@ -9414,21 +9409,21 @@
       <c r="A487" s="396">
         <v>8000</v>
       </c>
-      <c r="B487" s="561" t="s">
-        <v>505</v>
+      <c r="B487" s="431" t="s">
+        <v>502</v>
       </c>
       <c r="C487" s="327" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D487" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="396"/>
-      <c r="B488" s="561"/>
+      <c r="B488" s="431"/>
       <c r="C488" s="328" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D488" s="398"/>
     </row>
@@ -9436,21 +9431,21 @@
       <c r="A490" s="396">
         <v>8001</v>
       </c>
-      <c r="B490" s="562" t="s">
-        <v>508</v>
+      <c r="B490" s="432" t="s">
+        <v>505</v>
       </c>
       <c r="C490" s="329" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D490" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="396"/>
-      <c r="B491" s="562"/>
+      <c r="B491" s="432"/>
       <c r="C491" s="330" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D491" s="398"/>
     </row>
@@ -9458,21 +9453,21 @@
       <c r="A493" s="396">
         <v>8002</v>
       </c>
-      <c r="B493" s="559" t="s">
-        <v>511</v>
+      <c r="B493" s="429" t="s">
+        <v>508</v>
       </c>
       <c r="C493" s="331" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D493" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="396"/>
-      <c r="B494" s="559"/>
+      <c r="B494" s="429"/>
       <c r="C494" s="332" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D494" s="398"/>
     </row>
@@ -9480,21 +9475,21 @@
       <c r="A496" s="396">
         <v>8003</v>
       </c>
-      <c r="B496" s="560" t="s">
-        <v>514</v>
+      <c r="B496" s="430" t="s">
+        <v>511</v>
       </c>
       <c r="C496" s="333" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D496" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="396"/>
-      <c r="B497" s="560"/>
+      <c r="B497" s="430"/>
       <c r="C497" s="334" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D497" s="398"/>
     </row>
@@ -9502,21 +9497,21 @@
       <c r="A499" s="396">
         <v>8004</v>
       </c>
-      <c r="B499" s="565" t="s">
-        <v>517</v>
+      <c r="B499" s="427" t="s">
+        <v>514</v>
       </c>
       <c r="C499" s="335" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D499" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="396"/>
-      <c r="B500" s="565"/>
+      <c r="B500" s="427"/>
       <c r="C500" s="336" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D500" s="398"/>
     </row>
@@ -9524,21 +9519,21 @@
       <c r="A502" s="396">
         <v>8007</v>
       </c>
-      <c r="B502" s="566" t="s">
-        <v>520</v>
+      <c r="B502" s="428" t="s">
+        <v>517</v>
       </c>
       <c r="C502" s="337" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D502" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="396"/>
-      <c r="B503" s="566"/>
+      <c r="B503" s="428"/>
       <c r="C503" s="338" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D503" s="398"/>
     </row>
@@ -9546,21 +9541,21 @@
       <c r="A505" s="396">
         <v>8008</v>
       </c>
-      <c r="B505" s="563" t="s">
-        <v>523</v>
+      <c r="B505" s="425" t="s">
+        <v>520</v>
       </c>
       <c r="C505" s="339" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D505" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="396"/>
-      <c r="B506" s="563"/>
+      <c r="B506" s="425"/>
       <c r="C506" s="340" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D506" s="398"/>
     </row>
@@ -9568,21 +9563,21 @@
       <c r="A508" s="396">
         <v>8011</v>
       </c>
-      <c r="B508" s="564" t="s">
-        <v>526</v>
+      <c r="B508" s="426" t="s">
+        <v>523</v>
       </c>
       <c r="C508" s="341" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D508" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="396"/>
-      <c r="B509" s="564"/>
+      <c r="B509" s="426"/>
       <c r="C509" s="342" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D509" s="398"/>
     </row>
@@ -9590,21 +9585,21 @@
       <c r="A511" s="396">
         <v>8012</v>
       </c>
-      <c r="B511" s="569" t="s">
-        <v>529</v>
+      <c r="B511" s="423" t="s">
+        <v>526</v>
       </c>
       <c r="C511" s="343" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D511" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="396"/>
-      <c r="B512" s="569"/>
+      <c r="B512" s="423"/>
       <c r="C512" s="344" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D512" s="398"/>
     </row>
@@ -9612,21 +9607,21 @@
       <c r="A514" s="396">
         <v>8014</v>
       </c>
-      <c r="B514" s="570" t="s">
-        <v>532</v>
+      <c r="B514" s="424" t="s">
+        <v>529</v>
       </c>
       <c r="C514" s="345" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D514" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="396"/>
-      <c r="B515" s="570"/>
+      <c r="B515" s="424"/>
       <c r="C515" s="346" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D515" s="398"/>
     </row>
@@ -9634,21 +9629,21 @@
       <c r="A517" s="396">
         <v>8015</v>
       </c>
-      <c r="B517" s="567" t="s">
-        <v>535</v>
+      <c r="B517" s="421" t="s">
+        <v>532</v>
       </c>
       <c r="C517" s="347" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D517" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="396"/>
-      <c r="B518" s="567"/>
+      <c r="B518" s="421"/>
       <c r="C518" s="348" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D518" s="398"/>
     </row>
@@ -9656,21 +9651,21 @@
       <c r="A520" s="396">
         <v>8016</v>
       </c>
-      <c r="B520" s="568" t="s">
-        <v>538</v>
+      <c r="B520" s="422" t="s">
+        <v>535</v>
       </c>
       <c r="C520" s="349" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D520" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="396"/>
-      <c r="B521" s="568"/>
+      <c r="B521" s="422"/>
       <c r="C521" s="350" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D521" s="398"/>
     </row>
@@ -9678,21 +9673,21 @@
       <c r="A523" s="396">
         <v>8017</v>
       </c>
-      <c r="B523" s="573" t="s">
-        <v>541</v>
+      <c r="B523" s="419" t="s">
+        <v>538</v>
       </c>
       <c r="C523" s="351" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D523" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="396"/>
-      <c r="B524" s="573"/>
+      <c r="B524" s="419"/>
       <c r="C524" s="352" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D524" s="398"/>
     </row>
@@ -9700,21 +9695,21 @@
       <c r="A526" s="396">
         <v>8019</v>
       </c>
-      <c r="B526" s="574" t="s">
-        <v>544</v>
+      <c r="B526" s="420" t="s">
+        <v>541</v>
       </c>
       <c r="C526" s="353" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D526" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="396"/>
-      <c r="B527" s="574"/>
+      <c r="B527" s="420"/>
       <c r="C527" s="354" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D527" s="398"/>
     </row>
@@ -9722,21 +9717,21 @@
       <c r="A529" s="396">
         <v>8022</v>
       </c>
-      <c r="B529" s="571" t="s">
-        <v>547</v>
+      <c r="B529" s="417" t="s">
+        <v>544</v>
       </c>
       <c r="C529" s="355" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D529" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="396"/>
-      <c r="B530" s="571"/>
+      <c r="B530" s="417"/>
       <c r="C530" s="356" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D530" s="398"/>
     </row>
@@ -9744,21 +9739,21 @@
       <c r="A532" s="396">
         <v>8023</v>
       </c>
-      <c r="B532" s="572" t="s">
-        <v>550</v>
+      <c r="B532" s="418" t="s">
+        <v>547</v>
       </c>
       <c r="C532" s="357" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D532" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="396"/>
-      <c r="B533" s="572"/>
+      <c r="B533" s="418"/>
       <c r="C533" s="358" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D533" s="398"/>
     </row>
@@ -9766,21 +9761,21 @@
       <c r="A535" s="396">
         <v>8024</v>
       </c>
-      <c r="B535" s="577" t="s">
-        <v>553</v>
+      <c r="B535" s="415" t="s">
+        <v>550</v>
       </c>
       <c r="C535" s="359" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D535" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="396"/>
-      <c r="B536" s="577"/>
+      <c r="B536" s="415"/>
       <c r="C536" s="360" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D536" s="398"/>
     </row>
@@ -9788,21 +9783,21 @@
       <c r="A538" s="396">
         <v>8025</v>
       </c>
-      <c r="B538" s="578" t="s">
-        <v>556</v>
+      <c r="B538" s="416" t="s">
+        <v>553</v>
       </c>
       <c r="C538" s="361" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D538" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="396"/>
-      <c r="B539" s="578"/>
+      <c r="B539" s="416"/>
       <c r="C539" s="362" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D539" s="398"/>
     </row>
@@ -9810,21 +9805,21 @@
       <c r="A541" s="396">
         <v>8028</v>
       </c>
-      <c r="B541" s="575" t="s">
-        <v>559</v>
+      <c r="B541" s="413" t="s">
+        <v>556</v>
       </c>
       <c r="C541" s="363" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D541" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="396"/>
-      <c r="B542" s="575"/>
+      <c r="B542" s="413"/>
       <c r="C542" s="364" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D542" s="398"/>
     </row>
@@ -9832,21 +9827,21 @@
       <c r="A544" s="396">
         <v>9001</v>
       </c>
-      <c r="B544" s="576" t="s">
-        <v>562</v>
+      <c r="B544" s="414" t="s">
+        <v>559</v>
       </c>
       <c r="C544" s="365" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D544" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="396"/>
-      <c r="B545" s="576"/>
+      <c r="B545" s="414"/>
       <c r="C545" s="366" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D545" s="398"/>
     </row>
@@ -9854,21 +9849,21 @@
       <c r="A547" s="396">
         <v>9002</v>
       </c>
-      <c r="B547" s="581" t="s">
-        <v>565</v>
+      <c r="B547" s="411" t="s">
+        <v>562</v>
       </c>
       <c r="C547" s="367" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D547" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="396"/>
-      <c r="B548" s="581"/>
+      <c r="B548" s="411"/>
       <c r="C548" s="368" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D548" s="398"/>
     </row>
@@ -9876,21 +9871,21 @@
       <c r="A550" s="396">
         <v>9003</v>
       </c>
-      <c r="B550" s="582" t="s">
-        <v>568</v>
+      <c r="B550" s="412" t="s">
+        <v>565</v>
       </c>
       <c r="C550" s="369" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D550" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="396"/>
-      <c r="B551" s="582"/>
+      <c r="B551" s="412"/>
       <c r="C551" s="370" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D551" s="398"/>
     </row>
@@ -9898,21 +9893,21 @@
       <c r="A553" s="396">
         <v>9004</v>
       </c>
-      <c r="B553" s="579" t="s">
-        <v>571</v>
+      <c r="B553" s="409" t="s">
+        <v>568</v>
       </c>
       <c r="C553" s="371" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D553" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="396"/>
-      <c r="B554" s="579"/>
+      <c r="B554" s="409"/>
       <c r="C554" s="372" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D554" s="398"/>
     </row>
@@ -9920,21 +9915,21 @@
       <c r="A556" s="396">
         <v>9005</v>
       </c>
-      <c r="B556" s="580" t="s">
-        <v>574</v>
+      <c r="B556" s="410" t="s">
+        <v>571</v>
       </c>
       <c r="C556" s="373" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D556" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="396"/>
-      <c r="B557" s="580"/>
+      <c r="B557" s="410"/>
       <c r="C557" s="374" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D557" s="398"/>
     </row>
@@ -9942,21 +9937,21 @@
       <c r="A559" s="396">
         <v>9006</v>
       </c>
-      <c r="B559" s="585" t="s">
-        <v>577</v>
+      <c r="B559" s="407" t="s">
+        <v>574</v>
       </c>
       <c r="C559" s="375" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D559" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="396"/>
-      <c r="B560" s="585"/>
+      <c r="B560" s="407"/>
       <c r="C560" s="376" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D560" s="398"/>
     </row>
@@ -9964,21 +9959,21 @@
       <c r="A562" s="396">
         <v>9007</v>
       </c>
-      <c r="B562" s="586" t="s">
-        <v>580</v>
+      <c r="B562" s="408" t="s">
+        <v>577</v>
       </c>
       <c r="C562" s="377" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D562" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="396"/>
-      <c r="B563" s="586"/>
+      <c r="B563" s="408"/>
       <c r="C563" s="378" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D563" s="398"/>
     </row>
@@ -9986,21 +9981,21 @@
       <c r="A565" s="396">
         <v>9010</v>
       </c>
-      <c r="B565" s="583" t="s">
-        <v>583</v>
+      <c r="B565" s="405" t="s">
+        <v>580</v>
       </c>
       <c r="C565" s="379" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D565" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="396"/>
-      <c r="B566" s="583"/>
+      <c r="B566" s="405"/>
       <c r="C566" s="380" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D566" s="398"/>
     </row>
@@ -10008,21 +10003,21 @@
       <c r="A568" s="396">
         <v>9011</v>
       </c>
-      <c r="B568" s="584" t="s">
-        <v>586</v>
+      <c r="B568" s="406" t="s">
+        <v>583</v>
       </c>
       <c r="C568" s="381" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D568" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="396"/>
-      <c r="B569" s="584"/>
+      <c r="B569" s="406"/>
       <c r="C569" s="382" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D569" s="398"/>
     </row>
@@ -10030,21 +10025,21 @@
       <c r="A571" s="396">
         <v>9016</v>
       </c>
-      <c r="B571" s="592" t="s">
-        <v>589</v>
+      <c r="B571" s="403" t="s">
+        <v>586</v>
       </c>
       <c r="C571" s="383" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D571" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="396"/>
-      <c r="B572" s="592"/>
+      <c r="B572" s="403"/>
       <c r="C572" s="384" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D572" s="398"/>
     </row>
@@ -10052,21 +10047,21 @@
       <c r="A574" s="396">
         <v>9017</v>
       </c>
-      <c r="B574" s="593" t="s">
-        <v>592</v>
+      <c r="B574" s="404" t="s">
+        <v>589</v>
       </c>
       <c r="C574" s="385" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D574" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="396"/>
-      <c r="B575" s="593"/>
+      <c r="B575" s="404"/>
       <c r="C575" s="386" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D575" s="398"/>
     </row>
@@ -10074,21 +10069,21 @@
       <c r="A577" s="396">
         <v>9018</v>
       </c>
-      <c r="B577" s="587" t="s">
-        <v>595</v>
+      <c r="B577" s="397" t="s">
+        <v>592</v>
       </c>
       <c r="C577" s="387" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D577" s="398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="396"/>
-      <c r="B578" s="587"/>
+      <c r="B578" s="397"/>
       <c r="C578" s="388" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D578" s="398"/>
     </row>
@@ -10099,15 +10094,585 @@
       <c r="D580" s="398"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A581" s="588"/>
-      <c r="B581" s="590"/>
+      <c r="A581" s="399"/>
+      <c r="B581" s="401"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A582" s="589"/>
-      <c r="B582" s="591"/>
+      <c r="A582" s="400"/>
+      <c r="B582" s="402"/>
     </row>
   </sheetData>
   <mergeCells count="582">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="D346:D347"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="D394:D395"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="D412:D413"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="D424:D425"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="A436:A437"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="A439:A440"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="D457:D458"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="A454:A455"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="D472:D473"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="D463:D464"/>
+    <mergeCell ref="A466:A467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A481:A482"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="A484:A485"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="D475:D476"/>
+    <mergeCell ref="A478:A479"/>
+    <mergeCell ref="B478:B479"/>
+    <mergeCell ref="D478:D479"/>
+    <mergeCell ref="A493:A494"/>
+    <mergeCell ref="B493:B494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="B496:B497"/>
+    <mergeCell ref="D496:D497"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="D487:D488"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="A505:A506"/>
+    <mergeCell ref="B505:B506"/>
+    <mergeCell ref="D505:D506"/>
+    <mergeCell ref="A508:A509"/>
+    <mergeCell ref="B508:B509"/>
+    <mergeCell ref="D508:D509"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="D502:D503"/>
+    <mergeCell ref="A517:A518"/>
+    <mergeCell ref="B517:B518"/>
+    <mergeCell ref="D517:D518"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B511:B512"/>
+    <mergeCell ref="D511:D512"/>
+    <mergeCell ref="A514:A515"/>
+    <mergeCell ref="B514:B515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="B529:B530"/>
+    <mergeCell ref="D529:D530"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A523:A524"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="D523:D524"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="B526:B527"/>
+    <mergeCell ref="D526:D527"/>
+    <mergeCell ref="A541:A542"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="D541:D542"/>
+    <mergeCell ref="A544:A545"/>
+    <mergeCell ref="B544:B545"/>
+    <mergeCell ref="D544:D545"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="A538:A539"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="D538:D539"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="A556:A557"/>
+    <mergeCell ref="B556:B557"/>
+    <mergeCell ref="D556:D557"/>
+    <mergeCell ref="A547:A548"/>
+    <mergeCell ref="B547:B548"/>
+    <mergeCell ref="D547:D548"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="A565:A566"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="D565:D566"/>
+    <mergeCell ref="A568:A569"/>
+    <mergeCell ref="B568:B569"/>
+    <mergeCell ref="D568:D569"/>
+    <mergeCell ref="A559:A560"/>
+    <mergeCell ref="B559:B560"/>
+    <mergeCell ref="D559:D560"/>
+    <mergeCell ref="A562:A563"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="D562:D563"/>
     <mergeCell ref="A577:A578"/>
     <mergeCell ref="B577:B578"/>
     <mergeCell ref="D577:D578"/>
@@ -10120,576 +10685,6 @@
     <mergeCell ref="A574:A575"/>
     <mergeCell ref="B574:B575"/>
     <mergeCell ref="D574:D575"/>
-    <mergeCell ref="A565:A566"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="D565:D566"/>
-    <mergeCell ref="A568:A569"/>
-    <mergeCell ref="B568:B569"/>
-    <mergeCell ref="D568:D569"/>
-    <mergeCell ref="A559:A560"/>
-    <mergeCell ref="B559:B560"/>
-    <mergeCell ref="D559:D560"/>
-    <mergeCell ref="A562:A563"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="D562:D563"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="A556:A557"/>
-    <mergeCell ref="B556:B557"/>
-    <mergeCell ref="D556:D557"/>
-    <mergeCell ref="A547:A548"/>
-    <mergeCell ref="B547:B548"/>
-    <mergeCell ref="D547:D548"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="A541:A542"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="D541:D542"/>
-    <mergeCell ref="A544:A545"/>
-    <mergeCell ref="B544:B545"/>
-    <mergeCell ref="D544:D545"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="A538:A539"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="D538:D539"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="B529:B530"/>
-    <mergeCell ref="D529:D530"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A523:A524"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="D523:D524"/>
-    <mergeCell ref="A526:A527"/>
-    <mergeCell ref="B526:B527"/>
-    <mergeCell ref="D526:D527"/>
-    <mergeCell ref="A517:A518"/>
-    <mergeCell ref="B517:B518"/>
-    <mergeCell ref="D517:D518"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B511:B512"/>
-    <mergeCell ref="D511:D512"/>
-    <mergeCell ref="A514:A515"/>
-    <mergeCell ref="B514:B515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="A505:A506"/>
-    <mergeCell ref="B505:B506"/>
-    <mergeCell ref="D505:D506"/>
-    <mergeCell ref="A508:A509"/>
-    <mergeCell ref="B508:B509"/>
-    <mergeCell ref="D508:D509"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="D502:D503"/>
-    <mergeCell ref="A493:A494"/>
-    <mergeCell ref="B493:B494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="A496:A497"/>
-    <mergeCell ref="B496:B497"/>
-    <mergeCell ref="D496:D497"/>
-    <mergeCell ref="A487:A488"/>
-    <mergeCell ref="B487:B488"/>
-    <mergeCell ref="D487:D488"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="A484:A485"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="B475:B476"/>
-    <mergeCell ref="D475:D476"/>
-    <mergeCell ref="A478:A479"/>
-    <mergeCell ref="B478:B479"/>
-    <mergeCell ref="D478:D479"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="D472:D473"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="D463:D464"/>
-    <mergeCell ref="A466:A467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="D457:D458"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="A454:A455"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="A439:A440"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="A436:A437"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="D424:D425"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="D412:D413"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="D394:D395"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="D346:D347"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="D337:D338"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="D331:D332"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10710,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C1" t="str">
         <f>IFERROR(MID(B1,1,FIND(" ",B1)-1)&amp;UPPER(MID(B1,FIND(" ",B1)+1,1))&amp;MID(B1,FIND(" ",B1)+2,LEN(B1)-FIND(" ",B1)),B1)</f>
@@ -10721,13 +10716,13 @@
         <v>Name</v>
       </c>
       <c r="F1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
